--- a/Individual Estimate.xlsx
+++ b/Individual Estimate.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOANG TAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB545DF3-08F8-49E7-9097-BF03632E0E1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB0FF7A-98A7-45FD-8EDB-5BABC67E73A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bùi Nhật Hào" sheetId="4" r:id="rId1"/>
-    <sheet name="Lê Chí Huy" sheetId="8" r:id="rId2"/>
-    <sheet name="Nguyễn Hoàng Tấn" sheetId="9" r:id="rId3"/>
+    <sheet name="Lê Chí Huy" sheetId="10" r:id="rId2"/>
+    <sheet name="Nguyễn Hoàng Tấn" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -885,7 +885,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -999,79 +999,139 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1086,40 +1146,58 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,90 +1208,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1498,9 +1492,9 @@
   <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1540,10 +1534,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="74" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="28" t="s">
@@ -1558,8 +1552,8 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="78"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="28" t="s">
         <v>22</v>
       </c>
@@ -1572,8 +1566,8 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="78"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="28" t="s">
         <v>23</v>
       </c>
@@ -1586,8 +1580,8 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="78"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="88"/>
@@ -1610,8 +1604,8 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
-      <c r="B6" s="77" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="75" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -1628,8 +1622,8 @@
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="24" t="s">
         <v>25</v>
       </c>
@@ -1644,8 +1638,8 @@
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="23" t="s">
         <v>26</v>
       </c>
@@ -1660,8 +1654,8 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="78"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="89"/>
@@ -1674,7 +1668,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" ref="E9:G9" si="0">SUM(F6:F7)</f>
+        <f t="shared" ref="F9:G9" si="0">SUM(F6:F7)</f>
         <v>0</v>
       </c>
       <c r="G9" s="6">
@@ -1684,8 +1678,8 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="74" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1702,8 +1696,8 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
@@ -1718,8 +1712,8 @@
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="78"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
@@ -1734,11 +1728,11 @@
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="78"/>
-      <c r="B13" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="57"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="52"/>
       <c r="D13" s="6">
         <f>SUM(D10:D12)</f>
         <v>9</v>
@@ -1758,8 +1752,8 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="74" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1774,8 +1768,8 @@
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
@@ -1788,8 +1782,8 @@
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="78"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="7" t="s">
         <v>32</v>
       </c>
@@ -1802,11 +1796,11 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="78"/>
-      <c r="B17" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="57"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="52"/>
       <c r="D17" s="6">
         <f>SUM(D14:D16)</f>
         <v>6</v>
@@ -1826,8 +1820,8 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="76"/>
+      <c r="B18" s="74" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1842,8 +1836,8 @@
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="3" t="s">
         <v>34</v>
       </c>
@@ -1856,8 +1850,8 @@
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="78"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
@@ -1870,8 +1864,8 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="78"/>
-      <c r="B21" s="87" t="s">
+      <c r="A21" s="76"/>
+      <c r="B21" s="94" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="88"/>
@@ -1894,8 +1888,8 @@
       <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="78"/>
-      <c r="B22" s="80" t="s">
+      <c r="A22" s="76"/>
+      <c r="B22" s="106" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="33" t="s">
@@ -1910,8 +1904,8 @@
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="78"/>
-      <c r="B23" s="81"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="27" t="s">
         <v>37</v>
       </c>
@@ -1924,8 +1918,8 @@
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="78"/>
-      <c r="B24" s="82"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="34" t="s">
         <v>38</v>
       </c>
@@ -1938,11 +1932,11 @@
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="78"/>
-      <c r="B25" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="84"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="91"/>
       <c r="D25" s="35">
         <f>SUM(D22:D24)</f>
         <v>6</v>
@@ -1959,8 +1953,8 @@
       <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="78"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="76"/>
+      <c r="B26" s="85" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="29" t="s">
@@ -1977,8 +1971,8 @@
       <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="78"/>
-      <c r="B27" s="66"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="30" t="s">
         <v>41</v>
       </c>
@@ -1993,8 +1987,8 @@
       <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="78"/>
-      <c r="B28" s="67"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="31" t="s">
         <v>42</v>
       </c>
@@ -2009,11 +2003,11 @@
       <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="78"/>
-      <c r="B29" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="86"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="93"/>
       <c r="D29" s="35">
         <f>SUM(D26:D28)</f>
         <v>10</v>
@@ -2031,8 +2025,8 @@
       <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="78"/>
-      <c r="B30" s="90" t="s">
+      <c r="A30" s="76"/>
+      <c r="B30" s="95" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="36" t="s">
@@ -2047,8 +2041,8 @@
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="78"/>
-      <c r="B31" s="91"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="36" t="s">
         <v>44</v>
       </c>
@@ -2061,8 +2055,8 @@
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="78"/>
-      <c r="B32" s="92"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="36" t="s">
         <v>45</v>
       </c>
@@ -2075,11 +2069,11 @@
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="78"/>
-      <c r="B33" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="94"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="99"/>
       <c r="D33" s="35">
         <f>SUM(D30:D32)</f>
         <v>6</v>
@@ -2096,8 +2090,8 @@
       <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="78"/>
-      <c r="B34" s="90" t="s">
+      <c r="A34" s="76"/>
+      <c r="B34" s="95" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="36" t="s">
@@ -2112,8 +2106,8 @@
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="78"/>
-      <c r="B35" s="91"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="36" t="s">
         <v>48</v>
       </c>
@@ -2126,8 +2120,8 @@
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="78"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="97"/>
       <c r="C36" s="36" t="s">
         <v>47</v>
       </c>
@@ -2140,11 +2134,11 @@
       <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="78"/>
-      <c r="B37" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="95"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="100"/>
       <c r="D37" s="35">
         <f>SUM(D34:D36)</f>
         <v>6</v>
@@ -2161,8 +2155,8 @@
       <c r="H37" s="35"/>
     </row>
     <row r="38" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="78"/>
-      <c r="B38" s="96" t="s">
+      <c r="A38" s="76"/>
+      <c r="B38" s="101" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="36" t="s">
@@ -2179,8 +2173,8 @@
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="78"/>
-      <c r="B39" s="97"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="36" t="s">
         <v>50</v>
       </c>
@@ -2195,8 +2189,8 @@
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="78"/>
-      <c r="B40" s="98"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="36" t="s">
         <v>51</v>
       </c>
@@ -2211,11 +2205,11 @@
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="78"/>
-      <c r="B41" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="95"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="100"/>
       <c r="D41" s="35">
         <f>SUM(D38:D40)</f>
         <v>6</v>
@@ -2233,8 +2227,8 @@
       <c r="H41" s="35"/>
     </row>
     <row r="42" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="78"/>
-      <c r="B42" s="96" t="s">
+      <c r="A42" s="76"/>
+      <c r="B42" s="101" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="36" t="s">
@@ -2251,8 +2245,8 @@
       <c r="H42" s="25"/>
     </row>
     <row r="43" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="78"/>
-      <c r="B43" s="102"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="36" t="s">
         <v>53</v>
       </c>
@@ -2267,8 +2261,8 @@
       <c r="H43" s="25"/>
     </row>
     <row r="44" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="78"/>
-      <c r="B44" s="103"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="105"/>
       <c r="C44" s="36" t="s">
         <v>54</v>
       </c>
@@ -2283,11 +2277,11 @@
       <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="78"/>
-      <c r="B45" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="94"/>
+      <c r="A45" s="76"/>
+      <c r="B45" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="99"/>
       <c r="D45" s="35">
         <f>SUM(D42:D44)</f>
         <v>6</v>
@@ -2305,8 +2299,8 @@
       <c r="H45" s="35"/>
     </row>
     <row r="46" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="78"/>
-      <c r="B46" s="96" t="s">
+      <c r="A46" s="76"/>
+      <c r="B46" s="101" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="36" t="s">
@@ -2323,8 +2317,8 @@
       <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="78"/>
-      <c r="B47" s="102"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="36" t="s">
         <v>56</v>
       </c>
@@ -2339,8 +2333,8 @@
       <c r="H47" s="25"/>
     </row>
     <row r="48" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="78"/>
-      <c r="B48" s="103"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="36" t="s">
         <v>57</v>
       </c>
@@ -2355,11 +2349,11 @@
       <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="79"/>
-      <c r="B49" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="94"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="99"/>
       <c r="D49" s="35">
         <f>SUM(D46:D48)</f>
         <v>8</v>
@@ -2377,11 +2371,11 @@
       <c r="H49" s="35"/>
     </row>
     <row r="50" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="51"/>
+      <c r="A50" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="65"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="9">
         <f>SUM(D5+D9+D13+D17+D21 + D25 + D29 + D33 + D37 + D41 + D45 + D49)</f>
         <v>95</v>
@@ -2421,10 +2415,10 @@
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="68" t="s">
         <v>59</v>
       </c>
       <c r="C53" s="38" t="s">
@@ -2443,8 +2437,8 @@
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="60"/>
-      <c r="B54" s="58"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="70"/>
       <c r="C54" s="38" t="s">
         <v>61</v>
       </c>
@@ -2461,8 +2455,8 @@
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="60"/>
-      <c r="B55" s="58"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="70"/>
       <c r="C55" s="38" t="s">
         <v>62</v>
       </c>
@@ -2479,11 +2473,11 @@
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="60"/>
-      <c r="B56" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="57"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="52"/>
       <c r="D56" s="6">
         <f>SUM(D53:D55)</f>
         <v>10</v>
@@ -2503,11 +2497,11 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="60"/>
-      <c r="B57" s="99" t="s">
+      <c r="A57" s="57"/>
+      <c r="B57" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="41" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="5">
@@ -2523,9 +2517,9 @@
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="60"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="42" t="s">
+      <c r="A58" s="57"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="41" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="5">
@@ -2541,9 +2535,9 @@
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="60"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="42" t="s">
+      <c r="A59" s="57"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="41" t="s">
         <v>66</v>
       </c>
       <c r="D59" s="5">
@@ -2559,11 +2553,11 @@
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="60"/>
-      <c r="B60" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="57"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="52"/>
       <c r="D60" s="6">
         <f>SUM(D57:D59)</f>
         <v>10</v>
@@ -2577,14 +2571,14 @@
         <v>14</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" ref="E60:G60" si="4">SUM(G57:G58)</f>
+        <f t="shared" ref="G60" si="4">SUM(G57:G58)</f>
         <v>0</v>
       </c>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="60"/>
-      <c r="B61" s="65" t="s">
+      <c r="A61" s="57"/>
+      <c r="B61" s="85" t="s">
         <v>67</v>
       </c>
       <c r="C61" s="36" t="s">
@@ -2603,8 +2597,8 @@
       <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="60"/>
-      <c r="B62" s="66"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="86"/>
       <c r="C62" s="36" t="s">
         <v>69</v>
       </c>
@@ -2621,8 +2615,8 @@
       <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="60"/>
-      <c r="B63" s="67"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="87"/>
       <c r="C63" s="36" t="s">
         <v>70</v>
       </c>
@@ -2639,11 +2633,11 @@
       <c r="H63" s="25"/>
     </row>
     <row r="64" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="60"/>
-      <c r="B64" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="57"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="52"/>
       <c r="D64" s="6">
         <f>SUM(D61:D63)</f>
         <v>10</v>
@@ -2657,14 +2651,14 @@
         <v>14</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" ref="E64:G64" si="5">SUM(G61:G62)</f>
+        <f t="shared" ref="G64" si="5">SUM(G61:G62)</f>
         <v>0</v>
       </c>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="60"/>
-      <c r="B65" s="65" t="s">
+      <c r="A65" s="57"/>
+      <c r="B65" s="85" t="s">
         <v>71</v>
       </c>
       <c r="C65" s="36" t="s">
@@ -2681,8 +2675,8 @@
       <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="60"/>
-      <c r="B66" s="66"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="86"/>
       <c r="C66" s="36" t="s">
         <v>73</v>
       </c>
@@ -2697,8 +2691,8 @@
       <c r="H66" s="25"/>
     </row>
     <row r="67" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="60"/>
-      <c r="B67" s="67"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="87"/>
       <c r="C67" s="36" t="s">
         <v>74</v>
       </c>
@@ -2713,11 +2707,11 @@
       <c r="H67" s="25"/>
     </row>
     <row r="68" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="60"/>
-      <c r="B68" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="57"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="52"/>
       <c r="D68" s="6">
         <f>SUM(D65:D67)</f>
         <v>10</v>
@@ -2727,7 +2721,7 @@
         <v>6</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" ref="E68:G68" si="6">SUM(F65:F66)</f>
+        <f t="shared" ref="F68:G68" si="6">SUM(F65:F66)</f>
         <v>0</v>
       </c>
       <c r="G68" s="6">
@@ -2737,11 +2731,11 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="60"/>
-      <c r="B69" s="65" t="s">
+      <c r="A69" s="57"/>
+      <c r="B69" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="43" t="s">
+      <c r="C69" s="42" t="s">
         <v>76</v>
       </c>
       <c r="D69" s="25">
@@ -2753,9 +2747,9 @@
       <c r="H69" s="25"/>
     </row>
     <row r="70" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="60"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="43" t="s">
+      <c r="A70" s="57"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="42" t="s">
         <v>77</v>
       </c>
       <c r="D70" s="25">
@@ -2767,9 +2761,9 @@
       <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="60"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="43" t="s">
+      <c r="A71" s="57"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="42" t="s">
         <v>78</v>
       </c>
       <c r="D71" s="25">
@@ -2781,11 +2775,11 @@
       <c r="H71" s="25"/>
     </row>
     <row r="72" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="60"/>
-      <c r="B72" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="57"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="52"/>
       <c r="D72" s="6">
         <f>SUM(D69:D71)</f>
         <v>6</v>
@@ -2805,8 +2799,8 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="60"/>
-      <c r="B73" s="68" t="s">
+      <c r="A73" s="57"/>
+      <c r="B73" s="61" t="s">
         <v>79</v>
       </c>
       <c r="C73" s="36" t="s">
@@ -2821,8 +2815,8 @@
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="60"/>
-      <c r="B74" s="69"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="62"/>
       <c r="C74" s="36" t="s">
         <v>81</v>
       </c>
@@ -2835,8 +2829,8 @@
       <c r="H74" s="25"/>
     </row>
     <row r="75" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="60"/>
-      <c r="B75" s="70"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="63"/>
       <c r="C75" s="36" t="s">
         <v>82</v>
       </c>
@@ -2849,11 +2843,11 @@
       <c r="H75" s="25"/>
     </row>
     <row r="76" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="60"/>
-      <c r="B76" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="57"/>
+      <c r="A76" s="57"/>
+      <c r="B76" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="52"/>
       <c r="D76" s="6">
         <f>SUM(D73:D75)</f>
         <v>6</v>
@@ -2873,8 +2867,8 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="60"/>
-      <c r="B77" s="62" t="s">
+      <c r="A77" s="57"/>
+      <c r="B77" s="59" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="36" t="s">
@@ -2889,8 +2883,8 @@
       <c r="H77" s="25"/>
     </row>
     <row r="78" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="60"/>
-      <c r="B78" s="63"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="60"/>
       <c r="C78" s="36" t="s">
         <v>85</v>
       </c>
@@ -2903,8 +2897,8 @@
       <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="60"/>
-      <c r="B79" s="63"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="60"/>
       <c r="C79" s="36" t="s">
         <v>86</v>
       </c>
@@ -2917,11 +2911,11 @@
       <c r="H79" s="25"/>
     </row>
     <row r="80" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="61"/>
-      <c r="B80" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="57"/>
+      <c r="A80" s="58"/>
+      <c r="B80" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="52"/>
       <c r="D80" s="6">
         <f>SUM(D77:D79)</f>
         <v>6</v>
@@ -2941,11 +2935,11 @@
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="51"/>
+      <c r="A81" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="65"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="9">
         <f>SUM(D56+D60 + D64 + D68 + D72 + D76 + D80)</f>
         <v>58</v>
@@ -2985,63 +2979,63 @@
       <c r="H83" s="14"/>
     </row>
     <row r="84" spans="1:8" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="73" t="s">
+      <c r="A84" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="104" t="s">
+      <c r="B84" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="42" t="s">
+      <c r="C84" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="D84" s="105">
+      <c r="D84" s="48">
         <v>5</v>
       </c>
-      <c r="E84" s="105">
-        <v>8</v>
-      </c>
-      <c r="F84" s="105"/>
-      <c r="G84" s="105"/>
-      <c r="H84" s="105"/>
+      <c r="E84" s="48">
+        <v>8</v>
+      </c>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
     </row>
     <row r="85" spans="1:8" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="74"/>
-      <c r="B85" s="104"/>
-      <c r="C85" s="42" t="s">
+      <c r="A85" s="79"/>
+      <c r="B85" s="82"/>
+      <c r="C85" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="D85" s="105">
-        <v>3</v>
-      </c>
-      <c r="E85" s="105">
-        <v>3</v>
-      </c>
-      <c r="F85" s="105"/>
-      <c r="G85" s="105"/>
-      <c r="H85" s="105"/>
+      <c r="D85" s="48">
+        <v>3</v>
+      </c>
+      <c r="E85" s="48">
+        <v>3</v>
+      </c>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
     </row>
     <row r="86" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="52"/>
-      <c r="B86" s="106"/>
-      <c r="C86" s="42" t="s">
+      <c r="A86" s="80"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="105">
-        <v>2</v>
-      </c>
-      <c r="E86" s="105">
-        <v>1</v>
-      </c>
-      <c r="F86" s="105"/>
-      <c r="G86" s="105"/>
-      <c r="H86" s="105"/>
+      <c r="D86" s="48">
+        <v>2</v>
+      </c>
+      <c r="E86" s="48">
+        <v>1</v>
+      </c>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
     </row>
     <row r="87" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="52"/>
-      <c r="B87" s="107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="107"/>
+      <c r="A87" s="80"/>
+      <c r="B87" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="73"/>
       <c r="D87" s="6">
         <f>SUM(D84:D86)</f>
         <v>10</v>
@@ -3061,61 +3055,61 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="52"/>
-      <c r="B88" s="108" t="s">
+      <c r="A88" s="80"/>
+      <c r="B88" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="109" t="s">
+      <c r="C88" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D88" s="105">
+      <c r="D88" s="48">
         <v>5</v>
       </c>
-      <c r="E88" s="105">
-        <v>8</v>
-      </c>
-      <c r="F88" s="105"/>
-      <c r="G88" s="105"/>
-      <c r="H88" s="105"/>
+      <c r="E88" s="48">
+        <v>8</v>
+      </c>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
     </row>
     <row r="89" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="52"/>
-      <c r="B89" s="110"/>
-      <c r="C89" s="109" t="s">
+      <c r="A89" s="80"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D89" s="105">
-        <v>2</v>
-      </c>
-      <c r="E89" s="105">
+      <c r="D89" s="48">
+        <v>2</v>
+      </c>
+      <c r="E89" s="48">
         <v>5</v>
       </c>
-      <c r="F89" s="105"/>
-      <c r="G89" s="105"/>
-      <c r="H89" s="105"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
     </row>
     <row r="90" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="52"/>
-      <c r="B90" s="110"/>
-      <c r="C90" s="109" t="s">
+      <c r="A90" s="80"/>
+      <c r="B90" s="72"/>
+      <c r="C90" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="105">
-        <v>1</v>
-      </c>
-      <c r="E90" s="105">
-        <v>1</v>
-      </c>
-      <c r="F90" s="105"/>
-      <c r="G90" s="105"/>
-      <c r="H90" s="105"/>
+      <c r="D90" s="48">
+        <v>1</v>
+      </c>
+      <c r="E90" s="48">
+        <v>1</v>
+      </c>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
     </row>
     <row r="91" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="52"/>
-      <c r="B91" s="107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="107"/>
+      <c r="A91" s="80"/>
+      <c r="B91" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="73"/>
       <c r="D91" s="6">
         <f>SUM(D88:D90)</f>
         <v>8</v>
@@ -3135,55 +3129,55 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="52"/>
-      <c r="B92" s="108" t="s">
+      <c r="A92" s="80"/>
+      <c r="B92" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="C92" s="109" t="s">
+      <c r="C92" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="105">
+      <c r="D92" s="48">
         <v>5</v>
       </c>
-      <c r="E92" s="105"/>
-      <c r="F92" s="105"/>
-      <c r="G92" s="105"/>
-      <c r="H92" s="105"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
     </row>
     <row r="93" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="52"/>
-      <c r="B93" s="110"/>
-      <c r="C93" s="109" t="s">
+      <c r="A93" s="80"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D93" s="105">
-        <v>3</v>
-      </c>
-      <c r="E93" s="105"/>
-      <c r="F93" s="105"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="105"/>
+      <c r="D93" s="48">
+        <v>3</v>
+      </c>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
     </row>
     <row r="94" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="52"/>
-      <c r="B94" s="110"/>
-      <c r="C94" s="109" t="s">
+      <c r="A94" s="80"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="105">
-        <v>2</v>
-      </c>
-      <c r="E94" s="105"/>
-      <c r="F94" s="105"/>
-      <c r="G94" s="105"/>
-      <c r="H94" s="105"/>
+      <c r="D94" s="48">
+        <v>2</v>
+      </c>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
     </row>
     <row r="95" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="53"/>
-      <c r="B95" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="57"/>
+      <c r="A95" s="81"/>
+      <c r="B95" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="52"/>
       <c r="D95" s="6">
         <f>SUM(D92:D94)</f>
         <v>10</v>
@@ -3203,11 +3197,11 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="50"/>
-      <c r="C96" s="51"/>
+      <c r="A96" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="65"/>
+      <c r="C96" s="66"/>
       <c r="D96" s="9">
         <f>SUM(D87+D91+D95)</f>
         <v>28</v>
@@ -3247,63 +3241,63 @@
       <c r="H98" s="17"/>
     </row>
     <row r="99" spans="1:8" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="59" t="s">
+      <c r="A99" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="108" t="s">
+      <c r="B99" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="109" t="s">
+      <c r="C99" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D99" s="105">
+      <c r="D99" s="48">
         <v>5</v>
       </c>
-      <c r="E99" s="105">
+      <c r="E99" s="48">
         <v>5</v>
       </c>
-      <c r="F99" s="105"/>
-      <c r="G99" s="105"/>
-      <c r="H99" s="105"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
     </row>
     <row r="100" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="60"/>
-      <c r="B100" s="110"/>
-      <c r="C100" s="109" t="s">
+      <c r="A100" s="57"/>
+      <c r="B100" s="72"/>
+      <c r="C100" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D100" s="105">
-        <v>2</v>
-      </c>
-      <c r="E100" s="105">
-        <v>3</v>
-      </c>
-      <c r="F100" s="105"/>
-      <c r="G100" s="105"/>
-      <c r="H100" s="105"/>
+      <c r="D100" s="48">
+        <v>2</v>
+      </c>
+      <c r="E100" s="48">
+        <v>3</v>
+      </c>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
     </row>
     <row r="101" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="60"/>
-      <c r="B101" s="110"/>
-      <c r="C101" s="109" t="s">
+      <c r="A101" s="57"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D101" s="105">
-        <v>1</v>
-      </c>
-      <c r="E101" s="105">
-        <v>1</v>
-      </c>
-      <c r="F101" s="105"/>
-      <c r="G101" s="105"/>
-      <c r="H101" s="105"/>
+      <c r="D101" s="48">
+        <v>1</v>
+      </c>
+      <c r="E101" s="48">
+        <v>1</v>
+      </c>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
     </row>
     <row r="102" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="60"/>
-      <c r="B102" s="107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="107"/>
+      <c r="A102" s="57"/>
+      <c r="B102" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="73"/>
       <c r="D102" s="6">
         <f>SUM(D99:D101)</f>
         <v>8</v>
@@ -3323,55 +3317,55 @@
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="60"/>
-      <c r="B103" s="108" t="s">
+      <c r="A103" s="57"/>
+      <c r="B103" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="109" t="s">
+      <c r="C103" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="D103" s="105">
+      <c r="D103" s="48">
         <v>5</v>
       </c>
-      <c r="E103" s="105"/>
-      <c r="F103" s="105"/>
-      <c r="G103" s="105"/>
-      <c r="H103" s="105"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
     </row>
     <row r="104" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="60"/>
-      <c r="B104" s="108"/>
-      <c r="C104" s="109" t="s">
+      <c r="A104" s="57"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D104" s="105">
-        <v>3</v>
-      </c>
-      <c r="E104" s="105"/>
-      <c r="F104" s="105"/>
-      <c r="G104" s="105"/>
-      <c r="H104" s="105"/>
+      <c r="D104" s="48">
+        <v>3</v>
+      </c>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
     </row>
     <row r="105" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="60"/>
-      <c r="B105" s="110"/>
-      <c r="C105" s="109" t="s">
+      <c r="A105" s="57"/>
+      <c r="B105" s="72"/>
+      <c r="C105" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="D105" s="105">
-        <v>2</v>
-      </c>
-      <c r="E105" s="105"/>
-      <c r="F105" s="105"/>
-      <c r="G105" s="105"/>
-      <c r="H105" s="105"/>
+      <c r="D105" s="48">
+        <v>2</v>
+      </c>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="48"/>
     </row>
     <row r="106" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="60"/>
-      <c r="B106" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="57"/>
+      <c r="A106" s="57"/>
+      <c r="B106" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="52"/>
       <c r="D106" s="6">
         <f>SUM(D103:D105)</f>
         <v>10</v>
@@ -3391,8 +3385,8 @@
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="60"/>
-      <c r="B107" s="62" t="s">
+      <c r="A107" s="57"/>
+      <c r="B107" s="59" t="s">
         <v>109</v>
       </c>
       <c r="C107" s="36" t="s">
@@ -3409,8 +3403,8 @@
       <c r="H107" s="25"/>
     </row>
     <row r="108" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="60"/>
-      <c r="B108" s="63"/>
+      <c r="A108" s="57"/>
+      <c r="B108" s="60"/>
       <c r="C108" s="36" t="s">
         <v>111</v>
       </c>
@@ -3425,8 +3419,8 @@
       <c r="H108" s="25"/>
     </row>
     <row r="109" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="60"/>
-      <c r="B109" s="63"/>
+      <c r="A109" s="57"/>
+      <c r="B109" s="60"/>
       <c r="C109" s="36" t="s">
         <v>112</v>
       </c>
@@ -3441,11 +3435,11 @@
       <c r="H109" s="25"/>
     </row>
     <row r="110" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="60"/>
-      <c r="B110" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="57"/>
+      <c r="A110" s="57"/>
+      <c r="B110" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="52"/>
       <c r="D110" s="6">
         <f>SUM(D107:D109)</f>
         <v>10</v>
@@ -3465,8 +3459,8 @@
       <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="60"/>
-      <c r="B111" s="62" t="s">
+      <c r="A111" s="57"/>
+      <c r="B111" s="59" t="s">
         <v>113</v>
       </c>
       <c r="C111" s="36" t="s">
@@ -3483,8 +3477,8 @@
       <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="60"/>
-      <c r="B112" s="62"/>
+      <c r="A112" s="57"/>
+      <c r="B112" s="59"/>
       <c r="C112" s="36" t="s">
         <v>115</v>
       </c>
@@ -3499,8 +3493,8 @@
       <c r="H112" s="25"/>
     </row>
     <row r="113" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="60"/>
-      <c r="B113" s="62"/>
+      <c r="A113" s="57"/>
+      <c r="B113" s="59"/>
       <c r="C113" s="36" t="s">
         <v>116</v>
       </c>
@@ -3515,11 +3509,11 @@
       <c r="H113" s="25"/>
     </row>
     <row r="114" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="60"/>
-      <c r="B114" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="57"/>
+      <c r="A114" s="57"/>
+      <c r="B114" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="52"/>
       <c r="D114" s="6">
         <f>SUM(D111:D113)</f>
         <v>10</v>
@@ -3539,8 +3533,8 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="60"/>
-      <c r="B115" s="62" t="s">
+      <c r="A115" s="57"/>
+      <c r="B115" s="59" t="s">
         <v>117</v>
       </c>
       <c r="C115" s="36" t="s">
@@ -3555,8 +3549,8 @@
       <c r="H115" s="25"/>
     </row>
     <row r="116" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="60"/>
-      <c r="B116" s="63"/>
+      <c r="A116" s="57"/>
+      <c r="B116" s="60"/>
       <c r="C116" s="36" t="s">
         <v>119</v>
       </c>
@@ -3569,8 +3563,8 @@
       <c r="H116" s="25"/>
     </row>
     <row r="117" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="60"/>
-      <c r="B117" s="63"/>
+      <c r="A117" s="57"/>
+      <c r="B117" s="60"/>
       <c r="C117" s="36" t="s">
         <v>120</v>
       </c>
@@ -3583,11 +3577,11 @@
       <c r="H117" s="25"/>
     </row>
     <row r="118" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="60"/>
-      <c r="B118" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="57"/>
+      <c r="A118" s="57"/>
+      <c r="B118" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="52"/>
       <c r="D118" s="6">
         <f>SUM(D115:D117)</f>
         <v>7</v>
@@ -3607,8 +3601,8 @@
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="60"/>
-      <c r="B119" s="62" t="s">
+      <c r="A119" s="57"/>
+      <c r="B119" s="59" t="s">
         <v>121</v>
       </c>
       <c r="C119" s="36" t="s">
@@ -3623,8 +3617,8 @@
       <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="60"/>
-      <c r="B120" s="63"/>
+      <c r="A120" s="57"/>
+      <c r="B120" s="60"/>
       <c r="C120" s="36" t="s">
         <v>123</v>
       </c>
@@ -3637,8 +3631,8 @@
       <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="60"/>
-      <c r="B121" s="63"/>
+      <c r="A121" s="57"/>
+      <c r="B121" s="60"/>
       <c r="C121" s="36" t="s">
         <v>124</v>
       </c>
@@ -3651,11 +3645,11 @@
       <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="60"/>
-      <c r="B122" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="57"/>
+      <c r="A122" s="57"/>
+      <c r="B122" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="52"/>
       <c r="D122" s="6">
         <f>SUM(D119:D121)</f>
         <v>7</v>
@@ -3675,8 +3669,8 @@
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="60"/>
-      <c r="B123" s="62" t="s">
+      <c r="A123" s="57"/>
+      <c r="B123" s="59" t="s">
         <v>125</v>
       </c>
       <c r="C123" s="36" t="s">
@@ -3691,8 +3685,8 @@
       <c r="H123" s="25"/>
     </row>
     <row r="124" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="60"/>
-      <c r="B124" s="63"/>
+      <c r="A124" s="57"/>
+      <c r="B124" s="60"/>
       <c r="C124" s="36" t="s">
         <v>127</v>
       </c>
@@ -3705,8 +3699,8 @@
       <c r="H124" s="25"/>
     </row>
     <row r="125" spans="1:8" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="60"/>
-      <c r="B125" s="63"/>
+      <c r="A125" s="57"/>
+      <c r="B125" s="60"/>
       <c r="C125" s="36" t="s">
         <v>128</v>
       </c>
@@ -3719,11 +3713,11 @@
       <c r="H125" s="25"/>
     </row>
     <row r="126" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="60"/>
-      <c r="B126" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="57"/>
+      <c r="A126" s="57"/>
+      <c r="B126" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="52"/>
       <c r="D126" s="6">
         <f>SUM(D123:D125)</f>
         <v>7</v>
@@ -3743,11 +3737,11 @@
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="50"/>
-      <c r="C127" s="51"/>
+      <c r="A127" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="65"/>
+      <c r="C127" s="66"/>
       <c r="D127" s="9">
         <f>SUM(D102+D106 + D110 + D114 + D118 + D122 + D126)</f>
         <v>59</v>
@@ -3787,13 +3781,13 @@
       <c r="H129" s="17"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="59" t="s">
+      <c r="A130" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="71" t="s">
+      <c r="B130" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="C130" s="40" t="s">
+      <c r="C130" s="39" t="s">
         <v>131</v>
       </c>
       <c r="D130" s="4">
@@ -3807,8 +3801,8 @@
       <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="60"/>
-      <c r="B131" s="72"/>
+      <c r="A131" s="57"/>
+      <c r="B131" s="68"/>
       <c r="C131" s="37" t="s">
         <v>132</v>
       </c>
@@ -3823,9 +3817,9 @@
       <c r="H131" s="5"/>
     </row>
     <row r="132" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="60"/>
-      <c r="B132" s="55"/>
-      <c r="C132" s="41" t="s">
+      <c r="A132" s="57"/>
+      <c r="B132" s="69"/>
+      <c r="C132" s="40" t="s">
         <v>133</v>
       </c>
       <c r="D132" s="5">
@@ -3839,11 +3833,11 @@
       <c r="H132" s="5"/>
     </row>
     <row r="133" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="60"/>
-      <c r="B133" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="57"/>
+      <c r="A133" s="57"/>
+      <c r="B133" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="52"/>
       <c r="D133" s="6">
         <f>SUM(D130:D132)</f>
         <v>6</v>
@@ -3863,8 +3857,8 @@
       <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="60"/>
-      <c r="B134" s="71" t="s">
+      <c r="A134" s="57"/>
+      <c r="B134" s="67" t="s">
         <v>134</v>
       </c>
       <c r="C134" s="38" t="s">
@@ -3881,8 +3875,8 @@
       <c r="H134" s="5"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="60"/>
-      <c r="B135" s="58"/>
+      <c r="A135" s="57"/>
+      <c r="B135" s="70"/>
       <c r="C135" s="38" t="s">
         <v>136</v>
       </c>
@@ -3897,9 +3891,9 @@
       <c r="H135" s="5"/>
     </row>
     <row r="136" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="60"/>
-      <c r="B136" s="55"/>
-      <c r="C136" s="45" t="s">
+      <c r="A136" s="57"/>
+      <c r="B136" s="69"/>
+      <c r="C136" s="43" t="s">
         <v>137</v>
       </c>
       <c r="D136" s="8">
@@ -3913,11 +3907,11 @@
       <c r="H136" s="8"/>
     </row>
     <row r="137" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="60"/>
-      <c r="B137" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="57"/>
+      <c r="A137" s="57"/>
+      <c r="B137" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="52"/>
       <c r="D137" s="6">
         <f>SUM(D134:D136)</f>
         <v>7</v>
@@ -3937,8 +3931,8 @@
       <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="60"/>
-      <c r="B138" s="62" t="s">
+      <c r="A138" s="57"/>
+      <c r="B138" s="59" t="s">
         <v>138</v>
       </c>
       <c r="C138" s="36" t="s">
@@ -3955,8 +3949,8 @@
       <c r="H138" s="25"/>
     </row>
     <row r="139" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="60"/>
-      <c r="B139" s="63"/>
+      <c r="A139" s="57"/>
+      <c r="B139" s="60"/>
       <c r="C139" s="36" t="s">
         <v>140</v>
       </c>
@@ -3971,8 +3965,8 @@
       <c r="H139" s="25"/>
     </row>
     <row r="140" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="60"/>
-      <c r="B140" s="63"/>
+      <c r="A140" s="57"/>
+      <c r="B140" s="60"/>
       <c r="C140" s="36" t="s">
         <v>141</v>
       </c>
@@ -3987,11 +3981,11 @@
       <c r="H140" s="25"/>
     </row>
     <row r="141" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="60"/>
-      <c r="B141" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="57"/>
+      <c r="A141" s="57"/>
+      <c r="B141" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="52"/>
       <c r="D141" s="6">
         <f>SUM(D138:D140)</f>
         <v>9</v>
@@ -4011,8 +4005,8 @@
       <c r="H141" s="6"/>
     </row>
     <row r="142" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="60"/>
-      <c r="B142" s="62" t="s">
+      <c r="A142" s="57"/>
+      <c r="B142" s="59" t="s">
         <v>142</v>
       </c>
       <c r="C142" s="36" t="s">
@@ -4029,8 +4023,8 @@
       <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="60"/>
-      <c r="B143" s="63"/>
+      <c r="A143" s="57"/>
+      <c r="B143" s="60"/>
       <c r="C143" s="36" t="s">
         <v>144</v>
       </c>
@@ -4045,8 +4039,8 @@
       <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="60"/>
-      <c r="B144" s="63"/>
+      <c r="A144" s="57"/>
+      <c r="B144" s="60"/>
       <c r="C144" s="36" t="s">
         <v>145</v>
       </c>
@@ -4061,11 +4055,11 @@
       <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="60"/>
-      <c r="B145" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="57"/>
+      <c r="A145" s="57"/>
+      <c r="B145" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="52"/>
       <c r="D145" s="6">
         <f>SUM(D142:D144)</f>
         <v>9</v>
@@ -4085,8 +4079,8 @@
       <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="60"/>
-      <c r="B146" s="62" t="s">
+      <c r="A146" s="57"/>
+      <c r="B146" s="59" t="s">
         <v>146</v>
       </c>
       <c r="C146" s="36" t="s">
@@ -4103,8 +4097,8 @@
       <c r="H146" s="25"/>
     </row>
     <row r="147" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="60"/>
-      <c r="B147" s="63"/>
+      <c r="A147" s="57"/>
+      <c r="B147" s="60"/>
       <c r="C147" s="36" t="s">
         <v>148</v>
       </c>
@@ -4119,8 +4113,8 @@
       <c r="H147" s="25"/>
     </row>
     <row r="148" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="60"/>
-      <c r="B148" s="63"/>
+      <c r="A148" s="57"/>
+      <c r="B148" s="60"/>
       <c r="C148" s="36" t="s">
         <v>149</v>
       </c>
@@ -4135,11 +4129,11 @@
       <c r="H148" s="25"/>
     </row>
     <row r="149" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="61"/>
-      <c r="B149" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="57"/>
+      <c r="A149" s="58"/>
+      <c r="B149" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="52"/>
       <c r="D149" s="6">
         <f>SUM(D146:D148)</f>
         <v>9</v>
@@ -4159,11 +4153,11 @@
       <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B150" s="50"/>
-      <c r="C150" s="51"/>
+      <c r="A150" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="65"/>
+      <c r="C150" s="66"/>
       <c r="D150" s="9">
         <f>SUM(D133+D137 + D141 + D145 + D149)</f>
         <v>40</v>
@@ -4223,7 +4217,12 @@
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B92:B94"/>
     <mergeCell ref="B95:C95"/>
-    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A53:A80"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:B71"/>
     <mergeCell ref="B99:B101"/>
     <mergeCell ref="B102:C102"/>
     <mergeCell ref="B103:B105"/>
@@ -4244,17 +4243,6 @@
     <mergeCell ref="B133:C133"/>
     <mergeCell ref="B134:B136"/>
     <mergeCell ref="B137:C137"/>
-    <mergeCell ref="A53:A80"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="B126:C126"/>
@@ -4265,6 +4253,12 @@
     <mergeCell ref="B145:C145"/>
     <mergeCell ref="B146:B148"/>
     <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A96:C96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4272,13 +4266,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF21283D-6E12-4EF8-A088-25EF0DFEE5D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10C4AB1-EA84-4A39-8DA4-D0457BD53DF0}">
   <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A49"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4318,13 +4312,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="50" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="4">
@@ -4336,9 +4330,9 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="78"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="28" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="50" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="5">
@@ -4350,9 +4344,9 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="78"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="28" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="50" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="5">
@@ -4364,8 +4358,8 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="78"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="88"/>
@@ -4388,128 +4382,116 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
-      <c r="B6" s="77" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="75" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="22">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="5">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1.8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="22">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="78"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="89"/>
       <c r="D9" s="6">
-        <f>SUM(D6:D7)</f>
-        <v>1.2999999999999998</v>
+        <f>SUM(D6:D8)</f>
+        <v>16</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" ref="E9:G9" si="0">SUM(E6:E7)</f>
-        <v>0.30000000000000004</v>
+        <f>SUM(E6:E8)</f>
+        <v>10</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" ref="F9:G9" si="0">SUM(F6:F7)</f>
+        <v>0</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="0"/>
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="74" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="5">
-        <v>1.3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="5">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="5">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="E11" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>3</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="78"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
@@ -4517,583 +4499,676 @@
         <v>1</v>
       </c>
       <c r="E12" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G12" s="5">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="78"/>
-      <c r="B13" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="57"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="52"/>
       <c r="D13" s="6">
         <f>SUM(D10:D12)</f>
-        <v>2.4000000000000004</v>
+        <v>9</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" ref="E13:G13" si="1">SUM(E10:E12)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="1"/>
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="74" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0.7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="78"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F16" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G16" s="5">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="78"/>
-      <c r="B17" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="57"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="52"/>
       <c r="D17" s="6">
         <f>SUM(D14:D16)</f>
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ref="E17:G17" si="2">SUM(E14:E16)</f>
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="2"/>
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="2"/>
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="76"/>
+      <c r="B18" s="74" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="E18" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="78"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="8">
-        <v>2.9</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="78"/>
-      <c r="B21" s="87" t="s">
+      <c r="A21" s="76"/>
+      <c r="B21" s="94" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="88"/>
       <c r="D21" s="32">
         <f>SUM(D18:D20)</f>
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="E21" s="32">
         <f t="shared" ref="E21:G21" si="3">SUM(E18:E20)</f>
-        <v>6.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="F21" s="32">
         <f t="shared" si="3"/>
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="G21" s="32">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="78"/>
-      <c r="B22" s="80" t="s">
+      <c r="A22" s="76"/>
+      <c r="B22" s="106" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="26">
+        <v>3</v>
+      </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="78"/>
-      <c r="B23" s="81"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="26">
+        <v>2</v>
+      </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="78"/>
-      <c r="B24" s="82"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="26">
+        <v>1</v>
+      </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="78"/>
-      <c r="B25" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="91"/>
+      <c r="D25" s="35">
+        <f>SUM(D22:D24)</f>
+        <v>6</v>
+      </c>
+      <c r="E25" s="35">
+        <v>0</v>
+      </c>
+      <c r="F25" s="35">
+        <v>0</v>
+      </c>
+      <c r="G25" s="35">
+        <v>0</v>
+      </c>
       <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="78"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="76"/>
+      <c r="B26" s="85" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="25"/>
+      <c r="D26" s="26">
+        <v>5</v>
+      </c>
+      <c r="E26" s="25">
+        <v>3</v>
+      </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="78"/>
-      <c r="B27" s="66"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="25"/>
+      <c r="D27" s="26">
+        <v>3</v>
+      </c>
+      <c r="E27" s="25">
+        <v>2</v>
+      </c>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="78"/>
-      <c r="B28" s="67"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="25"/>
+      <c r="D28" s="26">
+        <v>2</v>
+      </c>
+      <c r="E28" s="25">
+        <v>1</v>
+      </c>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="78"/>
-      <c r="B29" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="93"/>
+      <c r="D29" s="35">
+        <f>SUM(D26:D28)</f>
+        <v>10</v>
+      </c>
+      <c r="E29" s="35">
+        <f>SUM(E26:E28)</f>
+        <v>6</v>
+      </c>
+      <c r="F29" s="35">
+        <v>0</v>
+      </c>
+      <c r="G29" s="35">
+        <v>0</v>
+      </c>
       <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="78"/>
-      <c r="B30" s="90" t="s">
+      <c r="A30" s="76"/>
+      <c r="B30" s="95" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="25">
+        <v>3</v>
+      </c>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="78"/>
-      <c r="B31" s="91"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="25">
+        <v>2</v>
+      </c>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="78"/>
-      <c r="B32" s="92"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="25">
+        <v>1</v>
+      </c>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="78"/>
-      <c r="B33" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="99"/>
+      <c r="D33" s="35">
+        <f>SUM(D30:D32)</f>
+        <v>6</v>
+      </c>
+      <c r="E33" s="35">
+        <v>0</v>
+      </c>
+      <c r="F33" s="35">
+        <v>0</v>
+      </c>
+      <c r="G33" s="35">
+        <v>0</v>
+      </c>
       <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="78"/>
-      <c r="B34" s="90" t="s">
+      <c r="A34" s="76"/>
+      <c r="B34" s="95" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="25"/>
+      <c r="D34" s="25">
+        <v>3</v>
+      </c>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="78"/>
-      <c r="B35" s="91"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="25"/>
+      <c r="D35" s="25">
+        <v>2</v>
+      </c>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="78"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="97"/>
       <c r="C36" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="25"/>
+      <c r="D36" s="25">
+        <v>1</v>
+      </c>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="78"/>
-      <c r="B37" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="100"/>
+      <c r="D37" s="35">
+        <f>SUM(D34:D36)</f>
+        <v>6</v>
+      </c>
+      <c r="E37" s="35">
+        <v>0</v>
+      </c>
+      <c r="F37" s="35">
+        <v>0</v>
+      </c>
+      <c r="G37" s="35">
+        <v>0</v>
+      </c>
       <c r="H37" s="35"/>
     </row>
     <row r="38" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="78"/>
-      <c r="B38" s="96" t="s">
+      <c r="A38" s="76"/>
+      <c r="B38" s="101" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="D38" s="25">
+        <v>3</v>
+      </c>
+      <c r="E38" s="25">
+        <v>5</v>
+      </c>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="78"/>
-      <c r="B39" s="97"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="D39" s="25">
+        <v>2</v>
+      </c>
+      <c r="E39" s="25">
+        <v>3</v>
+      </c>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="78"/>
-      <c r="B40" s="98"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="D40" s="25">
+        <v>1</v>
+      </c>
+      <c r="E40" s="25">
+        <v>2</v>
+      </c>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="78"/>
-      <c r="B41" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="95"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="100"/>
+      <c r="D41" s="35">
+        <f>SUM(D38:D40)</f>
+        <v>6</v>
+      </c>
+      <c r="E41" s="35">
+        <f>SUM(E38:E40)</f>
+        <v>10</v>
+      </c>
+      <c r="F41" s="35">
+        <v>0</v>
+      </c>
+      <c r="G41" s="35">
+        <v>0</v>
+      </c>
       <c r="H41" s="35"/>
     </row>
     <row r="42" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="78"/>
-      <c r="B42" s="96" t="s">
+      <c r="A42" s="76"/>
+      <c r="B42" s="101" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+      <c r="D42" s="25">
+        <v>3</v>
+      </c>
+      <c r="E42" s="25">
+        <v>5</v>
+      </c>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
     </row>
     <row r="43" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="78"/>
-      <c r="B43" s="102"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
+      <c r="D43" s="25">
+        <v>2</v>
+      </c>
+      <c r="E43" s="25">
+        <v>3</v>
+      </c>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
     </row>
     <row r="44" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="78"/>
-      <c r="B44" s="103"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="105"/>
       <c r="C44" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
+      <c r="D44" s="25">
+        <v>1</v>
+      </c>
+      <c r="E44" s="25">
+        <v>2</v>
+      </c>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="78"/>
-      <c r="B45" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
+      <c r="A45" s="76"/>
+      <c r="B45" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="99"/>
+      <c r="D45" s="35">
+        <f>SUM(D42:D44)</f>
+        <v>6</v>
+      </c>
+      <c r="E45" s="35">
+        <f>SUM(E42:E44)</f>
+        <v>10</v>
+      </c>
+      <c r="F45" s="35">
+        <v>0</v>
+      </c>
+      <c r="G45" s="35">
+        <v>0</v>
+      </c>
       <c r="H45" s="35"/>
     </row>
     <row r="46" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="78"/>
-      <c r="B46" s="96" t="s">
+      <c r="A46" s="76"/>
+      <c r="B46" s="101" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
+      <c r="D46" s="25">
+        <v>5</v>
+      </c>
+      <c r="E46" s="25">
+        <v>3</v>
+      </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="78"/>
-      <c r="B47" s="102"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="D47" s="25">
+        <v>2</v>
+      </c>
+      <c r="E47" s="25">
+        <v>2</v>
+      </c>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
     </row>
     <row r="48" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="78"/>
-      <c r="B48" s="103"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="D48" s="25">
+        <v>1</v>
+      </c>
+      <c r="E48" s="25">
+        <v>1</v>
+      </c>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="79"/>
-      <c r="B49" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="94"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="99"/>
+      <c r="D49" s="35">
+        <f>SUM(D46:D48)</f>
+        <v>8</v>
+      </c>
+      <c r="E49" s="35">
+        <f>SUM(E46:E48)</f>
+        <v>6</v>
+      </c>
+      <c r="F49" s="35">
+        <v>0</v>
+      </c>
+      <c r="G49" s="35">
+        <v>0</v>
+      </c>
       <c r="H49" s="35"/>
     </row>
     <row r="50" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="51"/>
+      <c r="A50" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="65"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="9">
-        <f>SUM(D5+D9+D13+D17+D21)</f>
-        <v>20.6</v>
+        <f>SUM(D5+D9+D13+D17+D21 + D25 + D29 + D33 + D37 + D41 + D45 + D49)</f>
+        <v>95</v>
       </c>
       <c r="E50" s="9">
-        <f>SUM(E5+E9+E13+E17+E21)</f>
-        <v>13.7</v>
+        <f>SUM(E5+E9+E13+E17+E21 + E25 + E29 + E33 + E37 + E41 + E45 + E49)</f>
+        <v>48</v>
       </c>
       <c r="F50" s="9">
         <f>SUM(F5+F9+F13+F17+F21)</f>
-        <v>10.200000000000001</v>
+        <v>0</v>
       </c>
       <c r="G50" s="9">
         <f>SUM(G5+G9+G13+G17+G21)</f>
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="H50" s="9"/>
     </row>
@@ -5118,287 +5193,313 @@
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="68" t="s">
         <v>59</v>
       </c>
       <c r="C53" s="38" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="4">
-        <v>2.2999999999999998</v>
+        <v>5</v>
       </c>
       <c r="E53" s="4">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="F53" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="G53" s="4">
-        <v>1.5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="60"/>
-      <c r="B54" s="58"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="70"/>
       <c r="C54" s="38" t="s">
         <v>61</v>
       </c>
       <c r="D54" s="5">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="E54" s="5">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="F54" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G54" s="5">
-        <v>2.9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="60"/>
-      <c r="B55" s="58"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="70"/>
       <c r="C55" s="38" t="s">
         <v>62</v>
       </c>
       <c r="D55" s="5">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E55" s="5">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F55" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="60"/>
-      <c r="B56" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="57"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="52"/>
       <c r="D56" s="6">
         <f>SUM(D53:D55)</f>
-        <v>2.6</v>
+        <v>10</v>
       </c>
       <c r="E56" s="6">
         <f>SUM(E53:E55)</f>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="F56" s="6">
         <f>SUM(F53:F55)</f>
-        <v>8.3000000000000007</v>
+        <v>14</v>
       </c>
       <c r="G56" s="6">
         <f>SUM(G53:G55)</f>
-        <v>5.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="60"/>
-      <c r="B57" s="99" t="s">
+      <c r="A57" s="57"/>
+      <c r="B57" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="47" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E57" s="5">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="G57" s="5">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="60"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="42" t="s">
+      <c r="A58" s="57"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="47" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="5">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E58" s="5">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G58" s="5">
-        <v>0.6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="60"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="42" t="s">
+      <c r="A59" s="57"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="D59" s="5">
+        <v>2</v>
+      </c>
+      <c r="E59" s="5">
+        <v>1</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="60"/>
-      <c r="B60" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="57"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="52"/>
       <c r="D60" s="6">
-        <f>SUM(D57:D58)</f>
-        <v>5.9</v>
+        <f>SUM(D57:D59)</f>
+        <v>10</v>
       </c>
       <c r="E60" s="6">
-        <f t="shared" ref="E60:G60" si="4">SUM(E57:E58)</f>
-        <v>2.3000000000000003</v>
+        <f>SUM(E57:E59)</f>
+        <v>6</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="4"/>
-        <v>2.1</v>
+        <f>SUM(F57:F59)</f>
+        <v>14</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="4"/>
-        <v>2.6</v>
+        <f t="shared" ref="G60" si="4">SUM(G57:G58)</f>
+        <v>0</v>
       </c>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="60"/>
-      <c r="B61" s="65" t="s">
+      <c r="A61" s="57"/>
+      <c r="B61" s="85" t="s">
         <v>67</v>
       </c>
       <c r="C61" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
+      <c r="D61" s="25">
+        <v>5</v>
+      </c>
+      <c r="E61" s="25">
+        <v>3</v>
+      </c>
+      <c r="F61" s="25">
+        <v>8</v>
+      </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="60"/>
-      <c r="B62" s="66"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="86"/>
       <c r="C62" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
+      <c r="D62" s="25">
+        <v>3</v>
+      </c>
+      <c r="E62" s="25">
+        <v>2</v>
+      </c>
+      <c r="F62" s="25">
+        <v>5</v>
+      </c>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="60"/>
-      <c r="B63" s="67"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="87"/>
       <c r="C63" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
+      <c r="D63" s="25">
+        <v>2</v>
+      </c>
+      <c r="E63" s="25">
+        <v>1</v>
+      </c>
+      <c r="F63" s="25">
+        <v>1</v>
+      </c>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
     </row>
     <row r="64" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="60"/>
-      <c r="B64" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="57"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="52"/>
       <c r="D64" s="6">
-        <f>SUM(D61:D62)</f>
-        <v>0</v>
+        <f>SUM(D61:D63)</f>
+        <v>10</v>
       </c>
       <c r="E64" s="6">
-        <f t="shared" ref="E64:G64" si="5">SUM(E61:E62)</f>
-        <v>0</v>
+        <f>SUM(E61:E63)</f>
+        <v>6</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>SUM(F61:F63)</f>
+        <v>14</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G64" si="5">SUM(G61:G62)</f>
         <v>0</v>
       </c>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="60"/>
-      <c r="B65" s="65" t="s">
+      <c r="A65" s="57"/>
+      <c r="B65" s="85" t="s">
         <v>71</v>
       </c>
       <c r="C65" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
+      <c r="D65" s="25">
+        <v>5</v>
+      </c>
+      <c r="E65" s="25">
+        <v>3</v>
+      </c>
       <c r="F65" s="25"/>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="60"/>
-      <c r="B66" s="66"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="86"/>
       <c r="C66" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
+      <c r="D66" s="25">
+        <v>3</v>
+      </c>
+      <c r="E66" s="25">
+        <v>2</v>
+      </c>
       <c r="F66" s="25"/>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
     </row>
     <row r="67" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="60"/>
-      <c r="B67" s="67"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="87"/>
       <c r="C67" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
+      <c r="D67" s="25">
+        <v>2</v>
+      </c>
+      <c r="E67" s="25">
+        <v>1</v>
+      </c>
       <c r="F67" s="25"/>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
     </row>
     <row r="68" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="60"/>
-      <c r="B68" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="57"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="52"/>
       <c r="D68" s="6">
-        <f>SUM(D65:D66)</f>
-        <v>0</v>
+        <f>SUM(D65:D67)</f>
+        <v>10</v>
       </c>
       <c r="E68" s="6">
-        <f t="shared" ref="E68:G68" si="6">SUM(E65:E66)</f>
-        <v>0</v>
+        <f>SUM(E65:E67)</f>
+        <v>6</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F68:G68" si="6">SUM(F65:F66)</f>
         <v>0</v>
       </c>
       <c r="G68" s="6">
@@ -5408,52 +5509,58 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="60"/>
-      <c r="B69" s="65" t="s">
+      <c r="A69" s="57"/>
+      <c r="B69" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="43" t="s">
+      <c r="C69" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="25"/>
+      <c r="D69" s="25">
+        <v>3</v>
+      </c>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
     </row>
     <row r="70" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="60"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="43" t="s">
+      <c r="A70" s="57"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="25"/>
+      <c r="D70" s="25">
+        <v>2</v>
+      </c>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="60"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="43" t="s">
+      <c r="A71" s="57"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="25"/>
+      <c r="D71" s="25">
+        <v>1</v>
+      </c>
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
     </row>
     <row r="72" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="60"/>
-      <c r="B72" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="57"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="52"/>
       <c r="D72" s="6">
-        <f>SUM(D69:D70)</f>
-        <v>0</v>
+        <f>SUM(D69:D71)</f>
+        <v>6</v>
       </c>
       <c r="E72" s="6">
         <f t="shared" ref="E72:G72" si="7">SUM(E69:E70)</f>
@@ -5470,52 +5577,58 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="60"/>
-      <c r="B73" s="68" t="s">
+      <c r="A73" s="57"/>
+      <c r="B73" s="61" t="s">
         <v>79</v>
       </c>
       <c r="C73" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="25"/>
+      <c r="D73" s="25">
+        <v>3</v>
+      </c>
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="60"/>
-      <c r="B74" s="69"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="62"/>
       <c r="C74" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="25"/>
+      <c r="D74" s="25">
+        <v>2</v>
+      </c>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
     </row>
     <row r="75" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="60"/>
-      <c r="B75" s="70"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="63"/>
       <c r="C75" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="25"/>
+      <c r="D75" s="25">
+        <v>1</v>
+      </c>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
     </row>
     <row r="76" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="60"/>
-      <c r="B76" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="57"/>
+      <c r="A76" s="57"/>
+      <c r="B76" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="52"/>
       <c r="D76" s="6">
-        <f>SUM(D73:D74)</f>
-        <v>0</v>
+        <f>SUM(D73:D75)</f>
+        <v>6</v>
       </c>
       <c r="E76" s="6">
         <f t="shared" ref="E76:G76" si="8">SUM(E73:E74)</f>
@@ -5532,52 +5645,58 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="60"/>
-      <c r="B77" s="62" t="s">
+      <c r="A77" s="57"/>
+      <c r="B77" s="59" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="25"/>
+      <c r="D77" s="25">
+        <v>3</v>
+      </c>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
     </row>
     <row r="78" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="60"/>
-      <c r="B78" s="63"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="60"/>
       <c r="C78" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="25"/>
+      <c r="D78" s="25">
+        <v>2</v>
+      </c>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="60"/>
-      <c r="B79" s="63"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="60"/>
       <c r="C79" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D79" s="25"/>
+      <c r="D79" s="25">
+        <v>1</v>
+      </c>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
     </row>
     <row r="80" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="61"/>
-      <c r="B80" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="57"/>
+      <c r="A80" s="58"/>
+      <c r="B80" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="52"/>
       <c r="D80" s="6">
-        <f>SUM(D77:D78)</f>
-        <v>0</v>
+        <f>SUM(D77:D79)</f>
+        <v>6</v>
       </c>
       <c r="E80" s="6">
         <f t="shared" ref="E80:G80" si="9">SUM(E77:E78)</f>
@@ -5594,26 +5713,26 @@
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="51"/>
+      <c r="A81" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="65"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="9">
-        <f>SUM(D56+D60)</f>
-        <v>8.5</v>
+        <f>SUM(D56+D60 + D64 + D68 + D72 + D76 + D80)</f>
+        <v>58</v>
       </c>
       <c r="E81" s="9">
-        <f>SUM(E56+E60)</f>
-        <v>5.8000000000000007</v>
+        <f>SUM(E56+E60 + E64 + E68 + E72 + E76 + E80)</f>
+        <v>24</v>
       </c>
       <c r="F81" s="9">
-        <f>SUM(F56+F60)</f>
-        <v>10.4</v>
+        <f>SUM(F56+F60 + F64 + F68 + F72 + F76 + F80)</f>
+        <v>42</v>
       </c>
       <c r="G81" s="9">
         <f>SUM(G56+G60)</f>
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="H81" s="9"/>
     </row>
@@ -5637,279 +5756,245 @@
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
     </row>
-    <row r="84" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="73" t="s">
+    <row r="84" spans="1:8" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="75" t="s">
+      <c r="B84" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="46" t="s">
+      <c r="C84" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D84" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="E84" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="F84" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="G84" s="5">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H84" s="5"/>
-    </row>
-    <row r="85" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="74"/>
-      <c r="B85" s="75"/>
-      <c r="C85" s="46" t="s">
+      <c r="D84" s="48">
+        <v>5</v>
+      </c>
+      <c r="E84" s="48">
+        <v>8</v>
+      </c>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+    </row>
+    <row r="85" spans="1:8" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="79"/>
+      <c r="B85" s="82"/>
+      <c r="C85" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
+      <c r="D85" s="48">
+        <v>3</v>
+      </c>
+      <c r="E85" s="48">
+        <v>3</v>
+      </c>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
     </row>
     <row r="86" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="52"/>
-      <c r="B86" s="76"/>
+      <c r="A86" s="80"/>
+      <c r="B86" s="83"/>
       <c r="C86" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="5">
-        <v>6.4</v>
-      </c>
-      <c r="E86" s="5">
-        <v>7.4</v>
-      </c>
-      <c r="F86" s="5">
-        <v>11.4</v>
-      </c>
-      <c r="G86" s="5">
-        <v>15.8</v>
-      </c>
-      <c r="H86" s="5"/>
+      <c r="D86" s="48">
+        <v>2</v>
+      </c>
+      <c r="E86" s="48">
+        <v>1</v>
+      </c>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
     </row>
     <row r="87" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="52"/>
-      <c r="B87" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="57"/>
+      <c r="A87" s="80"/>
+      <c r="B87" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="73"/>
       <c r="D87" s="6">
         <f>SUM(D84:D86)</f>
-        <v>6.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="E87" s="6">
         <f t="shared" ref="E87:G87" si="10">SUM(E84:E86)</f>
-        <v>7.8000000000000007</v>
+        <v>12</v>
       </c>
       <c r="F87" s="6">
         <f t="shared" si="10"/>
-        <v>13.1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="6">
         <f t="shared" si="10"/>
-        <v>20.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="52"/>
+    <row r="88" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="80"/>
       <c r="B88" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D88" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="E88" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="F88" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="G88" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="H88" s="5"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="52"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="38" t="s">
+      <c r="D88" s="48">
+        <v>5</v>
+      </c>
+      <c r="E88" s="48">
+        <v>8</v>
+      </c>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+    </row>
+    <row r="89" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="80"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D89" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="E89" s="5">
-        <v>5.6</v>
-      </c>
-      <c r="F89" s="5">
-        <v>7.9</v>
-      </c>
-      <c r="G89" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="H89" s="5"/>
+      <c r="D89" s="48">
+        <v>2</v>
+      </c>
+      <c r="E89" s="48">
+        <v>5</v>
+      </c>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
     </row>
     <row r="90" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="52"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="38" t="s">
+      <c r="A90" s="80"/>
+      <c r="B90" s="72"/>
+      <c r="C90" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="E90" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F90" s="5">
-        <v>2</v>
-      </c>
-      <c r="G90" s="5">
-        <v>3</v>
-      </c>
-      <c r="H90" s="5"/>
+      <c r="D90" s="48">
+        <v>1</v>
+      </c>
+      <c r="E90" s="48">
+        <v>1</v>
+      </c>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
     </row>
     <row r="91" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="52"/>
-      <c r="B91" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="57"/>
+      <c r="A91" s="80"/>
+      <c r="B91" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="73"/>
       <c r="D91" s="6">
         <f>SUM(D88:D90)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E91" s="6">
         <f t="shared" ref="E91:G91" si="11">SUM(E88:E90)</f>
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="F91" s="6">
         <f t="shared" si="11"/>
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="G91" s="6">
         <f t="shared" si="11"/>
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A92" s="52"/>
+    <row r="92" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="80"/>
       <c r="B92" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E92" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="F92" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="G92" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="H92" s="5"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="52"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="39" t="s">
+      <c r="D92" s="48">
+        <v>5</v>
+      </c>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+    </row>
+    <row r="93" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="80"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D93" s="5">
-        <v>6.2</v>
-      </c>
-      <c r="E93" s="5">
-        <v>8.5</v>
-      </c>
-      <c r="F93" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="G93" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="H93" s="5"/>
+      <c r="D93" s="48">
+        <v>3</v>
+      </c>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
     </row>
     <row r="94" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="52"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="39" t="s">
+      <c r="A94" s="80"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="E94" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="F94" s="5">
-        <v>5</v>
-      </c>
-      <c r="G94" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="H94" s="5"/>
+      <c r="D94" s="48">
+        <v>2</v>
+      </c>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
     </row>
     <row r="95" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="53"/>
-      <c r="B95" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="57"/>
+      <c r="A95" s="81"/>
+      <c r="B95" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="52"/>
       <c r="D95" s="6">
         <f>SUM(D92:D94)</f>
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="E95" s="6">
         <f>SUM(E92:E94)</f>
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="F95" s="6">
         <f>SUM(F92:F94)</f>
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="G95" s="6">
         <f>SUM(G92:G94)</f>
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="50"/>
-      <c r="C96" s="51"/>
+      <c r="A96" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="65"/>
+      <c r="C96" s="66"/>
       <c r="D96" s="9">
         <f>SUM(D87+D91+D95)</f>
-        <v>25.700000000000003</v>
+        <v>28</v>
       </c>
       <c r="E96" s="9">
         <f>SUM(E87+E91+E95)</f>
-        <v>31.9</v>
+        <v>26</v>
       </c>
       <c r="F96" s="9">
         <f>SUM(F87+F91+F95)</f>
-        <v>35.4</v>
+        <v>0</v>
       </c>
       <c r="G96" s="9">
         <f>SUM(G87+G91+G95)</f>
-        <v>42.8</v>
+        <v>0</v>
       </c>
       <c r="H96" s="9"/>
     </row>
@@ -5933,223 +6018,213 @@
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
     </row>
-    <row r="99" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="59" t="s">
+    <row r="99" spans="1:8" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="56" t="s">
         <v>100</v>
       </c>
       <c r="B99" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="48" t="s">
+      <c r="C99" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D99" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="E99" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F99" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G99" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="H99" s="4"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="60"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="39" t="s">
+      <c r="D99" s="48">
+        <v>5</v>
+      </c>
+      <c r="E99" s="48">
+        <v>5</v>
+      </c>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+    </row>
+    <row r="100" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="57"/>
+      <c r="B100" s="72"/>
+      <c r="C100" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D100" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E100" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="F100" s="5">
-        <v>3</v>
-      </c>
-      <c r="G100" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="H100" s="5"/>
+      <c r="D100" s="48">
+        <v>2</v>
+      </c>
+      <c r="E100" s="48">
+        <v>3</v>
+      </c>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
     </row>
     <row r="101" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="60"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="38" t="s">
+      <c r="A101" s="57"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D101" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E101" s="5">
-        <v>3</v>
-      </c>
-      <c r="F101" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G101" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H101" s="5"/>
+      <c r="D101" s="48">
+        <v>1</v>
+      </c>
+      <c r="E101" s="48">
+        <v>1</v>
+      </c>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
     </row>
     <row r="102" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="60"/>
-      <c r="B102" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="57"/>
+      <c r="A102" s="57"/>
+      <c r="B102" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="73"/>
       <c r="D102" s="6">
         <f>SUM(D99:D101)</f>
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="E102" s="6">
         <f t="shared" ref="E102:G102" si="12">SUM(E99:E101)</f>
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="F102" s="6">
         <f t="shared" si="12"/>
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="12"/>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="60"/>
+    <row r="103" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="57"/>
       <c r="B103" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="39" t="s">
+      <c r="C103" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="D103" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="E103" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="F103" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G103" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="H103" s="5"/>
+      <c r="D103" s="48">
+        <v>5</v>
+      </c>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
     </row>
     <row r="104" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="60"/>
-      <c r="B104" s="72"/>
-      <c r="C104" s="41" t="s">
+      <c r="A104" s="57"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
+      <c r="D104" s="48">
+        <v>3</v>
+      </c>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
     </row>
     <row r="105" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="60"/>
-      <c r="B105" s="55"/>
-      <c r="C105" s="41" t="s">
+      <c r="A105" s="57"/>
+      <c r="B105" s="72"/>
+      <c r="C105" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="D105" s="8">
-        <v>3</v>
-      </c>
-      <c r="E105" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="F105" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="G105" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="H105" s="8"/>
+      <c r="D105" s="48">
+        <v>2</v>
+      </c>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="48"/>
     </row>
     <row r="106" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="60"/>
-      <c r="B106" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="57"/>
+      <c r="A106" s="57"/>
+      <c r="B106" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="52"/>
       <c r="D106" s="6">
         <f>SUM(D103:D105)</f>
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="E106" s="6">
         <f t="shared" ref="E106:G106" si="13">SUM(E103:E105)</f>
-        <v>1.5999999999999999</v>
+        <v>0</v>
       </c>
       <c r="F106" s="6">
         <f t="shared" si="13"/>
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="G106" s="6">
         <f t="shared" si="13"/>
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="60"/>
-      <c r="B107" s="62" t="s">
+      <c r="A107" s="57"/>
+      <c r="B107" s="59" t="s">
         <v>109</v>
       </c>
       <c r="C107" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
+      <c r="D107" s="25">
+        <v>5</v>
+      </c>
+      <c r="E107" s="25">
+        <v>5</v>
+      </c>
       <c r="F107" s="25"/>
       <c r="G107" s="25"/>
       <c r="H107" s="25"/>
     </row>
     <row r="108" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="60"/>
-      <c r="B108" s="63"/>
+      <c r="A108" s="57"/>
+      <c r="B108" s="60"/>
       <c r="C108" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
+      <c r="D108" s="25">
+        <v>3</v>
+      </c>
+      <c r="E108" s="25">
+        <v>2</v>
+      </c>
       <c r="F108" s="25"/>
       <c r="G108" s="25"/>
       <c r="H108" s="25"/>
     </row>
     <row r="109" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="60"/>
-      <c r="B109" s="63"/>
+      <c r="A109" s="57"/>
+      <c r="B109" s="60"/>
       <c r="C109" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
+      <c r="D109" s="25">
+        <v>2</v>
+      </c>
+      <c r="E109" s="25">
+        <v>1</v>
+      </c>
       <c r="F109" s="25"/>
       <c r="G109" s="25"/>
       <c r="H109" s="25"/>
     </row>
     <row r="110" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="60"/>
-      <c r="B110" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="57"/>
+      <c r="A110" s="57"/>
+      <c r="B110" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="52"/>
       <c r="D110" s="6">
         <f>SUM(D107:D109)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E110" s="6">
         <f t="shared" ref="E110:G110" si="14">SUM(E107:E109)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F110" s="6">
         <f t="shared" si="14"/>
@@ -6162,56 +6237,68 @@
       <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="60"/>
-      <c r="B111" s="62" t="s">
+      <c r="A111" s="57"/>
+      <c r="B111" s="59" t="s">
         <v>113</v>
       </c>
       <c r="C111" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
+      <c r="D111" s="25">
+        <v>5</v>
+      </c>
+      <c r="E111" s="25">
+        <v>3</v>
+      </c>
       <c r="F111" s="25"/>
       <c r="G111" s="25"/>
       <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="60"/>
-      <c r="B112" s="62"/>
+      <c r="A112" s="57"/>
+      <c r="B112" s="59"/>
       <c r="C112" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
+      <c r="D112" s="25">
+        <v>3</v>
+      </c>
+      <c r="E112" s="25">
+        <v>2</v>
+      </c>
       <c r="F112" s="25"/>
       <c r="G112" s="25"/>
       <c r="H112" s="25"/>
     </row>
     <row r="113" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="60"/>
-      <c r="B113" s="62"/>
+      <c r="A113" s="57"/>
+      <c r="B113" s="59"/>
       <c r="C113" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
+      <c r="D113" s="25">
+        <v>2</v>
+      </c>
+      <c r="E113" s="25">
+        <v>1</v>
+      </c>
       <c r="F113" s="25"/>
       <c r="G113" s="25"/>
       <c r="H113" s="25"/>
     </row>
     <row r="114" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="60"/>
-      <c r="B114" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="57"/>
+      <c r="A114" s="57"/>
+      <c r="B114" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="52"/>
       <c r="D114" s="6">
         <f>SUM(D111:D113)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E114" s="6">
         <f t="shared" ref="E114:G114" si="15">SUM(E111:E113)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F114" s="6">
         <f t="shared" si="15"/>
@@ -6224,52 +6311,58 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="60"/>
-      <c r="B115" s="62" t="s">
+      <c r="A115" s="57"/>
+      <c r="B115" s="59" t="s">
         <v>117</v>
       </c>
       <c r="C115" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D115" s="25"/>
+      <c r="D115" s="25">
+        <v>3</v>
+      </c>
       <c r="E115" s="25"/>
       <c r="F115" s="25"/>
       <c r="G115" s="25"/>
       <c r="H115" s="25"/>
     </row>
     <row r="116" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="60"/>
-      <c r="B116" s="63"/>
+      <c r="A116" s="57"/>
+      <c r="B116" s="60"/>
       <c r="C116" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="D116" s="25"/>
+      <c r="D116" s="25">
+        <v>3</v>
+      </c>
       <c r="E116" s="25"/>
       <c r="F116" s="25"/>
       <c r="G116" s="25"/>
       <c r="H116" s="25"/>
     </row>
     <row r="117" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="60"/>
-      <c r="B117" s="63"/>
+      <c r="A117" s="57"/>
+      <c r="B117" s="60"/>
       <c r="C117" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D117" s="25"/>
+      <c r="D117" s="25">
+        <v>1</v>
+      </c>
       <c r="E117" s="25"/>
       <c r="F117" s="25"/>
       <c r="G117" s="25"/>
       <c r="H117" s="25"/>
     </row>
     <row r="118" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="60"/>
-      <c r="B118" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="57"/>
+      <c r="A118" s="57"/>
+      <c r="B118" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="52"/>
       <c r="D118" s="6">
         <f>SUM(D115:D117)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E118" s="6">
         <f t="shared" ref="E118:G118" si="16">SUM(E115:E117)</f>
@@ -6286,52 +6379,58 @@
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="60"/>
-      <c r="B119" s="62" t="s">
+      <c r="A119" s="57"/>
+      <c r="B119" s="59" t="s">
         <v>121</v>
       </c>
       <c r="C119" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D119" s="25"/>
+      <c r="D119" s="25">
+        <v>3</v>
+      </c>
       <c r="E119" s="25"/>
       <c r="F119" s="25"/>
       <c r="G119" s="25"/>
       <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="60"/>
-      <c r="B120" s="63"/>
+      <c r="A120" s="57"/>
+      <c r="B120" s="60"/>
       <c r="C120" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D120" s="25"/>
+      <c r="D120" s="25">
+        <v>3</v>
+      </c>
       <c r="E120" s="25"/>
       <c r="F120" s="25"/>
       <c r="G120" s="25"/>
       <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="60"/>
-      <c r="B121" s="63"/>
+      <c r="A121" s="57"/>
+      <c r="B121" s="60"/>
       <c r="C121" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="D121" s="25"/>
+      <c r="D121" s="25">
+        <v>1</v>
+      </c>
       <c r="E121" s="25"/>
       <c r="F121" s="25"/>
       <c r="G121" s="25"/>
       <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="60"/>
-      <c r="B122" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="57"/>
+      <c r="A122" s="57"/>
+      <c r="B122" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="52"/>
       <c r="D122" s="6">
         <f>SUM(D119:D121)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E122" s="6">
         <f t="shared" ref="E122:G122" si="17">SUM(E119:E121)</f>
@@ -6348,52 +6447,58 @@
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="60"/>
-      <c r="B123" s="62" t="s">
+      <c r="A123" s="57"/>
+      <c r="B123" s="59" t="s">
         <v>125</v>
       </c>
       <c r="C123" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D123" s="25"/>
+      <c r="D123" s="25">
+        <v>3</v>
+      </c>
       <c r="E123" s="25"/>
       <c r="F123" s="25"/>
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
     </row>
     <row r="124" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="60"/>
-      <c r="B124" s="63"/>
+      <c r="A124" s="57"/>
+      <c r="B124" s="60"/>
       <c r="C124" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D124" s="25"/>
+      <c r="D124" s="25">
+        <v>3</v>
+      </c>
       <c r="E124" s="25"/>
       <c r="F124" s="25"/>
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
     </row>
     <row r="125" spans="1:8" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="60"/>
-      <c r="B125" s="63"/>
+      <c r="A125" s="57"/>
+      <c r="B125" s="60"/>
       <c r="C125" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="D125" s="25"/>
+      <c r="D125" s="25">
+        <v>1</v>
+      </c>
       <c r="E125" s="25"/>
       <c r="F125" s="25"/>
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
     </row>
     <row r="126" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="60"/>
-      <c r="B126" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="57"/>
+      <c r="A126" s="57"/>
+      <c r="B126" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="52"/>
       <c r="D126" s="6">
         <f>SUM(D123:D125)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E126" s="6">
         <f t="shared" ref="E126:G126" si="18">SUM(E123:E125)</f>
@@ -6410,26 +6515,26 @@
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="50"/>
-      <c r="C127" s="51"/>
+      <c r="A127" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="65"/>
+      <c r="C127" s="66"/>
       <c r="D127" s="9">
-        <f>SUM(D102+D106)</f>
-        <v>8.1</v>
+        <f>SUM(D102+D106 + D110 + D114 + D118 + D122 + D126)</f>
+        <v>59</v>
       </c>
       <c r="E127" s="9">
-        <f>SUM(E102+E106)</f>
-        <v>7.8</v>
+        <f>SUM(E102+E106 + E110 + E114 + E118 + E122 + E126)</f>
+        <v>23</v>
       </c>
       <c r="F127" s="9">
         <f>SUM(F102+F106)</f>
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="G127" s="9">
         <f>SUM(G102+G106)</f>
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="H127" s="9"/>
     </row>
@@ -6454,214 +6559,218 @@
       <c r="H129" s="17"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="59" t="s">
+      <c r="A130" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="71" t="s">
+      <c r="B130" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="C130" s="48" t="s">
+      <c r="C130" s="45" t="s">
         <v>131</v>
       </c>
       <c r="D130" s="4">
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
       <c r="E130" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="F130" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G130" s="4">
-        <v>0.5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="60"/>
-      <c r="B131" s="72"/>
-      <c r="C131" s="39" t="s">
+      <c r="A131" s="57"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
+      <c r="D131" s="5">
+        <v>2</v>
+      </c>
+      <c r="E131" s="5">
+        <v>3</v>
+      </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
     </row>
     <row r="132" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="60"/>
-      <c r="B132" s="55"/>
-      <c r="C132" s="41" t="s">
+      <c r="A132" s="57"/>
+      <c r="B132" s="69"/>
+      <c r="C132" s="40" t="s">
         <v>133</v>
       </c>
       <c r="D132" s="5">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E132" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="F132" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G132" s="5">
-        <v>2.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
       <c r="H132" s="5"/>
     </row>
     <row r="133" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="60"/>
-      <c r="B133" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="57"/>
+      <c r="A133" s="57"/>
+      <c r="B133" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="52"/>
       <c r="D133" s="6">
         <f>SUM(D130:D132)</f>
-        <v>1.4000000000000001</v>
+        <v>6</v>
       </c>
       <c r="E133" s="6">
         <f t="shared" ref="E133:G133" si="19">SUM(E130:E132)</f>
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="F133" s="6">
         <f t="shared" si="19"/>
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="G133" s="6">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="60"/>
-      <c r="B134" s="71" t="s">
+      <c r="A134" s="57"/>
+      <c r="B134" s="67" t="s">
         <v>134</v>
       </c>
       <c r="C134" s="38" t="s">
         <v>135</v>
       </c>
       <c r="D134" s="5">
-        <v>2.2999999999999998</v>
+        <v>3</v>
       </c>
       <c r="E134" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="F134" s="5">
-        <v>4</v>
-      </c>
-      <c r="G134" s="5">
-        <v>1.6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
       <c r="H134" s="5"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="60"/>
-      <c r="B135" s="58"/>
+      <c r="A135" s="57"/>
+      <c r="B135" s="70"/>
       <c r="C135" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
+      <c r="D135" s="5">
+        <v>3</v>
+      </c>
+      <c r="E135" s="5">
+        <v>3</v>
+      </c>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
     <row r="136" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="60"/>
-      <c r="B136" s="55"/>
-      <c r="C136" s="45" t="s">
+      <c r="A136" s="57"/>
+      <c r="B136" s="69"/>
+      <c r="C136" s="43" t="s">
         <v>137</v>
       </c>
       <c r="D136" s="8">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E136" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="F136" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G136" s="8">
-        <v>0.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
       <c r="H136" s="8"/>
     </row>
     <row r="137" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="60"/>
-      <c r="B137" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="57"/>
+      <c r="A137" s="57"/>
+      <c r="B137" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="52"/>
       <c r="D137" s="6">
         <f>SUM(D134:D136)</f>
-        <v>2.9</v>
+        <v>7</v>
       </c>
       <c r="E137" s="6">
         <f>SUM(E134:E136)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F137" s="6">
         <f>SUM(F134:F136)</f>
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="G137" s="6">
         <f>SUM(G134:G136)</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="60"/>
-      <c r="B138" s="62" t="s">
+      <c r="A138" s="57"/>
+      <c r="B138" s="59" t="s">
         <v>138</v>
       </c>
       <c r="C138" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="D138" s="25"/>
-      <c r="E138" s="25"/>
+      <c r="D138" s="25">
+        <v>5</v>
+      </c>
+      <c r="E138" s="25">
+        <v>8</v>
+      </c>
       <c r="F138" s="25"/>
       <c r="G138" s="25"/>
       <c r="H138" s="25"/>
     </row>
     <row r="139" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="60"/>
-      <c r="B139" s="63"/>
+      <c r="A139" s="57"/>
+      <c r="B139" s="60"/>
       <c r="C139" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="D139" s="25"/>
-      <c r="E139" s="25"/>
+      <c r="D139" s="25">
+        <v>3</v>
+      </c>
+      <c r="E139" s="25">
+        <v>5</v>
+      </c>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
       <c r="H139" s="25"/>
     </row>
     <row r="140" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="60"/>
-      <c r="B140" s="63"/>
+      <c r="A140" s="57"/>
+      <c r="B140" s="60"/>
       <c r="C140" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
+      <c r="D140" s="25">
+        <v>1</v>
+      </c>
+      <c r="E140" s="25">
+        <v>1</v>
+      </c>
       <c r="F140" s="25"/>
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
     </row>
     <row r="141" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="60"/>
-      <c r="B141" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="57"/>
+      <c r="A141" s="57"/>
+      <c r="B141" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="52"/>
       <c r="D141" s="6">
         <f>SUM(D138:D140)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E141" s="6">
         <f>SUM(E138:E140)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F141" s="6">
         <f>SUM(F138:F140)</f>
@@ -6674,56 +6783,68 @@
       <c r="H141" s="6"/>
     </row>
     <row r="142" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="60"/>
-      <c r="B142" s="62" t="s">
+      <c r="A142" s="57"/>
+      <c r="B142" s="59" t="s">
         <v>142</v>
       </c>
       <c r="C142" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D142" s="25"/>
-      <c r="E142" s="25"/>
+      <c r="D142" s="25">
+        <v>5</v>
+      </c>
+      <c r="E142" s="25">
+        <v>3</v>
+      </c>
       <c r="F142" s="25"/>
       <c r="G142" s="25"/>
       <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="60"/>
-      <c r="B143" s="63"/>
+      <c r="A143" s="57"/>
+      <c r="B143" s="60"/>
       <c r="C143" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="D143" s="25"/>
-      <c r="E143" s="25"/>
+      <c r="D143" s="25">
+        <v>3</v>
+      </c>
+      <c r="E143" s="25">
+        <v>2</v>
+      </c>
       <c r="F143" s="25"/>
       <c r="G143" s="25"/>
       <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="60"/>
-      <c r="B144" s="63"/>
+      <c r="A144" s="57"/>
+      <c r="B144" s="60"/>
       <c r="C144" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="D144" s="25"/>
-      <c r="E144" s="25"/>
+      <c r="D144" s="25">
+        <v>1</v>
+      </c>
+      <c r="E144" s="25">
+        <v>1</v>
+      </c>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
       <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="60"/>
-      <c r="B145" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="57"/>
+      <c r="A145" s="57"/>
+      <c r="B145" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="52"/>
       <c r="D145" s="6">
         <f>SUM(D142:D144)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E145" s="6">
         <f>SUM(E142:E144)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F145" s="6">
         <f>SUM(F142:F144)</f>
@@ -6736,56 +6857,68 @@
       <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="60"/>
-      <c r="B146" s="62" t="s">
+      <c r="A146" s="57"/>
+      <c r="B146" s="59" t="s">
         <v>146</v>
       </c>
       <c r="C146" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="D146" s="25"/>
-      <c r="E146" s="25"/>
+      <c r="D146" s="25">
+        <v>5</v>
+      </c>
+      <c r="E146" s="25">
+        <v>3</v>
+      </c>
       <c r="F146" s="25"/>
       <c r="G146" s="25"/>
       <c r="H146" s="25"/>
     </row>
     <row r="147" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="60"/>
-      <c r="B147" s="63"/>
+      <c r="A147" s="57"/>
+      <c r="B147" s="60"/>
       <c r="C147" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D147" s="25"/>
-      <c r="E147" s="25"/>
+      <c r="D147" s="25">
+        <v>3</v>
+      </c>
+      <c r="E147" s="25">
+        <v>2</v>
+      </c>
       <c r="F147" s="25"/>
       <c r="G147" s="25"/>
       <c r="H147" s="25"/>
     </row>
     <row r="148" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="60"/>
-      <c r="B148" s="63"/>
+      <c r="A148" s="57"/>
+      <c r="B148" s="60"/>
       <c r="C148" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="D148" s="25"/>
-      <c r="E148" s="25"/>
+      <c r="D148" s="25">
+        <v>1</v>
+      </c>
+      <c r="E148" s="25">
+        <v>1</v>
+      </c>
       <c r="F148" s="25"/>
       <c r="G148" s="25"/>
       <c r="H148" s="25"/>
     </row>
     <row r="149" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="61"/>
-      <c r="B149" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="57"/>
+      <c r="A149" s="58"/>
+      <c r="B149" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="52"/>
       <c r="D149" s="6">
         <f>SUM(D146:D148)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E149" s="6">
         <f>SUM(E146:E148)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F149" s="6">
         <f>SUM(F146:F148)</f>
@@ -6798,26 +6931,26 @@
       <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B150" s="50"/>
-      <c r="C150" s="51"/>
+      <c r="A150" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="65"/>
+      <c r="C150" s="66"/>
       <c r="D150" s="9">
-        <f>SUM(D133+D137)</f>
-        <v>4.3</v>
+        <f>SUM(D133+D137 + D141 + D145 + D149)</f>
+        <v>40</v>
       </c>
       <c r="E150" s="9">
-        <f>SUM(E133+E137)</f>
-        <v>4.3</v>
+        <f>SUM(E133+E137 + E141 + E145 + E149)</f>
+        <v>45</v>
       </c>
       <c r="F150" s="9">
         <f>SUM(F133+F137)</f>
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="G150" s="9">
         <f>SUM(G133+G137)</f>
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="H150" s="9"/>
     </row>
@@ -6826,6 +6959,70 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A53:A80"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A2:A49"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A84:A95"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A99:A126"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:C122"/>
     <mergeCell ref="B145:C145"/>
     <mergeCell ref="B146:B148"/>
     <mergeCell ref="B149:C149"/>
@@ -6840,70 +7037,6 @@
     <mergeCell ref="B138:B140"/>
     <mergeCell ref="B141:C141"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A99:A126"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A84:A95"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A53:A80"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A2:A49"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6911,13 +7044,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDE59AF-EFF2-46B1-9040-E917A9835078}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CB38A74-8EBC-4DE0-AC32-B50611FBD928}">
   <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="I138" sqref="I138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6957,13 +7090,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="50" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="4">
@@ -6975,9 +7108,9 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="78"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="28" t="s">
+      <c r="A3" s="76"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="50" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="5">
@@ -6989,9 +7122,9 @@
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="78"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="28" t="s">
+      <c r="A4" s="76"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="50" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="5">
@@ -7003,8 +7136,8 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="78"/>
-      <c r="B5" s="56" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="88"/>
@@ -7027,712 +7160,793 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
-      <c r="B6" s="77" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="75" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="22">
-        <v>0.7</v>
+        <v>5</v>
       </c>
       <c r="E6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="76"/>
       <c r="C7" s="24" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="5">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="E7" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1.8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
       <c r="C8" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="22">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="78"/>
-      <c r="B9" s="56" t="s">
+      <c r="A9" s="76"/>
+      <c r="B9" s="51" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="89"/>
       <c r="D9" s="6">
-        <f>SUM(D6:D7)</f>
-        <v>1.2999999999999998</v>
+        <f>SUM(D6:D8)</f>
+        <v>16</v>
       </c>
       <c r="E9" s="6">
-        <f t="shared" ref="E9:G9" si="0">SUM(E6:E7)</f>
-        <v>0.30000000000000004</v>
+        <f>SUM(E6:E8)</f>
+        <v>10</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f t="shared" ref="F9:G9" si="0">SUM(F6:F7)</f>
+        <v>0</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="0"/>
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="78"/>
-      <c r="B10" s="54" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="74" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="5">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="E10" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G10" s="5">
-        <v>3</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="78"/>
-      <c r="B11" s="58"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>3</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="78"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="G12" s="5">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="78"/>
-      <c r="B13" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="57"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="52"/>
       <c r="D13" s="6">
         <f>SUM(D10:D12)</f>
-        <v>2.4000000000000004</v>
+        <v>12</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" ref="E13:G13" si="1">SUM(E10:E12)</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F13" s="6">
         <f t="shared" si="1"/>
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="78"/>
-      <c r="B14" s="54" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="74" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0.7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="E15" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>2.9</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="78"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F16" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G16" s="5">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="78"/>
-      <c r="B17" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="57"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="52"/>
       <c r="D17" s="6">
         <f>SUM(D14:D16)</f>
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" ref="E17:G17" si="2">SUM(E14:E16)</f>
-        <v>6.1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" si="2"/>
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="2"/>
-        <v>6.6</v>
+        <v>0</v>
       </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="76"/>
+      <c r="B18" s="74" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D18" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="E18" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
-      <c r="B19" s="58"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="78"/>
-      <c r="B20" s="55"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="8">
-        <v>2.9</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0.9</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="78"/>
-      <c r="B21" s="87" t="s">
+      <c r="A21" s="76"/>
+      <c r="B21" s="94" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="88"/>
       <c r="D21" s="32">
         <f>SUM(D18:D20)</f>
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="E21" s="32">
         <f t="shared" ref="E21:G21" si="3">SUM(E18:E20)</f>
-        <v>6.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="F21" s="32">
         <f t="shared" si="3"/>
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="G21" s="32">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H21" s="32"/>
     </row>
     <row r="22" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="78"/>
-      <c r="B22" s="80" t="s">
+      <c r="A22" s="76"/>
+      <c r="B22" s="106" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="26">
+        <v>3</v>
+      </c>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="78"/>
-      <c r="B23" s="81"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="107"/>
       <c r="C23" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="26">
+        <v>2</v>
+      </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
     </row>
     <row r="24" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="78"/>
-      <c r="B24" s="82"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="108"/>
       <c r="C24" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="26">
+        <v>1</v>
+      </c>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="78"/>
-      <c r="B25" s="83" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="91"/>
+      <c r="D25" s="35">
+        <f>SUM(D22:D24)</f>
+        <v>6</v>
+      </c>
+      <c r="E25" s="35">
+        <v>0</v>
+      </c>
+      <c r="F25" s="35">
+        <v>0</v>
+      </c>
+      <c r="G25" s="35">
+        <v>0</v>
+      </c>
       <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="78"/>
-      <c r="B26" s="65" t="s">
+      <c r="A26" s="76"/>
+      <c r="B26" s="85" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="25"/>
+      <c r="D26" s="26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="25">
+        <v>3</v>
+      </c>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="78"/>
-      <c r="B27" s="66"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="86"/>
       <c r="C27" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="25"/>
+      <c r="D27" s="26">
+        <v>5</v>
+      </c>
+      <c r="E27" s="25">
+        <v>2</v>
+      </c>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
     </row>
     <row r="28" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="78"/>
-      <c r="B28" s="67"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="87"/>
       <c r="C28" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="25"/>
+      <c r="D28" s="26">
+        <v>8</v>
+      </c>
+      <c r="E28" s="25">
+        <v>1</v>
+      </c>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
     </row>
     <row r="29" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="78"/>
-      <c r="B29" s="85" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="93"/>
+      <c r="D29" s="35">
+        <f>SUM(D26:D28)</f>
+        <v>16</v>
+      </c>
+      <c r="E29" s="35">
+        <f>SUM(E26:E28)</f>
+        <v>6</v>
+      </c>
+      <c r="F29" s="35">
+        <v>0</v>
+      </c>
+      <c r="G29" s="35">
+        <v>0</v>
+      </c>
       <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="78"/>
-      <c r="B30" s="90" t="s">
+      <c r="A30" s="76"/>
+      <c r="B30" s="95" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="25"/>
+      <c r="D30" s="25">
+        <v>3</v>
+      </c>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
     </row>
     <row r="31" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="78"/>
-      <c r="B31" s="91"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="D31" s="25">
+        <v>2</v>
+      </c>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
     </row>
     <row r="32" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="78"/>
-      <c r="B32" s="92"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D32" s="25"/>
+      <c r="D32" s="25">
+        <v>1</v>
+      </c>
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
     </row>
     <row r="33" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="78"/>
-      <c r="B33" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="94"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="99"/>
+      <c r="D33" s="35">
+        <f>SUM(D30:D32)</f>
+        <v>6</v>
+      </c>
+      <c r="E33" s="35">
+        <v>0</v>
+      </c>
+      <c r="F33" s="35">
+        <v>0</v>
+      </c>
+      <c r="G33" s="35">
+        <v>0</v>
+      </c>
       <c r="H33" s="35"/>
     </row>
     <row r="34" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="78"/>
-      <c r="B34" s="90" t="s">
+      <c r="A34" s="76"/>
+      <c r="B34" s="95" t="s">
         <v>17</v>
       </c>
       <c r="C34" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="25"/>
+      <c r="D34" s="25">
+        <v>3</v>
+      </c>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
     </row>
     <row r="35" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="78"/>
-      <c r="B35" s="91"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="25"/>
+      <c r="D35" s="25">
+        <v>2</v>
+      </c>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
     </row>
     <row r="36" spans="1:8" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="78"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="97"/>
       <c r="C36" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="25"/>
+      <c r="D36" s="25">
+        <v>1</v>
+      </c>
       <c r="E36" s="25"/>
       <c r="F36" s="25"/>
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
     </row>
     <row r="37" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="78"/>
-      <c r="B37" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="95"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="100"/>
+      <c r="D37" s="35">
+        <f>SUM(D34:D36)</f>
+        <v>6</v>
+      </c>
+      <c r="E37" s="35">
+        <v>0</v>
+      </c>
+      <c r="F37" s="35">
+        <v>0</v>
+      </c>
+      <c r="G37" s="35">
+        <v>0</v>
+      </c>
       <c r="H37" s="35"/>
     </row>
     <row r="38" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="78"/>
-      <c r="B38" s="96" t="s">
+      <c r="A38" s="76"/>
+      <c r="B38" s="101" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
+      <c r="D38" s="25">
+        <v>3</v>
+      </c>
+      <c r="E38" s="25">
+        <v>5</v>
+      </c>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
     </row>
     <row r="39" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="78"/>
-      <c r="B39" s="97"/>
+      <c r="A39" s="76"/>
+      <c r="B39" s="102"/>
       <c r="C39" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
+      <c r="D39" s="25">
+        <v>3</v>
+      </c>
+      <c r="E39" s="25">
+        <v>3</v>
+      </c>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
     </row>
     <row r="40" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="78"/>
-      <c r="B40" s="98"/>
+      <c r="A40" s="76"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="D40" s="25">
+        <v>8</v>
+      </c>
+      <c r="E40" s="25">
+        <v>2</v>
+      </c>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
     </row>
     <row r="41" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="78"/>
-      <c r="B41" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="95"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
+      <c r="A41" s="76"/>
+      <c r="B41" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="100"/>
+      <c r="D41" s="35">
+        <f>SUM(D38:D40)</f>
+        <v>14</v>
+      </c>
+      <c r="E41" s="35">
+        <f>SUM(E38:E40)</f>
+        <v>10</v>
+      </c>
+      <c r="F41" s="35">
+        <v>0</v>
+      </c>
+      <c r="G41" s="35">
+        <v>0</v>
+      </c>
       <c r="H41" s="35"/>
     </row>
     <row r="42" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="78"/>
-      <c r="B42" s="96" t="s">
+      <c r="A42" s="76"/>
+      <c r="B42" s="101" t="s">
         <v>19</v>
       </c>
       <c r="C42" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
+      <c r="D42" s="25">
+        <v>8</v>
+      </c>
+      <c r="E42" s="25">
+        <v>5</v>
+      </c>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
     </row>
     <row r="43" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="78"/>
-      <c r="B43" s="102"/>
+      <c r="A43" s="76"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
+      <c r="D43" s="25">
+        <v>3</v>
+      </c>
+      <c r="E43" s="25">
+        <v>3</v>
+      </c>
       <c r="F43" s="25"/>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
     </row>
     <row r="44" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="78"/>
-      <c r="B44" s="103"/>
+      <c r="A44" s="76"/>
+      <c r="B44" s="105"/>
       <c r="C44" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
+      <c r="D44" s="25">
+        <v>2</v>
+      </c>
+      <c r="E44" s="25">
+        <v>2</v>
+      </c>
       <c r="F44" s="25"/>
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
     </row>
     <row r="45" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="78"/>
-      <c r="B45" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
+      <c r="A45" s="76"/>
+      <c r="B45" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="99"/>
+      <c r="D45" s="35">
+        <f>SUM(D42:D44)</f>
+        <v>13</v>
+      </c>
+      <c r="E45" s="35">
+        <f>SUM(E42:E44)</f>
+        <v>10</v>
+      </c>
+      <c r="F45" s="35">
+        <v>0</v>
+      </c>
+      <c r="G45" s="35">
+        <v>0</v>
+      </c>
       <c r="H45" s="35"/>
     </row>
     <row r="46" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="78"/>
-      <c r="B46" s="96" t="s">
+      <c r="A46" s="76"/>
+      <c r="B46" s="101" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
+      <c r="D46" s="25">
+        <v>2</v>
+      </c>
+      <c r="E46" s="25">
+        <v>3</v>
+      </c>
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
     </row>
     <row r="47" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="78"/>
-      <c r="B47" s="102"/>
+      <c r="A47" s="76"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
+      <c r="D47" s="25">
+        <v>8</v>
+      </c>
+      <c r="E47" s="25">
+        <v>2</v>
+      </c>
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
     </row>
     <row r="48" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="78"/>
-      <c r="B48" s="103"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="105"/>
       <c r="C48" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="D48" s="25">
+        <v>3</v>
+      </c>
+      <c r="E48" s="25">
+        <v>1</v>
+      </c>
       <c r="F48" s="25"/>
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="79"/>
-      <c r="B49" s="93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="94"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
+      <c r="A49" s="77"/>
+      <c r="B49" s="98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="99"/>
+      <c r="D49" s="35">
+        <f>SUM(D46:D48)</f>
+        <v>13</v>
+      </c>
+      <c r="E49" s="35">
+        <f>SUM(E46:E48)</f>
+        <v>6</v>
+      </c>
+      <c r="F49" s="35">
+        <v>0</v>
+      </c>
+      <c r="G49" s="35">
+        <v>0</v>
+      </c>
       <c r="H49" s="35"/>
     </row>
     <row r="50" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="51"/>
+      <c r="A50" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="65"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="9">
-        <f>SUM(D5+D9+D13+D17+D21)</f>
-        <v>20.6</v>
+        <f>SUM(D5+D9+D13+D17+D21 + D25 + D29 + D33 + D37 + D41 + D45 + D49)</f>
+        <v>124</v>
       </c>
       <c r="E50" s="9">
-        <f>SUM(E5+E9+E13+E17+E21)</f>
-        <v>13.7</v>
+        <f>SUM(E5+E9+E13+E17+E21 + E25 + E29 + E33 + E37 + E41 + E45 + E49)</f>
+        <v>48</v>
       </c>
       <c r="F50" s="9">
         <f>SUM(F5+F9+F13+F17+F21)</f>
-        <v>10.200000000000001</v>
+        <v>0</v>
       </c>
       <c r="G50" s="9">
         <f>SUM(G5+G9+G13+G17+G21)</f>
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="H50" s="9"/>
     </row>
@@ -7757,287 +7971,313 @@
       <c r="H52" s="14"/>
     </row>
     <row r="53" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="64" t="s">
+      <c r="A53" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B53" s="72" t="s">
+      <c r="B53" s="68" t="s">
         <v>59</v>
       </c>
       <c r="C53" s="38" t="s">
         <v>60</v>
       </c>
       <c r="D53" s="4">
-        <v>2.2999999999999998</v>
+        <v>3</v>
       </c>
       <c r="E53" s="4">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="F53" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="G53" s="4">
-        <v>1.5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G53" s="4"/>
       <c r="H53" s="4"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="60"/>
-      <c r="B54" s="58"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="70"/>
       <c r="C54" s="38" t="s">
         <v>61</v>
       </c>
       <c r="D54" s="5">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="E54" s="5">
-        <v>2.2999999999999998</v>
+        <v>3</v>
       </c>
       <c r="F54" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G54" s="5">
-        <v>2.9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G54" s="5"/>
       <c r="H54" s="5"/>
     </row>
     <row r="55" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="60"/>
-      <c r="B55" s="58"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="70"/>
       <c r="C55" s="38" t="s">
         <v>62</v>
       </c>
       <c r="D55" s="5">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E55" s="5">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="F55" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
     <row r="56" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="60"/>
-      <c r="B56" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="57"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="52"/>
       <c r="D56" s="6">
         <f>SUM(D53:D55)</f>
-        <v>2.6</v>
+        <v>10</v>
       </c>
       <c r="E56" s="6">
         <f>SUM(E53:E55)</f>
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="F56" s="6">
         <f>SUM(F53:F55)</f>
-        <v>8.3000000000000007</v>
+        <v>14</v>
       </c>
       <c r="G56" s="6">
         <f>SUM(G53:G55)</f>
-        <v>5.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="60"/>
-      <c r="B57" s="99" t="s">
+      <c r="A57" s="57"/>
+      <c r="B57" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="47" t="s">
         <v>64</v>
       </c>
       <c r="D57" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" s="5">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="F57" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="G57" s="5">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="60"/>
-      <c r="B58" s="100"/>
-      <c r="C58" s="42" t="s">
+      <c r="A58" s="57"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="47" t="s">
         <v>65</v>
       </c>
       <c r="D58" s="5">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="E58" s="5">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="F58" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G58" s="5">
-        <v>0.6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="60"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="42" t="s">
+      <c r="A59" s="57"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="D59" s="5">
+        <v>3</v>
+      </c>
+      <c r="E59" s="5">
+        <v>2</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
     <row r="60" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="60"/>
-      <c r="B60" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="57"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="52"/>
       <c r="D60" s="6">
-        <f>SUM(D57:D58)</f>
-        <v>5.9</v>
+        <f>SUM(D57:D59)</f>
+        <v>13</v>
       </c>
       <c r="E60" s="6">
-        <f t="shared" ref="E60:G60" si="4">SUM(E57:E58)</f>
-        <v>2.3000000000000003</v>
+        <f>SUM(E57:E59)</f>
+        <v>6</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="4"/>
-        <v>2.1</v>
+        <f>SUM(F57:F59)</f>
+        <v>14</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="4"/>
-        <v>2.6</v>
+        <f t="shared" ref="G60" si="4">SUM(G57:G58)</f>
+        <v>0</v>
       </c>
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="60"/>
-      <c r="B61" s="65" t="s">
+      <c r="A61" s="57"/>
+      <c r="B61" s="85" t="s">
         <v>67</v>
       </c>
       <c r="C61" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="25"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
+      <c r="D61" s="25">
+        <v>3</v>
+      </c>
+      <c r="E61" s="25">
+        <v>1</v>
+      </c>
+      <c r="F61" s="25">
+        <v>8</v>
+      </c>
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
     </row>
     <row r="62" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="60"/>
-      <c r="B62" s="66"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="86"/>
       <c r="C62" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="25"/>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
+      <c r="D62" s="25">
+        <v>2</v>
+      </c>
+      <c r="E62" s="25">
+        <v>3</v>
+      </c>
+      <c r="F62" s="25">
+        <v>5</v>
+      </c>
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
     </row>
     <row r="63" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="60"/>
-      <c r="B63" s="67"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="87"/>
       <c r="C63" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="25"/>
+      <c r="D63" s="25">
+        <v>8</v>
+      </c>
+      <c r="E63" s="25">
+        <v>2</v>
+      </c>
+      <c r="F63" s="25">
+        <v>1</v>
+      </c>
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
     </row>
     <row r="64" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="60"/>
-      <c r="B64" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="57"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="52"/>
       <c r="D64" s="6">
-        <f>SUM(D61:D62)</f>
-        <v>0</v>
+        <f>SUM(D61:D63)</f>
+        <v>13</v>
       </c>
       <c r="E64" s="6">
-        <f t="shared" ref="E64:G64" si="5">SUM(E61:E62)</f>
-        <v>0</v>
+        <f>SUM(E61:E63)</f>
+        <v>6</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>SUM(F61:F63)</f>
+        <v>14</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G64" si="5">SUM(G61:G62)</f>
         <v>0</v>
       </c>
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="60"/>
-      <c r="B65" s="65" t="s">
+      <c r="A65" s="57"/>
+      <c r="B65" s="85" t="s">
         <v>71</v>
       </c>
       <c r="C65" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
+      <c r="D65" s="25">
+        <v>3</v>
+      </c>
+      <c r="E65" s="25">
+        <v>3</v>
+      </c>
       <c r="F65" s="25"/>
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
     </row>
     <row r="66" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="60"/>
-      <c r="B66" s="66"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="86"/>
       <c r="C66" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="25"/>
-      <c r="E66" s="25"/>
+      <c r="D66" s="25">
+        <v>2</v>
+      </c>
+      <c r="E66" s="25">
+        <v>2</v>
+      </c>
       <c r="F66" s="25"/>
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
     </row>
     <row r="67" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="60"/>
-      <c r="B67" s="67"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="87"/>
       <c r="C67" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
+      <c r="D67" s="25">
+        <v>5</v>
+      </c>
+      <c r="E67" s="25">
+        <v>1</v>
+      </c>
       <c r="F67" s="25"/>
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
     </row>
     <row r="68" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="60"/>
-      <c r="B68" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="57"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="52"/>
       <c r="D68" s="6">
-        <f>SUM(D65:D66)</f>
-        <v>0</v>
+        <f>SUM(D65:D67)</f>
+        <v>10</v>
       </c>
       <c r="E68" s="6">
-        <f t="shared" ref="E68:G68" si="6">SUM(E65:E66)</f>
-        <v>0</v>
+        <f>SUM(E65:E67)</f>
+        <v>6</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="F68:G68" si="6">SUM(F65:F66)</f>
         <v>0</v>
       </c>
       <c r="G68" s="6">
@@ -8047,52 +8287,58 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="60"/>
-      <c r="B69" s="65" t="s">
+      <c r="A69" s="57"/>
+      <c r="B69" s="85" t="s">
         <v>75</v>
       </c>
-      <c r="C69" s="43" t="s">
+      <c r="C69" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="25"/>
+      <c r="D69" s="25">
+        <v>3</v>
+      </c>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
     </row>
     <row r="70" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="60"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="43" t="s">
+      <c r="A70" s="57"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="25"/>
+      <c r="D70" s="25">
+        <v>2</v>
+      </c>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
     </row>
     <row r="71" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="60"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="43" t="s">
+      <c r="A71" s="57"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="25"/>
+      <c r="D71" s="25">
+        <v>1</v>
+      </c>
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
     </row>
     <row r="72" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="60"/>
-      <c r="B72" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="57"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="52"/>
       <c r="D72" s="6">
-        <f>SUM(D69:D70)</f>
-        <v>0</v>
+        <f>SUM(D69:D71)</f>
+        <v>6</v>
       </c>
       <c r="E72" s="6">
         <f t="shared" ref="E72:G72" si="7">SUM(E69:E70)</f>
@@ -8109,52 +8355,58 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="60"/>
-      <c r="B73" s="68" t="s">
+      <c r="A73" s="57"/>
+      <c r="B73" s="61" t="s">
         <v>79</v>
       </c>
       <c r="C73" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="25"/>
+      <c r="D73" s="25">
+        <v>3</v>
+      </c>
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
     </row>
     <row r="74" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="60"/>
-      <c r="B74" s="69"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="62"/>
       <c r="C74" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="25"/>
+      <c r="D74" s="25">
+        <v>2</v>
+      </c>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
     </row>
     <row r="75" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="60"/>
-      <c r="B75" s="70"/>
+      <c r="A75" s="57"/>
+      <c r="B75" s="63"/>
       <c r="C75" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="25"/>
+      <c r="D75" s="25">
+        <v>1</v>
+      </c>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
     </row>
     <row r="76" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="60"/>
-      <c r="B76" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="57"/>
+      <c r="A76" s="57"/>
+      <c r="B76" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="52"/>
       <c r="D76" s="6">
-        <f>SUM(D73:D74)</f>
-        <v>0</v>
+        <f>SUM(D73:D75)</f>
+        <v>6</v>
       </c>
       <c r="E76" s="6">
         <f t="shared" ref="E76:G76" si="8">SUM(E73:E74)</f>
@@ -8171,52 +8423,58 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="60"/>
-      <c r="B77" s="62" t="s">
+      <c r="A77" s="57"/>
+      <c r="B77" s="59" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="25"/>
+      <c r="D77" s="25">
+        <v>3</v>
+      </c>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
     </row>
     <row r="78" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="60"/>
-      <c r="B78" s="63"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="60"/>
       <c r="C78" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="25"/>
+      <c r="D78" s="25">
+        <v>2</v>
+      </c>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
     </row>
     <row r="79" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="60"/>
-      <c r="B79" s="63"/>
+      <c r="A79" s="57"/>
+      <c r="B79" s="60"/>
       <c r="C79" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D79" s="25"/>
+      <c r="D79" s="25">
+        <v>1</v>
+      </c>
       <c r="E79" s="25"/>
       <c r="F79" s="25"/>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
     </row>
     <row r="80" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="61"/>
-      <c r="B80" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="57"/>
+      <c r="A80" s="58"/>
+      <c r="B80" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="52"/>
       <c r="D80" s="6">
-        <f>SUM(D77:D78)</f>
-        <v>0</v>
+        <f>SUM(D77:D79)</f>
+        <v>6</v>
       </c>
       <c r="E80" s="6">
         <f t="shared" ref="E80:G80" si="9">SUM(E77:E78)</f>
@@ -8233,26 +8491,26 @@
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="50"/>
-      <c r="C81" s="51"/>
+      <c r="A81" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="65"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="9">
-        <f>SUM(D56+D60)</f>
-        <v>8.5</v>
+        <f>SUM(D56+D60 + D64 + D68 + D72 + D76 + D80)</f>
+        <v>64</v>
       </c>
       <c r="E81" s="9">
-        <f>SUM(E56+E60)</f>
-        <v>5.8000000000000007</v>
+        <f>SUM(E56+E60 + E64 + E68 + E72 + E76 + E80)</f>
+        <v>31</v>
       </c>
       <c r="F81" s="9">
-        <f>SUM(F56+F60)</f>
-        <v>10.4</v>
+        <f>SUM(F56+F60 + F64 + F68 + F72 + F76 + F80)</f>
+        <v>42</v>
       </c>
       <c r="G81" s="9">
         <f>SUM(G56+G60)</f>
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="H81" s="9"/>
     </row>
@@ -8276,279 +8534,245 @@
       <c r="G83" s="14"/>
       <c r="H83" s="14"/>
     </row>
-    <row r="84" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="73" t="s">
+    <row r="84" spans="1:8" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B84" s="75" t="s">
+      <c r="B84" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="46" t="s">
+      <c r="C84" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="D84" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="E84" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="F84" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="G84" s="5">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H84" s="5"/>
-    </row>
-    <row r="85" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="74"/>
-      <c r="B85" s="75"/>
-      <c r="C85" s="46" t="s">
+      <c r="D84" s="48">
+        <v>8</v>
+      </c>
+      <c r="E84" s="48">
+        <v>8</v>
+      </c>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+    </row>
+    <row r="85" spans="1:8" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="79"/>
+      <c r="B85" s="82"/>
+      <c r="C85" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
+      <c r="D85" s="48">
+        <v>2</v>
+      </c>
+      <c r="E85" s="48">
+        <v>3</v>
+      </c>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
     </row>
     <row r="86" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="52"/>
-      <c r="B86" s="76"/>
+      <c r="A86" s="80"/>
+      <c r="B86" s="83"/>
       <c r="C86" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D86" s="5">
-        <v>6.4</v>
-      </c>
-      <c r="E86" s="5">
-        <v>7.4</v>
-      </c>
-      <c r="F86" s="5">
-        <v>11.4</v>
-      </c>
-      <c r="G86" s="5">
-        <v>15.8</v>
-      </c>
-      <c r="H86" s="5"/>
+      <c r="D86" s="48">
+        <v>8</v>
+      </c>
+      <c r="E86" s="48">
+        <v>1</v>
+      </c>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
     </row>
     <row r="87" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="52"/>
-      <c r="B87" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="57"/>
+      <c r="A87" s="80"/>
+      <c r="B87" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="73"/>
       <c r="D87" s="6">
         <f>SUM(D84:D86)</f>
-        <v>6.8000000000000007</v>
+        <v>18</v>
       </c>
       <c r="E87" s="6">
         <f t="shared" ref="E87:G87" si="10">SUM(E84:E86)</f>
-        <v>7.8000000000000007</v>
+        <v>12</v>
       </c>
       <c r="F87" s="6">
         <f t="shared" si="10"/>
-        <v>13.1</v>
+        <v>0</v>
       </c>
       <c r="G87" s="6">
         <f t="shared" si="10"/>
-        <v>20.700000000000003</v>
+        <v>0</v>
       </c>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="52"/>
+    <row r="88" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="80"/>
       <c r="B88" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="38" t="s">
+      <c r="C88" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D88" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="E88" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="F88" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="G88" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="H88" s="5"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="52"/>
-      <c r="B89" s="58"/>
-      <c r="C89" s="38" t="s">
+      <c r="D88" s="48">
+        <v>2</v>
+      </c>
+      <c r="E88" s="48">
+        <v>8</v>
+      </c>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+    </row>
+    <row r="89" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="80"/>
+      <c r="B89" s="72"/>
+      <c r="C89" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D89" s="5">
-        <v>6.1</v>
-      </c>
-      <c r="E89" s="5">
-        <v>5.6</v>
-      </c>
-      <c r="F89" s="5">
-        <v>7.9</v>
-      </c>
-      <c r="G89" s="5">
-        <v>8.1</v>
-      </c>
-      <c r="H89" s="5"/>
+      <c r="D89" s="48">
+        <v>8</v>
+      </c>
+      <c r="E89" s="48">
+        <v>5</v>
+      </c>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
     </row>
     <row r="90" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="52"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="38" t="s">
+      <c r="A90" s="80"/>
+      <c r="B90" s="72"/>
+      <c r="C90" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D90" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="E90" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="F90" s="5">
-        <v>2</v>
-      </c>
-      <c r="G90" s="5">
-        <v>3</v>
-      </c>
-      <c r="H90" s="5"/>
+      <c r="D90" s="48">
+        <v>2</v>
+      </c>
+      <c r="E90" s="48">
+        <v>1</v>
+      </c>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
     </row>
     <row r="91" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="52"/>
-      <c r="B91" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="57"/>
+      <c r="A91" s="80"/>
+      <c r="B91" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="73"/>
       <c r="D91" s="6">
         <f>SUM(D88:D90)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E91" s="6">
         <f t="shared" ref="E91:G91" si="11">SUM(E88:E90)</f>
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="F91" s="6">
         <f t="shared" si="11"/>
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="G91" s="6">
         <f t="shared" si="11"/>
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.3">
-      <c r="A92" s="52"/>
+    <row r="92" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="80"/>
       <c r="B92" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="C92" s="39" t="s">
+      <c r="C92" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="D92" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="E92" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="F92" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="G92" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="H92" s="5"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="52"/>
-      <c r="B93" s="58"/>
-      <c r="C93" s="39" t="s">
+      <c r="D92" s="48">
+        <v>5</v>
+      </c>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+    </row>
+    <row r="93" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="80"/>
+      <c r="B93" s="72"/>
+      <c r="C93" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D93" s="5">
-        <v>6.2</v>
-      </c>
-      <c r="E93" s="5">
-        <v>8.5</v>
-      </c>
-      <c r="F93" s="5">
-        <v>5.4</v>
-      </c>
-      <c r="G93" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="H93" s="5"/>
+      <c r="D93" s="48">
+        <v>3</v>
+      </c>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
     </row>
     <row r="94" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="52"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="39" t="s">
+      <c r="A94" s="80"/>
+      <c r="B94" s="72"/>
+      <c r="C94" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D94" s="5">
-        <v>3.2</v>
-      </c>
-      <c r="E94" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="F94" s="5">
-        <v>5</v>
-      </c>
-      <c r="G94" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="H94" s="5"/>
+      <c r="D94" s="48">
+        <v>2</v>
+      </c>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
     </row>
     <row r="95" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="53"/>
-      <c r="B95" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C95" s="57"/>
+      <c r="A95" s="81"/>
+      <c r="B95" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="52"/>
       <c r="D95" s="6">
         <f>SUM(D92:D94)</f>
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="E95" s="6">
         <f>SUM(E92:E94)</f>
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="F95" s="6">
         <f>SUM(F92:F94)</f>
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="G95" s="6">
         <f>SUM(G92:G94)</f>
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="50"/>
-      <c r="C96" s="51"/>
+      <c r="A96" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="65"/>
+      <c r="C96" s="66"/>
       <c r="D96" s="9">
         <f>SUM(D87+D91+D95)</f>
-        <v>25.700000000000003</v>
+        <v>40</v>
       </c>
       <c r="E96" s="9">
         <f>SUM(E87+E91+E95)</f>
-        <v>31.9</v>
+        <v>26</v>
       </c>
       <c r="F96" s="9">
         <f>SUM(F87+F91+F95)</f>
-        <v>35.4</v>
+        <v>0</v>
       </c>
       <c r="G96" s="9">
         <f>SUM(G87+G91+G95)</f>
-        <v>42.8</v>
+        <v>0</v>
       </c>
       <c r="H96" s="9"/>
     </row>
@@ -8572,223 +8796,213 @@
       <c r="G98" s="17"/>
       <c r="H98" s="17"/>
     </row>
-    <row r="99" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="59" t="s">
+    <row r="99" spans="1:8" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="56" t="s">
         <v>100</v>
       </c>
       <c r="B99" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="48" t="s">
+      <c r="C99" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="D99" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="E99" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="F99" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G99" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="H99" s="4"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="60"/>
-      <c r="B100" s="58"/>
-      <c r="C100" s="39" t="s">
+      <c r="D99" s="48">
+        <v>3</v>
+      </c>
+      <c r="E99" s="48">
+        <v>5</v>
+      </c>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
+    </row>
+    <row r="100" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="57"/>
+      <c r="B100" s="72"/>
+      <c r="C100" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D100" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="E100" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="F100" s="5">
-        <v>3</v>
-      </c>
-      <c r="G100" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="H100" s="5"/>
+      <c r="D100" s="48">
+        <v>1</v>
+      </c>
+      <c r="E100" s="48">
+        <v>3</v>
+      </c>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
     </row>
     <row r="101" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="60"/>
-      <c r="B101" s="58"/>
-      <c r="C101" s="38" t="s">
+      <c r="A101" s="57"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="D101" s="5">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E101" s="5">
-        <v>3</v>
-      </c>
-      <c r="F101" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="G101" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="H101" s="5"/>
+      <c r="D101" s="48">
+        <v>2</v>
+      </c>
+      <c r="E101" s="48">
+        <v>1</v>
+      </c>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
     </row>
     <row r="102" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="60"/>
-      <c r="B102" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102" s="57"/>
+      <c r="A102" s="57"/>
+      <c r="B102" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="73"/>
       <c r="D102" s="6">
         <f>SUM(D99:D101)</f>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E102" s="6">
         <f t="shared" ref="E102:G102" si="12">SUM(E99:E101)</f>
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="F102" s="6">
         <f t="shared" si="12"/>
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="12"/>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="60"/>
+    <row r="103" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="57"/>
       <c r="B103" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="39" t="s">
+      <c r="C103" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="D103" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="E103" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="F103" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="G103" s="5">
-        <v>2.7</v>
-      </c>
-      <c r="H103" s="5"/>
+      <c r="D103" s="48">
+        <v>5</v>
+      </c>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
     </row>
     <row r="104" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="60"/>
-      <c r="B104" s="72"/>
-      <c r="C104" s="41" t="s">
+      <c r="A104" s="57"/>
+      <c r="B104" s="71"/>
+      <c r="C104" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
+      <c r="D104" s="48">
+        <v>3</v>
+      </c>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
     </row>
     <row r="105" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="60"/>
-      <c r="B105" s="55"/>
-      <c r="C105" s="41" t="s">
+      <c r="A105" s="57"/>
+      <c r="B105" s="72"/>
+      <c r="C105" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="D105" s="8">
-        <v>3</v>
-      </c>
-      <c r="E105" s="8">
-        <v>1.4</v>
-      </c>
-      <c r="F105" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="G105" s="8">
-        <v>1.9</v>
-      </c>
-      <c r="H105" s="8"/>
+      <c r="D105" s="48">
+        <v>2</v>
+      </c>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="48"/>
     </row>
     <row r="106" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="60"/>
-      <c r="B106" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="57"/>
+      <c r="A106" s="57"/>
+      <c r="B106" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="52"/>
       <c r="D106" s="6">
         <f>SUM(D103:D105)</f>
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="E106" s="6">
         <f t="shared" ref="E106:G106" si="13">SUM(E103:E105)</f>
-        <v>1.5999999999999999</v>
+        <v>0</v>
       </c>
       <c r="F106" s="6">
         <f t="shared" si="13"/>
-        <v>2.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="G106" s="6">
         <f t="shared" si="13"/>
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="60"/>
-      <c r="B107" s="62" t="s">
+      <c r="A107" s="57"/>
+      <c r="B107" s="59" t="s">
         <v>109</v>
       </c>
       <c r="C107" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
+      <c r="D107" s="25">
+        <v>3</v>
+      </c>
+      <c r="E107" s="25">
+        <v>5</v>
+      </c>
       <c r="F107" s="25"/>
       <c r="G107" s="25"/>
       <c r="H107" s="25"/>
     </row>
     <row r="108" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="60"/>
-      <c r="B108" s="63"/>
+      <c r="A108" s="57"/>
+      <c r="B108" s="60"/>
       <c r="C108" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
+      <c r="D108" s="25">
+        <v>5</v>
+      </c>
+      <c r="E108" s="25">
+        <v>2</v>
+      </c>
       <c r="F108" s="25"/>
       <c r="G108" s="25"/>
       <c r="H108" s="25"/>
     </row>
     <row r="109" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="60"/>
-      <c r="B109" s="63"/>
+      <c r="A109" s="57"/>
+      <c r="B109" s="60"/>
       <c r="C109" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="D109" s="25"/>
-      <c r="E109" s="25"/>
+      <c r="D109" s="25">
+        <v>1</v>
+      </c>
+      <c r="E109" s="25">
+        <v>1</v>
+      </c>
       <c r="F109" s="25"/>
       <c r="G109" s="25"/>
       <c r="H109" s="25"/>
     </row>
     <row r="110" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="60"/>
-      <c r="B110" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" s="57"/>
+      <c r="A110" s="57"/>
+      <c r="B110" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110" s="52"/>
       <c r="D110" s="6">
         <f>SUM(D107:D109)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E110" s="6">
         <f t="shared" ref="E110:G110" si="14">SUM(E107:E109)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F110" s="6">
         <f t="shared" si="14"/>
@@ -8801,56 +9015,68 @@
       <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="60"/>
-      <c r="B111" s="62" t="s">
+      <c r="A111" s="57"/>
+      <c r="B111" s="59" t="s">
         <v>113</v>
       </c>
       <c r="C111" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
+      <c r="D111" s="25">
+        <v>2</v>
+      </c>
+      <c r="E111" s="25">
+        <v>3</v>
+      </c>
       <c r="F111" s="25"/>
       <c r="G111" s="25"/>
       <c r="H111" s="25"/>
     </row>
     <row r="112" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="60"/>
-      <c r="B112" s="62"/>
+      <c r="A112" s="57"/>
+      <c r="B112" s="59"/>
       <c r="C112" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
+      <c r="D112" s="25">
+        <v>8</v>
+      </c>
+      <c r="E112" s="25">
+        <v>2</v>
+      </c>
       <c r="F112" s="25"/>
       <c r="G112" s="25"/>
       <c r="H112" s="25"/>
     </row>
     <row r="113" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="60"/>
-      <c r="B113" s="62"/>
+      <c r="A113" s="57"/>
+      <c r="B113" s="59"/>
       <c r="C113" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D113" s="25"/>
-      <c r="E113" s="25"/>
+      <c r="D113" s="25">
+        <v>1</v>
+      </c>
+      <c r="E113" s="25">
+        <v>1</v>
+      </c>
       <c r="F113" s="25"/>
       <c r="G113" s="25"/>
       <c r="H113" s="25"/>
     </row>
     <row r="114" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="60"/>
-      <c r="B114" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" s="57"/>
+      <c r="A114" s="57"/>
+      <c r="B114" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="52"/>
       <c r="D114" s="6">
         <f>SUM(D111:D113)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E114" s="6">
         <f t="shared" ref="E114:G114" si="15">SUM(E111:E113)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F114" s="6">
         <f t="shared" si="15"/>
@@ -8863,52 +9089,58 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="60"/>
-      <c r="B115" s="62" t="s">
+      <c r="A115" s="57"/>
+      <c r="B115" s="59" t="s">
         <v>117</v>
       </c>
       <c r="C115" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D115" s="25"/>
+      <c r="D115" s="25">
+        <v>3</v>
+      </c>
       <c r="E115" s="25"/>
       <c r="F115" s="25"/>
       <c r="G115" s="25"/>
       <c r="H115" s="25"/>
     </row>
     <row r="116" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="60"/>
-      <c r="B116" s="63"/>
+      <c r="A116" s="57"/>
+      <c r="B116" s="60"/>
       <c r="C116" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="D116" s="25"/>
+      <c r="D116" s="25">
+        <v>3</v>
+      </c>
       <c r="E116" s="25"/>
       <c r="F116" s="25"/>
       <c r="G116" s="25"/>
       <c r="H116" s="25"/>
     </row>
     <row r="117" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="60"/>
-      <c r="B117" s="63"/>
+      <c r="A117" s="57"/>
+      <c r="B117" s="60"/>
       <c r="C117" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="D117" s="25"/>
+      <c r="D117" s="25">
+        <v>1</v>
+      </c>
       <c r="E117" s="25"/>
       <c r="F117" s="25"/>
       <c r="G117" s="25"/>
       <c r="H117" s="25"/>
     </row>
     <row r="118" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="60"/>
-      <c r="B118" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="57"/>
+      <c r="A118" s="57"/>
+      <c r="B118" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118" s="52"/>
       <c r="D118" s="6">
         <f>SUM(D115:D117)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E118" s="6">
         <f t="shared" ref="E118:G118" si="16">SUM(E115:E117)</f>
@@ -8925,52 +9157,58 @@
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="60"/>
-      <c r="B119" s="62" t="s">
+      <c r="A119" s="57"/>
+      <c r="B119" s="59" t="s">
         <v>121</v>
       </c>
       <c r="C119" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="D119" s="25"/>
+      <c r="D119" s="25">
+        <v>3</v>
+      </c>
       <c r="E119" s="25"/>
       <c r="F119" s="25"/>
       <c r="G119" s="25"/>
       <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="60"/>
-      <c r="B120" s="63"/>
+      <c r="A120" s="57"/>
+      <c r="B120" s="60"/>
       <c r="C120" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="D120" s="25"/>
+      <c r="D120" s="25">
+        <v>3</v>
+      </c>
       <c r="E120" s="25"/>
       <c r="F120" s="25"/>
       <c r="G120" s="25"/>
       <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="60"/>
-      <c r="B121" s="63"/>
+      <c r="A121" s="57"/>
+      <c r="B121" s="60"/>
       <c r="C121" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="D121" s="25"/>
+      <c r="D121" s="25">
+        <v>1</v>
+      </c>
       <c r="E121" s="25"/>
       <c r="F121" s="25"/>
       <c r="G121" s="25"/>
       <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="60"/>
-      <c r="B122" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="57"/>
+      <c r="A122" s="57"/>
+      <c r="B122" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="52"/>
       <c r="D122" s="6">
         <f>SUM(D119:D121)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E122" s="6">
         <f t="shared" ref="E122:G122" si="17">SUM(E119:E121)</f>
@@ -8987,52 +9225,58 @@
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="60"/>
-      <c r="B123" s="62" t="s">
+      <c r="A123" s="57"/>
+      <c r="B123" s="59" t="s">
         <v>125</v>
       </c>
       <c r="C123" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D123" s="25"/>
+      <c r="D123" s="25">
+        <v>3</v>
+      </c>
       <c r="E123" s="25"/>
       <c r="F123" s="25"/>
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
     </row>
     <row r="124" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="60"/>
-      <c r="B124" s="63"/>
+      <c r="A124" s="57"/>
+      <c r="B124" s="60"/>
       <c r="C124" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D124" s="25"/>
+      <c r="D124" s="25">
+        <v>3</v>
+      </c>
       <c r="E124" s="25"/>
       <c r="F124" s="25"/>
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
     </row>
     <row r="125" spans="1:8" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="60"/>
-      <c r="B125" s="63"/>
+      <c r="A125" s="57"/>
+      <c r="B125" s="60"/>
       <c r="C125" s="44" t="s">
         <v>128</v>
       </c>
-      <c r="D125" s="25"/>
+      <c r="D125" s="25">
+        <v>1</v>
+      </c>
       <c r="E125" s="25"/>
       <c r="F125" s="25"/>
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
     </row>
     <row r="126" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="60"/>
-      <c r="B126" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C126" s="57"/>
+      <c r="A126" s="57"/>
+      <c r="B126" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126" s="52"/>
       <c r="D126" s="6">
         <f>SUM(D123:D125)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E126" s="6">
         <f t="shared" ref="E126:G126" si="18">SUM(E123:E125)</f>
@@ -9049,26 +9293,26 @@
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B127" s="50"/>
-      <c r="C127" s="51"/>
+      <c r="A127" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B127" s="65"/>
+      <c r="C127" s="66"/>
       <c r="D127" s="9">
-        <f>SUM(D102+D106)</f>
-        <v>8.1</v>
+        <f>SUM(D102+D106 + D110 + D114 + D118 + D122 + D126)</f>
+        <v>57</v>
       </c>
       <c r="E127" s="9">
-        <f>SUM(E102+E106)</f>
-        <v>7.8</v>
+        <f>SUM(E102+E106 + E110 + E114 + E118 + E122 + E126)</f>
+        <v>23</v>
       </c>
       <c r="F127" s="9">
         <f>SUM(F102+F106)</f>
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="G127" s="9">
         <f>SUM(G102+G106)</f>
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="H127" s="9"/>
     </row>
@@ -9093,214 +9337,218 @@
       <c r="H129" s="17"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="59" t="s">
+      <c r="A130" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="B130" s="71" t="s">
+      <c r="B130" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="C130" s="48" t="s">
+      <c r="C130" s="45" t="s">
         <v>131</v>
       </c>
       <c r="D130" s="4">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="E130" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="F130" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="G130" s="4">
-        <v>0.5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
       <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="60"/>
-      <c r="B131" s="72"/>
-      <c r="C131" s="39" t="s">
+      <c r="A131" s="57"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
+      <c r="D131" s="5">
+        <v>1</v>
+      </c>
+      <c r="E131" s="5">
+        <v>3</v>
+      </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
     </row>
     <row r="132" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="60"/>
-      <c r="B132" s="55"/>
-      <c r="C132" s="41" t="s">
+      <c r="A132" s="57"/>
+      <c r="B132" s="69"/>
+      <c r="C132" s="40" t="s">
         <v>133</v>
       </c>
       <c r="D132" s="5">
-        <v>0.3</v>
+        <v>8</v>
       </c>
       <c r="E132" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="F132" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="G132" s="5">
-        <v>2.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
       <c r="H132" s="5"/>
     </row>
     <row r="133" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="60"/>
-      <c r="B133" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C133" s="57"/>
+      <c r="A133" s="57"/>
+      <c r="B133" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="52"/>
       <c r="D133" s="6">
         <f>SUM(D130:D132)</f>
-        <v>1.4000000000000001</v>
+        <v>11</v>
       </c>
       <c r="E133" s="6">
         <f t="shared" ref="E133:G133" si="19">SUM(E130:E132)</f>
-        <v>3.3</v>
+        <v>9</v>
       </c>
       <c r="F133" s="6">
         <f t="shared" si="19"/>
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="G133" s="6">
         <f t="shared" si="19"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="60"/>
-      <c r="B134" s="71" t="s">
+      <c r="A134" s="57"/>
+      <c r="B134" s="67" t="s">
         <v>134</v>
       </c>
       <c r="C134" s="38" t="s">
         <v>135</v>
       </c>
       <c r="D134" s="5">
-        <v>2.2999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E134" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="F134" s="5">
-        <v>4</v>
-      </c>
-      <c r="G134" s="5">
-        <v>1.6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
       <c r="H134" s="5"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="60"/>
-      <c r="B135" s="58"/>
+      <c r="A135" s="57"/>
+      <c r="B135" s="70"/>
       <c r="C135" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D135" s="5"/>
-      <c r="E135" s="5"/>
+      <c r="D135" s="5">
+        <v>8</v>
+      </c>
+      <c r="E135" s="5">
+        <v>3</v>
+      </c>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
     </row>
     <row r="136" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="60"/>
-      <c r="B136" s="55"/>
-      <c r="C136" s="45" t="s">
+      <c r="A136" s="57"/>
+      <c r="B136" s="69"/>
+      <c r="C136" s="43" t="s">
         <v>137</v>
       </c>
       <c r="D136" s="8">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="E136" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="F136" s="8">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G136" s="8">
-        <v>0.8</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
       <c r="H136" s="8"/>
     </row>
     <row r="137" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="60"/>
-      <c r="B137" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C137" s="57"/>
+      <c r="A137" s="57"/>
+      <c r="B137" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="52"/>
       <c r="D137" s="6">
         <f>SUM(D134:D136)</f>
-        <v>2.9</v>
+        <v>12</v>
       </c>
       <c r="E137" s="6">
         <f>SUM(E134:E136)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F137" s="6">
         <f>SUM(F134:F136)</f>
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="G137" s="6">
         <f>SUM(G134:G136)</f>
-        <v>2.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="60"/>
-      <c r="B138" s="62" t="s">
+      <c r="A138" s="57"/>
+      <c r="B138" s="59" t="s">
         <v>138</v>
       </c>
       <c r="C138" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="D138" s="25"/>
-      <c r="E138" s="25"/>
+      <c r="D138" s="25">
+        <v>3</v>
+      </c>
+      <c r="E138" s="25">
+        <v>8</v>
+      </c>
       <c r="F138" s="25"/>
       <c r="G138" s="25"/>
       <c r="H138" s="25"/>
     </row>
     <row r="139" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="60"/>
-      <c r="B139" s="63"/>
+      <c r="A139" s="57"/>
+      <c r="B139" s="60"/>
       <c r="C139" s="44" t="s">
         <v>140</v>
       </c>
-      <c r="D139" s="25"/>
-      <c r="E139" s="25"/>
+      <c r="D139" s="25">
+        <v>5</v>
+      </c>
+      <c r="E139" s="25">
+        <v>5</v>
+      </c>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
       <c r="H139" s="25"/>
     </row>
     <row r="140" spans="1:8" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="60"/>
-      <c r="B140" s="63"/>
+      <c r="A140" s="57"/>
+      <c r="B140" s="60"/>
       <c r="C140" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
+      <c r="D140" s="25">
+        <v>8</v>
+      </c>
+      <c r="E140" s="25">
+        <v>1</v>
+      </c>
       <c r="F140" s="25"/>
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
     </row>
     <row r="141" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="60"/>
-      <c r="B141" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="57"/>
+      <c r="A141" s="57"/>
+      <c r="B141" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="52"/>
       <c r="D141" s="6">
         <f>SUM(D138:D140)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E141" s="6">
         <f>SUM(E138:E140)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F141" s="6">
         <f>SUM(F138:F140)</f>
@@ -9313,56 +9561,68 @@
       <c r="H141" s="6"/>
     </row>
     <row r="142" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="60"/>
-      <c r="B142" s="62" t="s">
+      <c r="A142" s="57"/>
+      <c r="B142" s="59" t="s">
         <v>142</v>
       </c>
       <c r="C142" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="D142" s="25"/>
-      <c r="E142" s="25"/>
+      <c r="D142" s="25">
+        <v>3</v>
+      </c>
+      <c r="E142" s="25">
+        <v>3</v>
+      </c>
       <c r="F142" s="25"/>
       <c r="G142" s="25"/>
       <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="60"/>
-      <c r="B143" s="63"/>
+      <c r="A143" s="57"/>
+      <c r="B143" s="60"/>
       <c r="C143" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="D143" s="25"/>
-      <c r="E143" s="25"/>
+      <c r="D143" s="25">
+        <v>8</v>
+      </c>
+      <c r="E143" s="25">
+        <v>2</v>
+      </c>
       <c r="F143" s="25"/>
       <c r="G143" s="25"/>
       <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="60"/>
-      <c r="B144" s="63"/>
+      <c r="A144" s="57"/>
+      <c r="B144" s="60"/>
       <c r="C144" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="D144" s="25"/>
-      <c r="E144" s="25"/>
+      <c r="D144" s="25">
+        <v>2</v>
+      </c>
+      <c r="E144" s="25">
+        <v>1</v>
+      </c>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
       <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="60"/>
-      <c r="B145" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="57"/>
+      <c r="A145" s="57"/>
+      <c r="B145" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="52"/>
       <c r="D145" s="6">
         <f>SUM(D142:D144)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E145" s="6">
         <f>SUM(E142:E144)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F145" s="6">
         <f>SUM(F142:F144)</f>
@@ -9375,56 +9635,68 @@
       <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="60"/>
-      <c r="B146" s="62" t="s">
+      <c r="A146" s="57"/>
+      <c r="B146" s="59" t="s">
         <v>146</v>
       </c>
       <c r="C146" s="44" t="s">
         <v>147</v>
       </c>
-      <c r="D146" s="25"/>
-      <c r="E146" s="25"/>
+      <c r="D146" s="25">
+        <v>2</v>
+      </c>
+      <c r="E146" s="25">
+        <v>3</v>
+      </c>
       <c r="F146" s="25"/>
       <c r="G146" s="25"/>
       <c r="H146" s="25"/>
     </row>
     <row r="147" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="60"/>
-      <c r="B147" s="63"/>
+      <c r="A147" s="57"/>
+      <c r="B147" s="60"/>
       <c r="C147" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="D147" s="25"/>
-      <c r="E147" s="25"/>
+      <c r="D147" s="25">
+        <v>1</v>
+      </c>
+      <c r="E147" s="25">
+        <v>2</v>
+      </c>
       <c r="F147" s="25"/>
       <c r="G147" s="25"/>
       <c r="H147" s="25"/>
     </row>
     <row r="148" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="60"/>
-      <c r="B148" s="63"/>
+      <c r="A148" s="57"/>
+      <c r="B148" s="60"/>
       <c r="C148" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="D148" s="25"/>
-      <c r="E148" s="25"/>
+      <c r="D148" s="25">
+        <v>8</v>
+      </c>
+      <c r="E148" s="25">
+        <v>1</v>
+      </c>
       <c r="F148" s="25"/>
       <c r="G148" s="25"/>
       <c r="H148" s="25"/>
     </row>
     <row r="149" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="61"/>
-      <c r="B149" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="57"/>
+      <c r="A149" s="58"/>
+      <c r="B149" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="52"/>
       <c r="D149" s="6">
         <f>SUM(D146:D148)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E149" s="6">
         <f>SUM(E146:E148)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F149" s="6">
         <f>SUM(F146:F148)</f>
@@ -9437,26 +9709,26 @@
       <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B150" s="50"/>
-      <c r="C150" s="51"/>
+      <c r="A150" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="65"/>
+      <c r="C150" s="66"/>
       <c r="D150" s="9">
-        <f>SUM(D133+D137)</f>
-        <v>4.3</v>
+        <f>SUM(D133+D137 + D141 + D145 + D149)</f>
+        <v>63</v>
       </c>
       <c r="E150" s="9">
-        <f>SUM(E133+E137)</f>
-        <v>4.3</v>
+        <f>SUM(E133+E137 + E141 + E145 + E149)</f>
+        <v>45</v>
       </c>
       <c r="F150" s="9">
         <f>SUM(F133+F137)</f>
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="G150" s="9">
         <f>SUM(G133+G137)</f>
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="H150" s="9"/>
     </row>
@@ -9465,6 +9737,70 @@
     </row>
   </sheetData>
   <mergeCells count="78">
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A53:A80"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="A2:A49"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A84:A95"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B123:B125"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A99:A126"/>
+    <mergeCell ref="B99:B101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:B117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:C122"/>
     <mergeCell ref="B145:C145"/>
     <mergeCell ref="B146:B148"/>
     <mergeCell ref="B149:C149"/>
@@ -9479,70 +9815,6 @@
     <mergeCell ref="B138:B140"/>
     <mergeCell ref="B141:C141"/>
     <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:B117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:B125"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A99:A126"/>
-    <mergeCell ref="B99:B101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A84:A95"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A53:A80"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A2:A49"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Individual Estimate.xlsx
+++ b/Individual Estimate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cnpm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B713463-4EB5-4622-AD04-8CB60BA3CE3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C5E201-879C-4F7A-9E54-B9975805C6DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,31 +437,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -749,7 +749,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -785,7 +785,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -804,7 +804,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="31" t="s">
         <v>14</v>
       </c>
@@ -821,7 +821,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="30" t="s">
         <v>15</v>
       </c>
@@ -838,7 +838,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
@@ -855,7 +855,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="40"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
@@ -872,7 +872,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
@@ -889,7 +889,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
@@ -906,10 +906,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="29">
         <f>SUM(C2 + C3 + C4 + C5 + C6 + C7 + C8)</f>
         <v>50</v>
@@ -944,7 +944,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -961,7 +961,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
@@ -976,7 +976,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
@@ -991,7 +991,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="23" t="s">
         <v>23</v>
       </c>
@@ -1006,10 +1006,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="2">
         <f>SUM(C12 + C13 + C14 + C15)</f>
         <v>23</v>
@@ -1041,7 +1041,7 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -1060,7 +1060,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="21" t="s">
         <v>25</v>
       </c>
@@ -1077,7 +1077,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="21" t="s">
         <v>26</v>
       </c>
@@ -1094,10 +1094,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="2">
         <f>SUM(C19 + C20 + C21)</f>
         <v>21</v>
@@ -1132,7 +1132,7 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -1149,7 +1149,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="19" t="s">
         <v>28</v>
       </c>
@@ -1164,7 +1164,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
@@ -1179,7 +1179,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="33"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
@@ -1194,10 +1194,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="2">
         <f>SUM(C25 + C26 + C27 + C28)</f>
         <v>23</v>
@@ -1229,7 +1229,7 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -1248,7 +1248,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="33"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="19" t="s">
         <v>32</v>
       </c>
@@ -1265,7 +1265,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="33"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
@@ -1282,10 +1282,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="2">
         <f>SUM(C32 + C33 + C34)</f>
         <v>15</v>
@@ -1306,16 +1306,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1327,9 +1327,9 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1365,77 +1365,85 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" s="27">
         <v>5</v>
       </c>
-      <c r="E2" s="27"/>
+      <c r="E2" s="27">
+        <v>5</v>
+      </c>
       <c r="F2" s="27"/>
       <c r="G2" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D3" s="27">
         <v>5</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="27">
+        <v>5</v>
+      </c>
       <c r="F3" s="27"/>
       <c r="G3" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="27">
+        <v>8</v>
+      </c>
+      <c r="E4" s="27">
         <v>11</v>
       </c>
-      <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="27">
-        <v>8</v>
-      </c>
-      <c r="E5" s="27"/>
+        <v>5</v>
+      </c>
+      <c r="E5" s="27">
+        <v>8</v>
+      </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="40"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
@@ -1443,33 +1451,37 @@
         <v>8</v>
       </c>
       <c r="D6" s="27">
-        <v>5</v>
-      </c>
-      <c r="E6" s="27"/>
+        <v>8</v>
+      </c>
+      <c r="E6" s="27">
+        <v>5</v>
+      </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" s="28">
-        <v>5</v>
-      </c>
-      <c r="E7" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="E7" s="28">
+        <v>5</v>
+      </c>
       <c r="F7" s="28"/>
       <c r="G7" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
@@ -1477,28 +1489,33 @@
         <v>5</v>
       </c>
       <c r="D8" s="28">
-        <v>5</v>
-      </c>
-      <c r="E8" s="28"/>
+        <v>8</v>
+      </c>
+      <c r="E8" s="28">
+        <v>5</v>
+      </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="29">
         <f>SUM(C2 + C3 + C4 + C5 + C6 + C7 + C8)</f>
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="D9" s="29">
         <f>SUM(D2 + D3 + D4 + D5 + D6 + D7 +D8)</f>
+        <v>47</v>
+      </c>
+      <c r="E9" s="29">
+        <f>SUM(E2:E8)</f>
         <v>44</v>
       </c>
-      <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29">
         <f>SUM(G2 + G3 + G4 + G5 + G6 + G7 + G8)</f>
@@ -1524,16 +1541,18 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="16">
-        <v>8</v>
-      </c>
-      <c r="D12" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="16">
+        <v>8</v>
+      </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16">
@@ -1541,14 +1560,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="16">
-        <v>5</v>
-      </c>
-      <c r="D13" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="16">
+        <v>5</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
@@ -1556,14 +1577,16 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="15">
-        <v>5</v>
-      </c>
-      <c r="D14" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="D14" s="15">
+        <v>5</v>
+      </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15">
@@ -1571,14 +1594,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="15">
-        <v>5</v>
-      </c>
-      <c r="D15" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="D15" s="15">
+        <v>5</v>
+      </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15">
@@ -1586,15 +1611,18 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="2">
         <f>SUM(C12 + C13 + C14 + C15)</f>
+        <v>14</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(D12:D15)</f>
         <v>23</v>
       </c>
-      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1621,7 +1649,7 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -1630,9 +1658,7 @@
       <c r="C19" s="16">
         <v>8</v>
       </c>
-      <c r="D19" s="16">
-        <v>8</v>
-      </c>
+      <c r="D19" s="16"/>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16">
@@ -1640,16 +1666,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="16">
-        <v>8</v>
-      </c>
-      <c r="D20" s="16">
         <v>11</v>
       </c>
+      <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16">
@@ -1657,16 +1681,14 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="16">
         <v>5</v>
       </c>
-      <c r="D21" s="16">
-        <v>5</v>
-      </c>
+      <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16">
@@ -1674,18 +1696,15 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="2">
         <f>SUM(C19 + C20 + C21)</f>
-        <v>21</v>
-      </c>
-      <c r="D22" s="2">
-        <f>SUM(D19 + D20 + D21)</f>
         <v>24</v>
       </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1712,16 +1731,18 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="16">
-        <v>8</v>
-      </c>
-      <c r="D25" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="D25" s="16">
+        <v>8</v>
+      </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16">
@@ -1729,14 +1750,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="16">
         <v>5</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="16">
+        <v>5</v>
+      </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16">
@@ -1744,14 +1767,16 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="15">
         <v>5</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="15">
+        <v>5</v>
+      </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15">
@@ -1759,14 +1784,16 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="33"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="15">
         <v>5</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="15">
+        <v>5</v>
+      </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15">
@@ -1774,15 +1801,18 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="2">
         <f>SUM(C25 + C26 + C27 + C28)</f>
+        <v>20</v>
+      </c>
+      <c r="D29" s="2">
+        <f>SUM(D25:D28)</f>
         <v>23</v>
       </c>
-      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
@@ -1809,18 +1839,16 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="16">
-        <v>5</v>
-      </c>
-      <c r="D32" s="16">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16">
@@ -1828,16 +1856,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="33"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="16">
-        <v>5</v>
-      </c>
-      <c r="D33" s="16">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16">
@@ -1845,16 +1871,14 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="33"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="15">
-        <v>5</v>
-      </c>
-      <c r="D34" s="15">
         <v>11</v>
       </c>
+      <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15">
@@ -1862,18 +1886,15 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="2">
         <f>SUM(C32 + C33 + C34)</f>
-        <v>15</v>
-      </c>
-      <c r="D35" s="2">
-        <f>SUM(D32 + D33 + D34)</f>
         <v>27</v>
       </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2">
@@ -1907,9 +1928,9 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1945,14 +1966,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D2" s="27">
         <v>5</v>
@@ -1964,12 +1985,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="40"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" s="27">
         <v>5</v>
@@ -1981,12 +2002,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="40"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="27">
         <v>11</v>
@@ -1998,12 +2019,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="40"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" s="27">
         <v>8</v>
@@ -2015,12 +2036,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="40"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" s="27">
         <v>5</v>
@@ -2032,12 +2053,12 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="40"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" s="28">
         <v>5</v>
@@ -2049,7 +2070,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
@@ -2066,13 +2087,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="29">
         <f>SUM(C2 + C3 + C4 + C5 + C6 + C7 + C8)</f>
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D9" s="29">
         <f>SUM(D2 + D3 + D4 + D5 + D6 + D7 +D8)</f>
@@ -2104,16 +2125,18 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="16">
-        <v>8</v>
-      </c>
-      <c r="D12" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="D12" s="16">
+        <v>8</v>
+      </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16">
@@ -2121,14 +2144,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="16">
-        <v>5</v>
-      </c>
-      <c r="D13" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="16">
+        <v>5</v>
+      </c>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
@@ -2136,14 +2161,16 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="33"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="15">
-        <v>5</v>
-      </c>
-      <c r="D14" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="15">
+        <v>5</v>
+      </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15">
@@ -2151,14 +2178,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="15">
-        <v>5</v>
-      </c>
-      <c r="D15" s="15"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="15">
+        <v>5</v>
+      </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15">
@@ -2166,15 +2195,18 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="2">
         <f>SUM(C12 + C13 + C14 + C15)</f>
+        <v>29</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(D12:D15)</f>
         <v>23</v>
       </c>
-      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -2201,7 +2233,7 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -2220,7 +2252,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="37"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="21" t="s">
         <v>25</v>
       </c>
@@ -2237,7 +2269,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="37"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="21" t="s">
         <v>26</v>
       </c>
@@ -2254,10 +2286,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="2">
         <f>SUM(C19 + C20 + C21)</f>
         <v>21</v>
@@ -2292,16 +2324,18 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="16">
-        <v>8</v>
-      </c>
-      <c r="D25" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="D25" s="16">
+        <v>8</v>
+      </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16">
@@ -2309,14 +2343,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="16">
-        <v>5</v>
-      </c>
-      <c r="D26" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="D26" s="16">
+        <v>5</v>
+      </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16">
@@ -2324,14 +2360,16 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="33"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="15">
-        <v>5</v>
-      </c>
-      <c r="D27" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="D27" s="15">
+        <v>5</v>
+      </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15">
@@ -2339,14 +2377,16 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="33"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="15">
-        <v>5</v>
-      </c>
-      <c r="D28" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="D28" s="15">
+        <v>5</v>
+      </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15">
@@ -2354,15 +2394,18 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="2">
         <f>SUM(C25 + C26 + C27 + C28)</f>
+        <v>14</v>
+      </c>
+      <c r="D29" s="2">
+        <f>SUM(D25:D28)</f>
         <v>23</v>
       </c>
-      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
@@ -2389,7 +2432,7 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -2408,7 +2451,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="33"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="19" t="s">
         <v>32</v>
       </c>
@@ -2425,7 +2468,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="33"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
@@ -2442,10 +2485,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="2">
         <f>SUM(C32 + C33 + C34)</f>
         <v>15</v>

--- a/Individual Estimate.xlsx
+++ b/Individual Estimate.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cnpm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C5E201-879C-4F7A-9E54-B9975805C6DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Bùi Nhật Hào" sheetId="4" r:id="rId1"/>
     <sheet name="Lê Chí Huy" sheetId="12" r:id="rId2"/>
     <sheet name="Nguyễn Hoàng Tấn" sheetId="13" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -142,7 +141,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -437,6 +436,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -452,16 +457,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -743,25 +742,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
       <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.8984375" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="10.796875" style="13"/>
-    <col min="7" max="7" width="10.19921875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="39.875" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="10.75" style="13"/>
+    <col min="7" max="7" width="10.25" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,8 +783,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -803,8 +802,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
+    <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
       <c r="B3" s="31" t="s">
         <v>14</v>
       </c>
@@ -820,8 +819,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
       <c r="B4" s="30" t="s">
         <v>15</v>
       </c>
@@ -837,8 +836,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
       <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
@@ -854,8 +853,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
       <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
@@ -871,8 +870,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
+    <row r="7" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
       <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
@@ -888,8 +887,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
       <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
@@ -905,11 +904,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="29">
         <f>SUM(C2 + C3 + C4 + C5 + C6 + C7 + C8)</f>
         <v>50</v>
@@ -925,7 +924,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="10"/>
@@ -934,7 +933,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -943,8 +942,8 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:7" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -960,8 +959,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
@@ -975,8 +974,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
       <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
@@ -990,8 +989,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37"/>
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
       <c r="B15" s="23" t="s">
         <v>23</v>
       </c>
@@ -1005,11 +1004,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="2">
         <f>SUM(C12 + C13 + C14 + C15)</f>
         <v>23</v>
@@ -1022,7 +1021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -1031,7 +1030,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -1040,8 +1039,8 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34" t="s">
+    <row r="19" spans="1:7" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -1059,8 +1058,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
       <c r="B20" s="21" t="s">
         <v>25</v>
       </c>
@@ -1076,8 +1075,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
       <c r="B21" s="21" t="s">
         <v>26</v>
       </c>
@@ -1093,11 +1092,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="2">
         <f>SUM(C19 + C20 + C21)</f>
         <v>21</v>
@@ -1113,7 +1112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -1122,7 +1121,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" s="11" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="11" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
@@ -1131,8 +1130,8 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="40" t="s">
+    <row r="25" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -1148,8 +1147,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
       <c r="B26" s="19" t="s">
         <v>28</v>
       </c>
@@ -1163,8 +1162,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="37"/>
+    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
@@ -1178,8 +1177,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="37"/>
+    <row r="28" spans="1:7" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
@@ -1193,11 +1192,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32" t="s">
+    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="2">
         <f>SUM(C25 + C26 + C27 + C28)</f>
         <v>23</v>
@@ -1210,7 +1209,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
@@ -1219,7 +1218,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" s="11" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" s="11" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="12"/>
       <c r="C31" s="10"/>
@@ -1228,8 +1227,8 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="40" t="s">
+    <row r="32" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -1247,8 +1246,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="37"/>
+    <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="33"/>
       <c r="B33" s="19" t="s">
         <v>32</v>
       </c>
@@ -1264,8 +1263,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="37"/>
+    <row r="34" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33"/>
       <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
@@ -1281,11 +1280,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
+    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="2">
         <f>SUM(C32 + C33 + C34)</f>
         <v>15</v>
@@ -1301,21 +1300,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G38" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:A8"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1323,25 +1322,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323F7CBA-CECE-4D6A-BEEA-6BA0DBDE14E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="J32" sqref="J32"/>
+      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.8984375" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.19921875" style="13"/>
-    <col min="7" max="7" width="10.19921875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="39.875" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.25" style="13"/>
+    <col min="7" max="7" width="10.25" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1364,8 +1363,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -1377,16 +1376,14 @@
       <c r="D2" s="27">
         <v>5</v>
       </c>
-      <c r="E2" s="27">
-        <v>5</v>
-      </c>
+      <c r="E2" s="27"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
+    <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
       <c r="B3" s="31" t="s">
         <v>14</v>
       </c>
@@ -1396,16 +1393,14 @@
       <c r="D3" s="27">
         <v>5</v>
       </c>
-      <c r="E3" s="27">
-        <v>5</v>
-      </c>
+      <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
       <c r="B4" s="30" t="s">
         <v>15</v>
       </c>
@@ -1413,18 +1408,16 @@
         <v>5</v>
       </c>
       <c r="D4" s="27">
-        <v>8</v>
-      </c>
-      <c r="E4" s="27">
         <v>11</v>
       </c>
+      <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
       <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
@@ -1432,37 +1425,33 @@
         <v>3</v>
       </c>
       <c r="D5" s="27">
-        <v>5</v>
-      </c>
-      <c r="E5" s="27">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
       <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" s="27">
-        <v>8</v>
-      </c>
-      <c r="E6" s="27">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
+    <row r="7" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
       <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
@@ -1470,59 +1459,52 @@
         <v>5</v>
       </c>
       <c r="D7" s="28">
-        <v>8</v>
-      </c>
-      <c r="E7" s="28">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
       <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="28">
-        <v>8</v>
-      </c>
-      <c r="E8" s="28">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="29">
         <f>SUM(C2 + C3 + C4 + C5 + C6 + C7 + C8)</f>
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D9" s="29">
         <f>SUM(D2 + D3 + D4 + D5 + D6 + D7 +D8)</f>
-        <v>47</v>
-      </c>
-      <c r="E9" s="29">
-        <f>SUM(E2:E8)</f>
         <v>44</v>
       </c>
+      <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29">
         <f>SUM(G2 + G3 + G4 + G5 + G6 + G7 + G8)</f>
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="10"/>
@@ -1531,7 +1513,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -1540,89 +1522,78 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:7" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="16">
-        <v>5</v>
-      </c>
-      <c r="D12" s="16">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="16">
-        <v>3</v>
-      </c>
-      <c r="D13" s="16">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
       <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="15">
-        <v>3</v>
-      </c>
-      <c r="D14" s="15">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37"/>
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
       <c r="B15" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="15">
-        <v>3</v>
-      </c>
-      <c r="D15" s="15">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="2">
         <f>SUM(C12 + C13 + C14 + C15)</f>
-        <v>14</v>
-      </c>
-      <c r="D16" s="2">
-        <f>SUM(D12:D15)</f>
         <v>23</v>
       </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -1630,7 +1601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -1639,7 +1610,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -1648,8 +1619,8 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34" t="s">
+    <row r="19" spans="1:7" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -1658,53 +1629,62 @@
       <c r="C19" s="16">
         <v>8</v>
       </c>
-      <c r="D19" s="16"/>
+      <c r="D19" s="16">
+        <v>8</v>
+      </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
       <c r="G19" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
       <c r="B20" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="16">
+        <v>5</v>
+      </c>
+      <c r="D20" s="16">
         <v>11</v>
       </c>
-      <c r="D20" s="16"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
       <c r="B21" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="16">
         <v>5</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="16">
+        <v>5</v>
+      </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
       <c r="G21" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="2">
         <f>SUM(C19 + C20 + C21)</f>
+        <v>18</v>
+      </c>
+      <c r="D22" s="29">
+        <f>SUM(D15 + D16 + D17 + D18 + D19 + D20 +D21)</f>
         <v>24</v>
       </c>
-      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1712,7 +1692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -1721,7 +1701,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" s="11" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="11" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
@@ -1730,89 +1710,78 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="40" t="s">
+    <row r="25" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="16">
-        <v>5</v>
-      </c>
-      <c r="D25" s="16">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
       <c r="B26" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="16">
         <v>5</v>
       </c>
-      <c r="D26" s="16">
-        <v>5</v>
-      </c>
+      <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="37"/>
+    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="15">
         <v>5</v>
       </c>
-      <c r="D27" s="15">
-        <v>5</v>
-      </c>
+      <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="37"/>
+    <row r="28" spans="1:7" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="15">
         <v>5</v>
       </c>
-      <c r="D28" s="15">
-        <v>5</v>
-      </c>
+      <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32" t="s">
+    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="2">
         <f>SUM(C25 + C26 + C27 + C28)</f>
-        <v>20</v>
-      </c>
-      <c r="D29" s="2">
-        <f>SUM(D25:D28)</f>
         <v>23</v>
       </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
@@ -1820,7 +1789,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
@@ -1829,7 +1798,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" s="11" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" s="11" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="12"/>
       <c r="C31" s="10"/>
@@ -1838,63 +1807,72 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="40" t="s">
+    <row r="32" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="16">
-        <v>8</v>
-      </c>
-      <c r="D32" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="D32" s="16">
+        <v>8</v>
+      </c>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="37"/>
+    <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="33"/>
       <c r="B33" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="16">
         <v>8</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="16">
+        <v>8</v>
+      </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="37"/>
+    <row r="34" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33"/>
       <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="15">
         <v>11</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="15">
+        <v>11</v>
+      </c>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
+    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="2">
         <f>SUM(C32 + C33 + C34)</f>
+        <v>30</v>
+      </c>
+      <c r="D35" s="29">
+        <f>SUM(D28 + D29 + D30 + D31 + D32 + D33 +D34)</f>
         <v>27</v>
       </c>
-      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2">
@@ -1902,7 +1880,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G38" s="14"/>
     </row>
   </sheetData>
@@ -1924,25 +1902,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7780B9B-31AB-44AD-A77B-AC9A0A53E4CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.8984375" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.19921875" style="13"/>
-    <col min="7" max="7" width="10.19921875" style="13" customWidth="1"/>
+    <col min="2" max="2" width="39.875" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.25" style="13"/>
+    <col min="7" max="7" width="10.25" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1965,8 +1943,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -1984,8 +1962,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
+    <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
       <c r="B3" s="31" t="s">
         <v>14</v>
       </c>
@@ -2001,8 +1979,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39"/>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
       <c r="B4" s="30" t="s">
         <v>15</v>
       </c>
@@ -2018,8 +1996,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="39"/>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40"/>
       <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
@@ -2035,8 +2013,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39"/>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40"/>
       <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
@@ -2052,8 +2030,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39"/>
+    <row r="7" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40"/>
       <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
@@ -2069,8 +2047,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="39"/>
+    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40"/>
       <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
@@ -2086,11 +2064,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="32" t="s">
+    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="29">
         <f>SUM(C2 + C3 + C4 + C5 + C6 + C7 + C8)</f>
         <v>31</v>
@@ -2106,7 +2084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="10"/>
@@ -2115,7 +2093,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -2124,89 +2102,78 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="36" t="s">
+    <row r="12" spans="1:7" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="16">
-        <v>5</v>
-      </c>
-      <c r="D12" s="16">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
+    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="16">
-        <v>8</v>
-      </c>
-      <c r="D13" s="16">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D13" s="16"/>
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
       <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="15">
-        <v>8</v>
-      </c>
-      <c r="D14" s="15">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37"/>
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
       <c r="B15" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="15">
-        <v>8</v>
-      </c>
-      <c r="D15" s="15">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="2">
         <f>SUM(C12 + C13 + C14 + C15)</f>
-        <v>29</v>
-      </c>
-      <c r="D16" s="2">
-        <f>SUM(D12:D15)</f>
         <v>23</v>
       </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -2214,7 +2181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="4"/>
@@ -2223,7 +2190,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -2232,15 +2199,15 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34" t="s">
+    <row r="19" spans="1:7" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D19" s="16">
         <v>8</v>
@@ -2251,13 +2218,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
+    <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
       <c r="B20" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D20" s="16">
         <v>11</v>
@@ -2268,8 +2235,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
+    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
       <c r="B21" s="21" t="s">
         <v>26</v>
       </c>
@@ -2285,14 +2252,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="32" t="s">
+    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="2">
         <f>SUM(C19 + C20 + C21)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <f>SUM(D19 + D20 + D21)</f>
@@ -2305,7 +2272,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -2314,7 +2281,7 @@
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:7" s="11" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="11" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="12"/>
       <c r="C24" s="10"/>
@@ -2323,89 +2290,78 @@
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
     </row>
-    <row r="25" spans="1:7" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="40" t="s">
+    <row r="25" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="16">
-        <v>5</v>
-      </c>
-      <c r="D25" s="16">
-        <v>8</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
       <c r="G25" s="16">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="37"/>
+    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33"/>
       <c r="B26" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="16">
-        <v>3</v>
-      </c>
-      <c r="D26" s="16">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="16">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="37"/>
+    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="15">
-        <v>3</v>
-      </c>
-      <c r="D27" s="15">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D27" s="15"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="37"/>
+    <row r="28" spans="1:7" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="15">
-        <v>3</v>
-      </c>
-      <c r="D28" s="15">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D28" s="15"/>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="32" t="s">
+    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="2">
         <f>SUM(C25 + C26 + C27 + C28)</f>
-        <v>14</v>
-      </c>
-      <c r="D29" s="2">
-        <f>SUM(D25:D28)</f>
         <v>23</v>
       </c>
+      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2">
@@ -2413,7 +2369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
@@ -2422,7 +2378,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
     </row>
-    <row r="31" spans="1:7" s="11" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" s="11" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="12"/>
       <c r="C31" s="10"/>
@@ -2431,15 +2387,15 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
     </row>
-    <row r="32" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="40" t="s">
+    <row r="32" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D32" s="16">
         <v>8</v>
@@ -2450,13 +2406,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="37"/>
+    <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="33"/>
       <c r="B33" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D33" s="16">
         <v>8</v>
@@ -2467,13 +2423,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="30.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="37"/>
+    <row r="34" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33"/>
       <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D34" s="15">
         <v>11</v>
@@ -2484,14 +2440,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
+    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="2">
         <f>SUM(C32 + C33 + C34)</f>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2">
         <f>SUM(D32 + D33 + D34)</f>
@@ -2504,7 +2460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G38" s="14"/>
     </row>
   </sheetData>

--- a/Individual Estimate.xlsx
+++ b/Individual Estimate.xlsx
@@ -436,31 +436,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -748,7 +748,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -784,14 +784,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="27">
         <v>5</v>
@@ -803,7 +803,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="31" t="s">
         <v>14</v>
       </c>
@@ -820,12 +820,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="27">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" s="27">
         <v>11</v>
@@ -837,12 +837,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="27">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" s="27">
         <v>8</v>
@@ -854,12 +854,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="27">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" s="27">
         <v>5</v>
@@ -871,7 +871,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
@@ -888,7 +888,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
@@ -905,10 +905,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="29">
         <f>SUM(C2 + C3 + C4 + C5 + C6 + C7 + C8)</f>
         <v>50</v>
@@ -943,7 +943,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -960,7 +960,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
@@ -975,7 +975,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
@@ -990,7 +990,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="23" t="s">
         <v>23</v>
       </c>
@@ -1005,10 +1005,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="2">
         <f>SUM(C12 + C13 + C14 + C15)</f>
         <v>23</v>
@@ -1040,7 +1040,7 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -1059,12 +1059,12 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D20" s="16">
         <v>11</v>
@@ -1076,7 +1076,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="21" t="s">
         <v>26</v>
       </c>
@@ -1093,13 +1093,13 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="2">
         <f>SUM(C19 + C20 + C21)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2">
         <f>SUM(D19 + D20 + D21)</f>
@@ -1131,7 +1131,7 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -1148,7 +1148,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="19" t="s">
         <v>28</v>
       </c>
@@ -1163,7 +1163,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
@@ -1178,7 +1178,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
@@ -1193,10 +1193,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="2">
         <f>SUM(C25 + C26 + C27 + C28)</f>
         <v>23</v>
@@ -1228,7 +1228,7 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -1247,12 +1247,12 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D33" s="16">
         <v>8</v>
@@ -1264,7 +1264,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
@@ -1281,13 +1281,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="2">
         <f>SUM(C32 + C33 + C34)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D35" s="2">
         <f>SUM(D32 + D33 + D34)</f>
@@ -1305,16 +1305,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A25:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1326,9 +1326,9 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1364,14 +1364,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="27">
         <v>5</v>
@@ -1383,12 +1383,12 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="27">
         <v>5</v>
@@ -1400,12 +1400,12 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="27">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" s="27">
         <v>11</v>
@@ -1417,7 +1417,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
@@ -1434,12 +1434,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="27">
         <v>5</v>
@@ -1451,7 +1451,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
@@ -1468,7 +1468,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
@@ -1485,13 +1485,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="29">
         <f>SUM(C2 + C3 + C4 + C5 + C6 + C7 + C8)</f>
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D9" s="29">
         <f>SUM(D2 + D3 + D4 + D5 + D6 + D7 +D8)</f>
@@ -1523,7 +1523,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -1540,7 +1540,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
@@ -1555,7 +1555,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="23" t="s">
         <v>23</v>
       </c>
@@ -1585,10 +1585,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="2">
         <f>SUM(C12 + C13 + C14 + C15)</f>
         <v>23</v>
@@ -1620,7 +1620,7 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -1639,7 +1639,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="21" t="s">
         <v>25</v>
       </c>
@@ -1656,7 +1656,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="21" t="s">
         <v>26</v>
       </c>
@@ -1673,10 +1673,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="2">
         <f>SUM(C19 + C20 + C21)</f>
         <v>18</v>
@@ -1711,7 +1711,7 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -1728,7 +1728,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="19" t="s">
         <v>28</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
@@ -1758,7 +1758,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
@@ -1773,10 +1773,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="2">
         <f>SUM(C25 + C26 + C27 + C28)</f>
         <v>23</v>
@@ -1808,14 +1808,14 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D32" s="16">
         <v>8</v>
@@ -1827,7 +1827,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="19" t="s">
         <v>32</v>
       </c>
@@ -1844,7 +1844,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
@@ -1861,13 +1861,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="2">
         <f>SUM(C32 + C33 + C34)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D35" s="29">
         <f>SUM(D28 + D29 + D30 + D31 + D32 + D33 +D34)</f>
@@ -1906,9 +1906,9 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1944,7 +1944,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -1963,7 +1963,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="31" t="s">
         <v>14</v>
       </c>
@@ -1980,7 +1980,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="30" t="s">
         <v>15</v>
       </c>
@@ -1997,12 +1997,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="27">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" s="27">
         <v>8</v>
@@ -2014,12 +2014,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="27">
         <v>5</v>
@@ -2031,7 +2031,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
@@ -2048,7 +2048,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
@@ -2065,13 +2065,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="29">
         <f>SUM(C2 + C3 + C4 + C5 + C6 + C7 + C8)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D9" s="29">
         <f>SUM(D2 + D3 + D4 + D5 + D6 + D7 +D8)</f>
@@ -2103,7 +2103,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -2120,7 +2120,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
@@ -2135,7 +2135,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
@@ -2150,7 +2150,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="23" t="s">
         <v>23</v>
       </c>
@@ -2165,10 +2165,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="2">
         <f>SUM(C12 + C13 + C14 + C15)</f>
         <v>23</v>
@@ -2200,7 +2200,7 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -2219,7 +2219,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="37"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="21" t="s">
         <v>25</v>
       </c>
@@ -2236,12 +2236,12 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21" s="16">
         <v>5</v>
@@ -2253,13 +2253,13 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="2">
         <f>SUM(C19 + C20 + C21)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <f>SUM(D19 + D20 + D21)</f>
@@ -2291,7 +2291,7 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -2308,7 +2308,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
+      <c r="A26" s="37"/>
       <c r="B26" s="19" t="s">
         <v>28</v>
       </c>
@@ -2323,7 +2323,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
+      <c r="A27" s="37"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
@@ -2338,7 +2338,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
@@ -2353,10 +2353,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="2">
         <f>SUM(C25 + C26 + C27 + C28)</f>
         <v>23</v>
@@ -2388,7 +2388,7 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32" t="s">
+      <c r="A32" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -2407,12 +2407,12 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
+      <c r="A33" s="37"/>
       <c r="B33" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D33" s="16">
         <v>8</v>
@@ -2424,12 +2424,12 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D34" s="15">
         <v>11</v>
@@ -2441,10 +2441,10 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="2">
         <f>SUM(C32 + C33 + C34)</f>
         <v>24</v>

--- a/Individual Estimate.xlsx
+++ b/Individual Estimate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bùi Nhật Hào" sheetId="4" r:id="rId1"/>
@@ -436,6 +436,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -451,16 +457,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -745,10 +745,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -784,7 +784,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -793,9 +793,7 @@
       <c r="C2" s="27">
         <v>5</v>
       </c>
-      <c r="D2" s="27">
-        <v>5</v>
-      </c>
+      <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27">
@@ -803,16 +801,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="27">
         <v>8</v>
       </c>
-      <c r="D3" s="27">
-        <v>5</v>
-      </c>
+      <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27">
@@ -820,16 +816,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="27">
         <v>11</v>
       </c>
-      <c r="D4" s="27">
-        <v>11</v>
-      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27">
@@ -837,16 +831,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="27">
         <v>8</v>
       </c>
-      <c r="D5" s="27">
-        <v>8</v>
-      </c>
+      <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27">
@@ -854,16 +846,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="27">
         <v>5</v>
       </c>
-      <c r="D6" s="27">
-        <v>5</v>
-      </c>
+      <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27">
@@ -871,16 +861,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="28">
         <v>8</v>
       </c>
-      <c r="D7" s="28">
-        <v>5</v>
-      </c>
+      <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28">
@@ -888,16 +876,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="28">
         <v>5</v>
       </c>
-      <c r="D8" s="28">
-        <v>5</v>
-      </c>
+      <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28">
@@ -905,18 +891,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="29">
         <f>SUM(C2 + C3 + C4 + C5 + C6 + C7 + C8)</f>
         <v>50</v>
       </c>
-      <c r="D9" s="29">
-        <f>SUM(D2 + D3 + D4 + D5 + D6 + D7 +D8)</f>
-        <v>44</v>
-      </c>
+      <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29">
@@ -943,7 +926,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -960,7 +943,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
@@ -975,7 +958,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
@@ -990,7 +973,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="23" t="s">
         <v>23</v>
       </c>
@@ -1005,10 +988,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="2">
         <f>SUM(C12 + C13 + C14 + C15)</f>
         <v>23</v>
@@ -1040,17 +1023,17 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19" s="16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
@@ -1059,7 +1042,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="21" t="s">
         <v>25</v>
       </c>
@@ -1076,7 +1059,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="21" t="s">
         <v>26</v>
       </c>
@@ -1093,17 +1076,17 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="2">
         <f>SUM(C19 + C20 + C21)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2">
         <f>SUM(D19 + D20 + D21)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1131,7 +1114,7 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -1148,7 +1131,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="19" t="s">
         <v>28</v>
       </c>
@@ -1163,7 +1146,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
@@ -1178,7 +1161,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
@@ -1193,10 +1176,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="2">
         <f>SUM(C25 + C26 + C27 + C28)</f>
         <v>23</v>
@@ -1228,7 +1211,7 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -1237,9 +1220,7 @@
       <c r="C32" s="16">
         <v>5</v>
       </c>
-      <c r="D32" s="16">
-        <v>8</v>
-      </c>
+      <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16">
@@ -1247,16 +1228,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="16">
         <v>8</v>
       </c>
-      <c r="D33" s="16">
-        <v>8</v>
-      </c>
+      <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16">
@@ -1264,16 +1243,14 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="15">
         <v>5</v>
       </c>
-      <c r="D34" s="15">
-        <v>11</v>
-      </c>
+      <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15">
@@ -1281,18 +1258,15 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="2">
         <f>SUM(C32 + C33 + C34)</f>
         <v>18</v>
       </c>
-      <c r="D35" s="2">
-        <f>SUM(D32 + D33 + D34)</f>
-        <v>27</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2">
@@ -1305,16 +1279,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:A8"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A2:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1326,9 +1300,9 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="D22" activeCellId="1" sqref="C22 D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1364,7 +1338,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -1373,9 +1347,7 @@
       <c r="C2" s="27">
         <v>5</v>
       </c>
-      <c r="D2" s="27">
-        <v>5</v>
-      </c>
+      <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27">
@@ -1383,16 +1355,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="27">
         <v>5</v>
       </c>
-      <c r="D3" s="27">
-        <v>5</v>
-      </c>
+      <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27">
@@ -1400,16 +1370,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="27">
         <v>11</v>
       </c>
-      <c r="D4" s="27">
-        <v>11</v>
-      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27">
@@ -1417,16 +1385,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="27">
         <v>3</v>
       </c>
-      <c r="D5" s="27">
-        <v>8</v>
-      </c>
+      <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27">
@@ -1434,16 +1400,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="27">
         <v>5</v>
       </c>
-      <c r="D6" s="27">
-        <v>5</v>
-      </c>
+      <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27">
@@ -1451,16 +1415,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="28">
         <v>5</v>
       </c>
-      <c r="D7" s="28">
-        <v>5</v>
-      </c>
+      <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28">
@@ -1468,16 +1430,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="28">
         <v>3</v>
       </c>
-      <c r="D8" s="28">
-        <v>5</v>
-      </c>
+      <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28">
@@ -1485,18 +1445,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="29">
         <f>SUM(C2 + C3 + C4 + C5 + C6 + C7 + C8)</f>
         <v>37</v>
       </c>
-      <c r="D9" s="29">
-        <f>SUM(D2 + D3 + D4 + D5 + D6 + D7 +D8)</f>
-        <v>44</v>
-      </c>
+      <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29">
@@ -1523,7 +1480,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -1540,7 +1497,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
@@ -1555,7 +1512,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
@@ -1570,7 +1527,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="23" t="s">
         <v>23</v>
       </c>
@@ -1585,10 +1542,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="2">
         <f>SUM(C12 + C13 + C14 + C15)</f>
         <v>23</v>
@@ -1620,7 +1577,7 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -1639,7 +1596,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="21" t="s">
         <v>25</v>
       </c>
@@ -1647,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="16">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
@@ -1656,12 +1613,12 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D21" s="16">
         <v>5</v>
@@ -1673,17 +1630,17 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="2">
         <f>SUM(C19 + C20 + C21)</f>
+        <v>21</v>
+      </c>
+      <c r="D22" s="2">
+        <f>SUM(D19 + D20 + D21)</f>
         <v>18</v>
-      </c>
-      <c r="D22" s="29">
-        <f>SUM(D15 + D16 + D17 + D18 + D19 + D20 +D21)</f>
-        <v>24</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1711,14 +1668,14 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
@@ -1728,7 +1685,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="19" t="s">
         <v>28</v>
       </c>
@@ -1743,7 +1700,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
@@ -1758,7 +1715,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
@@ -1773,13 +1730,13 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="2">
         <f>SUM(C25 + C26 + C27 + C28)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1808,7 +1765,7 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -1817,9 +1774,7 @@
       <c r="C32" s="16">
         <v>8</v>
       </c>
-      <c r="D32" s="16">
-        <v>8</v>
-      </c>
+      <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16">
@@ -1827,16 +1782,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="16">
         <v>8</v>
       </c>
-      <c r="D33" s="16">
-        <v>8</v>
-      </c>
+      <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16">
@@ -1844,16 +1797,14 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="15">
         <v>11</v>
       </c>
-      <c r="D34" s="15">
-        <v>11</v>
-      </c>
+      <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15">
@@ -1861,18 +1812,15 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="2">
         <f>SUM(C32 + C33 + C34)</f>
         <v>27</v>
       </c>
-      <c r="D35" s="29">
-        <f>SUM(D28 + D29 + D30 + D31 + D32 + D33 +D34)</f>
-        <v>27</v>
-      </c>
+      <c r="D35" s="29"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2">
@@ -1905,10 +1853,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1944,7 +1892,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="30" t="s">
@@ -1953,9 +1901,7 @@
       <c r="C2" s="27">
         <v>3</v>
       </c>
-      <c r="D2" s="27">
-        <v>5</v>
-      </c>
+      <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27">
@@ -1963,16 +1909,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="27">
         <v>5</v>
       </c>
-      <c r="D3" s="27">
-        <v>5</v>
-      </c>
+      <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27">
@@ -1980,16 +1924,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="30" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="27">
         <v>5</v>
       </c>
-      <c r="D4" s="27">
-        <v>11</v>
-      </c>
+      <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="27">
@@ -1997,16 +1939,14 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="30" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="27">
         <v>8</v>
       </c>
-      <c r="D5" s="27">
-        <v>8</v>
-      </c>
+      <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="27">
@@ -2014,16 +1954,14 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="27">
         <v>3</v>
       </c>
-      <c r="D6" s="27">
-        <v>5</v>
-      </c>
+      <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="27">
@@ -2031,16 +1969,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="28">
         <v>5</v>
       </c>
-      <c r="D7" s="28">
-        <v>5</v>
-      </c>
+      <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28">
@@ -2048,16 +1984,14 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="28">
         <v>5</v>
       </c>
-      <c r="D8" s="28">
-        <v>5</v>
-      </c>
+      <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28">
@@ -2065,18 +1999,15 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="29">
         <f>SUM(C2 + C3 + C4 + C5 + C6 + C7 + C8)</f>
         <v>34</v>
       </c>
-      <c r="D9" s="29">
-        <f>SUM(D2 + D3 + D4 + D5 + D6 + D7 +D8)</f>
-        <v>44</v>
-      </c>
+      <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29">
@@ -2103,7 +2034,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="38" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -2120,7 +2051,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
@@ -2135,7 +2066,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="23" t="s">
         <v>22</v>
       </c>
@@ -2150,7 +2081,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="23" t="s">
         <v>23</v>
       </c>
@@ -2165,10 +2096,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="2">
         <f>SUM(C12 + C13 + C14 + C15)</f>
         <v>23</v>
@@ -2200,7 +2131,7 @@
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -2219,12 +2150,12 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="16">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D20" s="16">
         <v>11</v>
@@ -2236,15 +2167,15 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D21" s="16">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -2253,17 +2184,17 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="35"/>
       <c r="C22" s="2">
         <f>SUM(C19 + C20 + C21)</f>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D22" s="2">
         <f>SUM(D19 + D20 + D21)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2291,7 +2222,7 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="21" t="s">
@@ -2308,7 +2239,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="19" t="s">
         <v>28</v>
       </c>
@@ -2323,7 +2254,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="18" t="s">
         <v>29</v>
       </c>
@@ -2338,7 +2269,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="18" t="s">
         <v>30</v>
       </c>
@@ -2353,10 +2284,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="35"/>
       <c r="C29" s="2">
         <f>SUM(C25 + C26 + C27 + C28)</f>
         <v>23</v>
@@ -2388,7 +2319,7 @@
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="32" t="s">
         <v>12</v>
       </c>
       <c r="B32" s="19" t="s">
@@ -2397,9 +2328,7 @@
       <c r="C32" s="16">
         <v>8</v>
       </c>
-      <c r="D32" s="16">
-        <v>8</v>
-      </c>
+      <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16">
@@ -2407,16 +2336,14 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
+      <c r="A33" s="33"/>
       <c r="B33" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="16">
         <v>5</v>
       </c>
-      <c r="D33" s="16">
-        <v>8</v>
-      </c>
+      <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16">
@@ -2424,16 +2351,14 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="18" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="15">
         <v>11</v>
       </c>
-      <c r="D34" s="15">
-        <v>11</v>
-      </c>
+      <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15">
@@ -2441,18 +2366,15 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="33"/>
+      <c r="B35" s="35"/>
       <c r="C35" s="2">
         <f>SUM(C32 + C33 + C34)</f>
         <v>24</v>
       </c>
-      <c r="D35" s="2">
-        <f>SUM(D32 + D33 + D34)</f>
-        <v>27</v>
-      </c>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2">

--- a/Individual Estimate.xlsx
+++ b/Individual Estimate.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cnpm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc tap hk1 2022 - 2023\Quản lý dự án phần mềm\đồ án\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3123521-FE6F-4181-8EE0-00A290BCD3CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nguyễn Hoàng Tấn" sheetId="13" r:id="rId1"/>
+    <sheet name="Bùi Nhật Hào" sheetId="14" r:id="rId2"/>
+    <sheet name="Lê Chí Huy" sheetId="15" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="30">
   <si>
     <t>Level 1</t>
   </si>
@@ -56,16 +54,82 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Chức năng xác thực tài khoản</t>
+  </si>
+  <si>
+    <t>Sinh viên và giảng viên đăng nhập thông qua tài khoản Outlook</t>
+  </si>
+  <si>
+    <t>Sinh viên và giảng viên đăng xuất tài khoản</t>
+  </si>
+  <si>
+    <t>Sinh viên và giảng viên xem hồ sơ cá nhân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng hỏi đáp </t>
+  </si>
+  <si>
+    <t>Sinh viên đặt câu hỏi</t>
+  </si>
+  <si>
+    <t>Sinh viên xem danh sách câu hỏi của mình</t>
+  </si>
+  <si>
+    <t>Sinh viên chỉnh sửa câu hỏi của mình</t>
+  </si>
+  <si>
+    <t>Sinh viên xóa câu hỏi của mình</t>
+  </si>
+  <si>
+    <t>Giảng viên trả lời câu hỏi trên hệ thống</t>
+  </si>
+  <si>
+    <t>Giảng viên xem danh sách câu trả lời của mình</t>
+  </si>
+  <si>
+    <t>Giảng viên chỉnh sửa câu trả lời của mình</t>
+  </si>
+  <si>
+    <t>Giảng viên xóa câu trả lời của mình</t>
+  </si>
+  <si>
+    <t>Sinh viên và giảng viên xem danh sách câu hỏi trên hệ thống</t>
+  </si>
+  <si>
+    <t>Giảng viên phê duyệt câu hỏi của sinh viên trên hệ thống</t>
+  </si>
+  <si>
+    <t>Chức năng bài viết</t>
+  </si>
+  <si>
+    <t>Giảng viên đăng bài viết</t>
+  </si>
+  <si>
+    <t>Giảng viên xem danh sách bài viết của mình</t>
+  </si>
+  <si>
+    <t>Giảng viên chỉnh sửa bài viết của mình</t>
+  </si>
+  <si>
+    <t>Giảng viên xóa bài viết của mình</t>
+  </si>
+  <si>
+    <t>Sinh viên xem danh sách bài viết trên hệ thống</t>
+  </si>
+  <si>
+    <t>Sinh viên bookmark bài viết trên hệ thống</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,13 +140,8 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -235,17 +294,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -259,102 +307,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -362,25 +408,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -662,378 +699,1085 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.875" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.25" style="13"/>
-    <col min="7" max="7" width="10.25" style="13" customWidth="1"/>
+    <col min="1" max="1" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.19921875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.19921875" style="25"/>
+    <col min="7" max="7" width="10.19921875" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="11.19921875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>7</v>
+      </c>
       <c r="B5" s="30"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
+      <c r="B9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
+      <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
+      <c r="B13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
+      <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28"/>
+      <c r="B16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34"/>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="33"/>
+      <c r="B23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="33"/>
+      <c r="B24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="33"/>
+      <c r="B25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33"/>
+      <c r="B26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A8:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639F5B4F-2B61-4652-8900-BB2FAE05B532}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D79" sqref="D79"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="A30:G42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.19921875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.19921875" style="25"/>
+    <col min="7" max="7" width="10.19921875" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="11.19921875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" s="11" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
+      <c r="B9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
+      <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
+      <c r="B13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
+      <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28"/>
+      <c r="B16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34"/>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7" s="11" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="33"/>
+      <c r="B23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="33"/>
+      <c r="B24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="33"/>
+      <c r="B25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33"/>
+      <c r="B26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G38" s="14"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G30" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:B22"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9EE884-3D6B-4A02-BFFB-7FBFB041DB2C}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D79" sqref="D79"/>
+      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.19921875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.19921875" style="25"/>
+    <col min="7" max="7" width="10.19921875" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="11.19921875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="28"/>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="28"/>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="28"/>
+      <c r="B9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="28"/>
+      <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+    </row>
+    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="28"/>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+    </row>
+    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="28"/>
+      <c r="B13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28"/>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28"/>
+      <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="28"/>
+      <c r="B16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="34"/>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33"/>
+      <c r="B22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="33"/>
+      <c r="B23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="33"/>
+      <c r="B24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="33"/>
+      <c r="B25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="33"/>
+      <c r="B26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="30"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G31" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Individual Estimate.xlsx
+++ b/Individual Estimate.xlsx
@@ -5,22 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hoc tap hk1 2022 - 2023\Quản lý dự án phần mềm\đồ án\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3123521-FE6F-4181-8EE0-00A290BCD3CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0389718-19FD-470A-A10C-249421E3B761}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nguyễn Hoàng Tấn" sheetId="13" r:id="rId1"/>
-    <sheet name="Bùi Nhật Hào" sheetId="14" r:id="rId2"/>
-    <sheet name="Lê Chí Huy" sheetId="15" r:id="rId3"/>
+    <sheet name="Lê Chí Huy" sheetId="17" r:id="rId1"/>
+    <sheet name="Bùi Nhật Hào" sheetId="18" r:id="rId2"/>
+    <sheet name="Nguyễn Hoàng Tấn" sheetId="13" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -399,6 +404,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -406,9 +414,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -699,13 +704,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0BB35C-04B0-4931-B76D-073670F34619}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="I45" sqref="I45"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -742,50 +747,68 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="17">
+        <v>3</v>
+      </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="G2" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="17">
+        <v>5</v>
+      </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="G3" s="17">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="17">
+        <v>3</v>
+      </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="G4" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="18">
+        <f>SUM(C2:C4)</f>
+        <v>11</v>
+      </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="18">
+        <f>SUM(G2:G4)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -806,127 +829,196 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="21">
+        <v>5</v>
+      </c>
+      <c r="D8" s="21">
+        <v>8</v>
+      </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="21">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21">
+        <v>3</v>
+      </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="22">
+        <v>5</v>
+      </c>
+      <c r="D10" s="22">
+        <v>8</v>
+      </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="22">
+        <v>5</v>
+      </c>
+      <c r="D11" s="22">
+        <v>3</v>
+      </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="22">
+        <v>5</v>
+      </c>
+      <c r="D12" s="22">
+        <v>8</v>
+      </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="22">
+        <v>3</v>
+      </c>
+      <c r="D13" s="22">
+        <v>3</v>
+      </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="22">
+        <v>5</v>
+      </c>
+      <c r="D14" s="22">
+        <v>5</v>
+      </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="G14" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="22">
+        <v>5</v>
+      </c>
+      <c r="D15" s="22">
+        <v>3</v>
+      </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="G15" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="22">
+        <v>3</v>
+      </c>
+      <c r="D16" s="22">
+        <v>5</v>
+      </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="G16" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="34"/>
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="22">
+        <v>5</v>
+      </c>
+      <c r="D17" s="22">
+        <v>5</v>
+      </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="G17" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="23">
+        <f>SUM(C8:C17)</f>
+        <v>44</v>
+      </c>
+      <c r="D18" s="23">
+        <f>SUM(D8:D17)</f>
+        <v>51</v>
+      </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="23">
+        <f>SUM(G8:G17)</f>
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
@@ -953,77 +1045,107 @@
       <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="21">
+        <v>5</v>
+      </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="G21" s="21">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
       <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="21">
+        <v>3</v>
+      </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="G22" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33"/>
       <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="21">
+        <v>5</v>
+      </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="G23" s="21">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="33"/>
       <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="21">
+        <v>5</v>
+      </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="G24" s="21">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="33"/>
       <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="21">
+        <v>8</v>
+      </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="G25" s="21">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33"/>
       <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="21">
+        <v>8</v>
+      </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="G26" s="21">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="23">
+        <f>SUM(C21:C26)</f>
+        <v>34</v>
+      </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="G27" s="23">
+        <f>SUM(G21:G26)</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
@@ -1050,10 +1172,10 @@
   <mergeCells count="6">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:A17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A8:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1061,13 +1183,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639F5B4F-2B61-4652-8900-BB2FAE05B532}">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1343561E-0D65-4460-B779-4E98A424EC5D}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="A30:G42"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1104,50 +1226,68 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="17">
+        <v>3</v>
+      </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="G2" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="17">
+        <v>5</v>
+      </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="G3" s="17">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="17">
+        <v>3</v>
+      </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="G4" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="18">
+        <f>SUM(C2:C4)</f>
+        <v>11</v>
+      </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="18">
+        <f>SUM(G2:G4)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1168,127 +1308,196 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="21">
+        <v>5</v>
+      </c>
+      <c r="D8" s="21">
+        <v>5</v>
+      </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="21">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21">
+        <v>3</v>
+      </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="22">
+        <v>5</v>
+      </c>
+      <c r="D10" s="22">
+        <v>5</v>
+      </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="22">
+        <v>5</v>
+      </c>
+      <c r="D11" s="22">
+        <v>3</v>
+      </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="22">
+        <v>5</v>
+      </c>
+      <c r="D12" s="22">
+        <v>5</v>
+      </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="22">
+        <v>3</v>
+      </c>
+      <c r="D13" s="22">
+        <v>5</v>
+      </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="22">
+        <v>5</v>
+      </c>
+      <c r="D14" s="22">
+        <v>5</v>
+      </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="G14" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="22">
+        <v>5</v>
+      </c>
+      <c r="D15" s="22">
+        <v>3</v>
+      </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="G15" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="22">
+        <v>3</v>
+      </c>
+      <c r="D16" s="22">
+        <v>3</v>
+      </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="G16" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="34"/>
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="22">
+        <v>5</v>
+      </c>
+      <c r="D17" s="22">
+        <v>3</v>
+      </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="G17" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="23">
+        <f>SUM(C8:C17)</f>
+        <v>44</v>
+      </c>
+      <c r="D18" s="23">
+        <f>SUM(D8:D17)</f>
+        <v>40</v>
+      </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="23">
+        <f>SUM(G8:G17)</f>
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
@@ -1315,77 +1524,107 @@
       <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="21">
+        <v>5</v>
+      </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="G21" s="21">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
       <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="21">
+        <v>3</v>
+      </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="G22" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33"/>
       <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="21">
+        <v>5</v>
+      </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="G23" s="21">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="33"/>
       <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="21">
+        <v>5</v>
+      </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="G24" s="21">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="33"/>
       <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="21">
+        <v>8</v>
+      </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="G25" s="21">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33"/>
       <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="21">
+        <v>8</v>
+      </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="G26" s="21">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="23">
+        <f>SUM(C21:C26)</f>
+        <v>34</v>
+      </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="G27" s="23">
+        <f>SUM(G21:G26)</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
@@ -1405,8 +1644,8 @@
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G30" s="26"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1423,13 +1662,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D9EE884-3D6B-4A02-BFFB-7FBFB041DB2C}">
-  <dimension ref="A1:G31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1466,50 +1705,68 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="17">
+        <v>3</v>
+      </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
+      <c r="G2" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="17">
+        <v>5</v>
+      </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
+      <c r="G3" s="17">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="17">
+        <v>3</v>
+      </c>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="G4" s="17">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="18">
+        <f>SUM(C2:C4)</f>
+        <v>11</v>
+      </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="18">
+        <f>SUM(G2:G4)</f>
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -1530,127 +1787,196 @@
       <c r="G7" s="20"/>
     </row>
     <row r="8" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="21">
+        <v>5</v>
+      </c>
+      <c r="D8" s="21">
+        <v>8</v>
+      </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="21">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="21">
+        <v>5</v>
+      </c>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
+      <c r="G9" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="22">
+        <v>5</v>
+      </c>
+      <c r="D10" s="22">
+        <v>5</v>
+      </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+      <c r="C11" s="22">
+        <v>5</v>
+      </c>
+      <c r="D11" s="22">
+        <v>5</v>
+      </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="22">
+        <v>5</v>
+      </c>
+      <c r="D12" s="22">
+        <v>5</v>
+      </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
+      <c r="G12" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="22">
+        <v>3</v>
+      </c>
+      <c r="D13" s="22">
+        <v>3</v>
+      </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
+      <c r="G13" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="22">
+        <v>5</v>
+      </c>
+      <c r="D14" s="22">
+        <v>8</v>
+      </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
+      <c r="G14" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="22">
+        <v>5</v>
+      </c>
+      <c r="D15" s="22">
+        <v>5</v>
+      </c>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="G15" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="22">
+        <v>3</v>
+      </c>
+      <c r="D16" s="22">
+        <v>5</v>
+      </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="G16" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="34"/>
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="22">
+        <v>5</v>
+      </c>
+      <c r="D17" s="22">
+        <v>5</v>
+      </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
+      <c r="G17" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="23">
+        <f>SUM(C8:C17)</f>
+        <v>44</v>
+      </c>
+      <c r="D18" s="23">
+        <f>SUM(D8:D17)</f>
+        <v>54</v>
+      </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="23">
+        <f>SUM(G8:G17)</f>
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
@@ -1677,77 +2003,107 @@
       <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="21"/>
+      <c r="C21" s="21">
+        <v>5</v>
+      </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="G21" s="21">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
       <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="21"/>
+      <c r="C22" s="21">
+        <v>3</v>
+      </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
+      <c r="G22" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="33"/>
       <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="21"/>
+      <c r="C23" s="21">
+        <v>5</v>
+      </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
+      <c r="G23" s="21">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="33"/>
       <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="21"/>
+      <c r="C24" s="21">
+        <v>5</v>
+      </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
+      <c r="G24" s="21">
+        <v>5</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="33"/>
       <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="21"/>
+      <c r="C25" s="21">
+        <v>8</v>
+      </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
+      <c r="G25" s="21">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33"/>
       <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="21"/>
+      <c r="C26" s="21">
+        <v>8</v>
+      </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
+      <c r="G26" s="21">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="23">
+        <f>SUM(C21:C26)</f>
+        <v>34</v>
+      </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
+      <c r="G27" s="23">
+        <f>SUM(G21:G26)</f>
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
@@ -1767,17 +2123,17 @@
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G31" s="26"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A8:A17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A8:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Individual Estimate.xlsx
+++ b/Individual Estimate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0389718-19FD-470A-A10C-249421E3B761}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B080A4-ECE2-4D40-A7D1-CF92AEB08794}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -327,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -400,9 +400,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -416,14 +413,47 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,18 +738,19 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.19921875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.19921875" style="25"/>
-    <col min="7" max="7" width="10.19921875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="43"/>
+    <col min="5" max="6" width="11.19921875" style="25"/>
+    <col min="7" max="7" width="10.19921875" style="43" customWidth="1"/>
     <col min="8" max="16384" width="11.19921875" style="6"/>
   </cols>
   <sheetData>
@@ -747,65 +778,65 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17">
-        <v>3</v>
-      </c>
-      <c r="D2" s="17"/>
+      <c r="C2" s="35">
+        <v>3</v>
+      </c>
+      <c r="D2" s="35"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="17">
+      <c r="G2" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17">
-        <v>5</v>
-      </c>
-      <c r="D3" s="17"/>
+      <c r="C3" s="35">
+        <v>5</v>
+      </c>
+      <c r="D3" s="35"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="17">
+      <c r="G3" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17">
-        <v>3</v>
-      </c>
-      <c r="D4" s="17"/>
+      <c r="C4" s="35">
+        <v>3</v>
+      </c>
+      <c r="D4" s="35"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="17">
+      <c r="G4" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="18">
+      <c r="B5" s="30"/>
+      <c r="C5" s="36">
         <f>SUM(C2:C4)</f>
         <v>11</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="18">
+      <c r="G5" s="36">
         <f>SUM(G2:G4)</f>
         <v>11</v>
       </c>
@@ -813,209 +844,195 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="21">
-        <v>5</v>
-      </c>
-      <c r="D8" s="21">
+      <c r="C8" s="39">
+        <v>5</v>
+      </c>
+      <c r="D8" s="39">
         <v>8</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="21">
+      <c r="G8" s="39">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21">
-        <v>3</v>
-      </c>
-      <c r="D9" s="21">
-        <v>3</v>
-      </c>
+      <c r="C9" s="39">
+        <v>3</v>
+      </c>
+      <c r="D9" s="39"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="21">
+      <c r="G9" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="22">
-        <v>5</v>
-      </c>
-      <c r="D10" s="22">
-        <v>8</v>
-      </c>
+      <c r="C10" s="40">
+        <v>5</v>
+      </c>
+      <c r="D10" s="40"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="22">
+      <c r="G10" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="22">
-        <v>5</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="C11" s="40">
+        <v>5</v>
+      </c>
+      <c r="D11" s="40">
         <v>3</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="22">
+      <c r="G11" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="22">
-        <v>5</v>
-      </c>
-      <c r="D12" s="22">
+      <c r="C12" s="40">
+        <v>5</v>
+      </c>
+      <c r="D12" s="40">
         <v>8</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="22">
+      <c r="G12" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="22">
-        <v>3</v>
-      </c>
-      <c r="D13" s="22">
-        <v>3</v>
-      </c>
+      <c r="C13" s="40">
+        <v>3</v>
+      </c>
+      <c r="D13" s="40"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="22">
+      <c r="G13" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="22">
-        <v>5</v>
-      </c>
-      <c r="D14" s="22">
-        <v>5</v>
-      </c>
+      <c r="C14" s="40">
+        <v>5</v>
+      </c>
+      <c r="D14" s="40"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="22">
+      <c r="G14" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="22">
-        <v>5</v>
-      </c>
-      <c r="D15" s="22">
-        <v>3</v>
-      </c>
+      <c r="C15" s="40">
+        <v>5</v>
+      </c>
+      <c r="D15" s="40"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="22">
+      <c r="G15" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="22">
-        <v>3</v>
-      </c>
-      <c r="D16" s="22">
-        <v>5</v>
-      </c>
+      <c r="C16" s="40">
+        <v>3</v>
+      </c>
+      <c r="D16" s="40"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="22">
+      <c r="G16" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="22">
-        <v>5</v>
-      </c>
-      <c r="D17" s="22">
-        <v>5</v>
-      </c>
+      <c r="C17" s="40">
+        <v>5</v>
+      </c>
+      <c r="D17" s="40"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="22">
+      <c r="G17" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="23">
+      <c r="B18" s="30"/>
+      <c r="C18" s="41">
         <f>SUM(C8:C17)</f>
         <v>44</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="41">
         <f>SUM(D8:D17)</f>
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="23">
+      <c r="G18" s="41">
         <f>SUM(G8:G17)</f>
         <v>45</v>
       </c>
@@ -1023,20 +1040,20 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
@@ -1045,13 +1062,13 @@
       <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="21">
-        <v>5</v>
-      </c>
-      <c r="D21" s="21"/>
+      <c r="C21" s="39">
+        <v>5</v>
+      </c>
+      <c r="D21" s="39"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="21">
+      <c r="G21" s="39">
         <v>5</v>
       </c>
     </row>
@@ -1060,13 +1077,13 @@
       <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="21">
-        <v>3</v>
-      </c>
-      <c r="D22" s="21"/>
+      <c r="C22" s="39">
+        <v>3</v>
+      </c>
+      <c r="D22" s="39"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="21">
+      <c r="G22" s="39">
         <v>3</v>
       </c>
     </row>
@@ -1075,13 +1092,13 @@
       <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="21">
-        <v>5</v>
-      </c>
-      <c r="D23" s="21"/>
+      <c r="C23" s="39">
+        <v>5</v>
+      </c>
+      <c r="D23" s="39"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="21">
+      <c r="G23" s="39">
         <v>5</v>
       </c>
     </row>
@@ -1090,13 +1107,13 @@
       <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="21">
-        <v>5</v>
-      </c>
-      <c r="D24" s="21"/>
+      <c r="C24" s="39">
+        <v>5</v>
+      </c>
+      <c r="D24" s="39"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="21">
+      <c r="G24" s="39">
         <v>5</v>
       </c>
     </row>
@@ -1105,13 +1122,13 @@
       <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="21">
-        <v>8</v>
-      </c>
-      <c r="D25" s="21"/>
+      <c r="C25" s="39">
+        <v>8</v>
+      </c>
+      <c r="D25" s="39"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="21">
+      <c r="G25" s="39">
         <v>8</v>
       </c>
     </row>
@@ -1120,62 +1137,62 @@
       <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="21">
-        <v>8</v>
-      </c>
-      <c r="D26" s="21"/>
+      <c r="C26" s="39">
+        <v>8</v>
+      </c>
+      <c r="D26" s="39"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="21">
+      <c r="G26" s="39">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="23">
+      <c r="B27" s="30"/>
+      <c r="C27" s="41">
         <f>SUM(C21:C26)</f>
         <v>34</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="23">
+      <c r="G27" s="41">
         <f>SUM(G21:G26)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="37"/>
+    </row>
+    <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G32" s="26"/>
+      <c r="G32" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1189,16 +1206,17 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.19921875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.19921875" style="25"/>
-    <col min="7" max="7" width="10.19921875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="43"/>
+    <col min="5" max="6" width="11.19921875" style="25"/>
+    <col min="7" max="7" width="10.19921875" style="43" customWidth="1"/>
     <col min="8" max="16384" width="11.19921875" style="6"/>
   </cols>
   <sheetData>
@@ -1226,65 +1244,65 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17">
-        <v>3</v>
-      </c>
-      <c r="D2" s="17"/>
+      <c r="C2" s="35">
+        <v>3</v>
+      </c>
+      <c r="D2" s="35"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="17">
+      <c r="G2" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17">
-        <v>5</v>
-      </c>
-      <c r="D3" s="17"/>
+      <c r="C3" s="35">
+        <v>5</v>
+      </c>
+      <c r="D3" s="35"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="17">
+      <c r="G3" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17">
-        <v>3</v>
-      </c>
-      <c r="D4" s="17"/>
+      <c r="C4" s="35">
+        <v>3</v>
+      </c>
+      <c r="D4" s="35"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="17">
+      <c r="G4" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="18">
+      <c r="B5" s="30"/>
+      <c r="C5" s="36">
         <f>SUM(C2:C4)</f>
         <v>11</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="18">
+      <c r="G5" s="36">
         <f>SUM(G2:G4)</f>
         <v>11</v>
       </c>
@@ -1292,209 +1310,195 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="21">
-        <v>5</v>
-      </c>
-      <c r="D8" s="21">
+      <c r="C8" s="39">
+        <v>8</v>
+      </c>
+      <c r="D8" s="39">
         <v>5</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="21">
+      <c r="G8" s="39">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21">
-        <v>3</v>
-      </c>
-      <c r="D9" s="21">
-        <v>3</v>
-      </c>
+      <c r="C9" s="39">
+        <v>5</v>
+      </c>
+      <c r="D9" s="39"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="21">
+      <c r="G9" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="22">
-        <v>5</v>
-      </c>
-      <c r="D10" s="22">
-        <v>5</v>
-      </c>
+      <c r="C10" s="40">
+        <v>5</v>
+      </c>
+      <c r="D10" s="40"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="22">
+      <c r="G10" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="22">
-        <v>5</v>
-      </c>
-      <c r="D11" s="22">
+      <c r="C11" s="40">
+        <v>3</v>
+      </c>
+      <c r="D11" s="40">
         <v>3</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="22">
+      <c r="G11" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="22">
-        <v>5</v>
-      </c>
-      <c r="D12" s="22">
+      <c r="C12" s="40">
+        <v>8</v>
+      </c>
+      <c r="D12" s="40">
         <v>5</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="22">
+      <c r="G12" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="22">
-        <v>3</v>
-      </c>
-      <c r="D13" s="22">
-        <v>5</v>
-      </c>
+      <c r="C13" s="40">
+        <v>3</v>
+      </c>
+      <c r="D13" s="40"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="22">
+      <c r="G13" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="22">
-        <v>5</v>
-      </c>
-      <c r="D14" s="22">
-        <v>5</v>
-      </c>
+      <c r="C14" s="40">
+        <v>3</v>
+      </c>
+      <c r="D14" s="40"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="22">
+      <c r="G14" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="22">
-        <v>5</v>
-      </c>
-      <c r="D15" s="22">
-        <v>3</v>
-      </c>
+      <c r="C15" s="40">
+        <v>3</v>
+      </c>
+      <c r="D15" s="40"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="22">
+      <c r="G15" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="22">
-        <v>3</v>
-      </c>
-      <c r="D16" s="22">
-        <v>3</v>
-      </c>
+      <c r="C16" s="40">
+        <v>3</v>
+      </c>
+      <c r="D16" s="40"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="22">
+      <c r="G16" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="22">
-        <v>5</v>
-      </c>
-      <c r="D17" s="22">
-        <v>3</v>
-      </c>
+      <c r="C17" s="40">
+        <v>3</v>
+      </c>
+      <c r="D17" s="40"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="22">
+      <c r="G17" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="23">
+      <c r="B18" s="30"/>
+      <c r="C18" s="41">
         <f>SUM(C8:C17)</f>
         <v>44</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="41">
         <f>SUM(D8:D17)</f>
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="23">
+      <c r="G18" s="41">
         <f>SUM(G8:G17)</f>
         <v>45</v>
       </c>
@@ -1502,20 +1506,20 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
@@ -1524,13 +1528,13 @@
       <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="21">
-        <v>5</v>
-      </c>
-      <c r="D21" s="21"/>
+      <c r="C21" s="39">
+        <v>5</v>
+      </c>
+      <c r="D21" s="39"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="21">
+      <c r="G21" s="39">
         <v>5</v>
       </c>
     </row>
@@ -1539,13 +1543,13 @@
       <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="21">
-        <v>3</v>
-      </c>
-      <c r="D22" s="21"/>
+      <c r="C22" s="39">
+        <v>3</v>
+      </c>
+      <c r="D22" s="39"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="21">
+      <c r="G22" s="39">
         <v>3</v>
       </c>
     </row>
@@ -1554,13 +1558,13 @@
       <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="21">
-        <v>5</v>
-      </c>
-      <c r="D23" s="21"/>
+      <c r="C23" s="39">
+        <v>5</v>
+      </c>
+      <c r="D23" s="39"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="21">
+      <c r="G23" s="39">
         <v>5</v>
       </c>
     </row>
@@ -1569,13 +1573,13 @@
       <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="21">
-        <v>5</v>
-      </c>
-      <c r="D24" s="21"/>
+      <c r="C24" s="39">
+        <v>5</v>
+      </c>
+      <c r="D24" s="39"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="21">
+      <c r="G24" s="39">
         <v>5</v>
       </c>
     </row>
@@ -1584,13 +1588,13 @@
       <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="21">
-        <v>8</v>
-      </c>
-      <c r="D25" s="21"/>
+      <c r="C25" s="39">
+        <v>8</v>
+      </c>
+      <c r="D25" s="39"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="21">
+      <c r="G25" s="39">
         <v>8</v>
       </c>
     </row>
@@ -1599,62 +1603,62 @@
       <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="21">
-        <v>8</v>
-      </c>
-      <c r="D26" s="21"/>
+      <c r="C26" s="39">
+        <v>8</v>
+      </c>
+      <c r="D26" s="39"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="21">
+      <c r="G26" s="39">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="23">
+      <c r="B27" s="30"/>
+      <c r="C27" s="41">
         <f>SUM(C21:C26)</f>
         <v>34</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="23">
+      <c r="G27" s="41">
         <f>SUM(G21:G26)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="37"/>
+    </row>
+    <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G32" s="26"/>
+      <c r="G32" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:A17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1666,9 +1670,9 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1676,8 +1680,9 @@
     <col min="1" max="1" width="23" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.19921875" style="6" customWidth="1"/>
     <col min="3" max="3" width="8.69921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.19921875" style="25"/>
-    <col min="7" max="7" width="10.19921875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="43"/>
+    <col min="5" max="6" width="11.19921875" style="25"/>
+    <col min="7" max="7" width="10.19921875" style="43" customWidth="1"/>
     <col min="8" max="16384" width="11.19921875" style="6"/>
   </cols>
   <sheetData>
@@ -1688,7 +1693,7 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
@@ -1705,7 +1710,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1714,56 +1719,56 @@
       <c r="C2" s="17">
         <v>3</v>
       </c>
-      <c r="D2" s="17"/>
+      <c r="D2" s="35"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="17">
+      <c r="G2" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="29"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="17">
         <v>5</v>
       </c>
-      <c r="D3" s="17"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="17">
+      <c r="G3" s="35">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="17">
         <v>3</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="17">
+      <c r="G4" s="35">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="18">
         <f>SUM(C2:C4)</f>
         <v>11</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="18">
+      <c r="G5" s="36">
         <f>SUM(G2:G4)</f>
         <v>11</v>
       </c>
@@ -1772,208 +1777,194 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
+      <c r="G6" s="37"/>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="10"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="38"/>
     </row>
     <row r="8" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="21">
-        <v>5</v>
-      </c>
-      <c r="D8" s="21">
+        <v>3</v>
+      </c>
+      <c r="D8" s="39">
         <v>8</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="21">
+      <c r="G8" s="39">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="21">
         <v>3</v>
       </c>
-      <c r="D9" s="21">
-        <v>5</v>
-      </c>
+      <c r="D9" s="39"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="21">
+      <c r="G9" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="22">
         <v>5</v>
       </c>
-      <c r="D10" s="22">
-        <v>5</v>
-      </c>
+      <c r="D10" s="40"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="22">
+      <c r="G10" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="22">
-        <v>5</v>
-      </c>
-      <c r="D11" s="22">
+        <v>8</v>
+      </c>
+      <c r="D11" s="40">
         <v>5</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="22">
+      <c r="G11" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="29"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="22">
-        <v>5</v>
-      </c>
-      <c r="D12" s="22">
+        <v>3</v>
+      </c>
+      <c r="D12" s="40">
         <v>5</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="22">
+      <c r="G12" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="22">
         <v>3</v>
       </c>
-      <c r="D13" s="22">
-        <v>3</v>
-      </c>
+      <c r="D13" s="40"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="22">
+      <c r="G13" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="29"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="22">
         <v>5</v>
       </c>
-      <c r="D14" s="22">
-        <v>8</v>
-      </c>
+      <c r="D14" s="40"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="22">
+      <c r="G14" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="29"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="22">
-        <v>5</v>
-      </c>
-      <c r="D15" s="22">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D15" s="40"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="22">
+      <c r="G15" s="40">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="22">
         <v>3</v>
       </c>
-      <c r="D16" s="22">
-        <v>5</v>
-      </c>
+      <c r="D16" s="40"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="22">
+      <c r="G16" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="34"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="22">
         <v>5</v>
       </c>
-      <c r="D17" s="22">
-        <v>5</v>
-      </c>
+      <c r="D17" s="40"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="22">
+      <c r="G17" s="40">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="23">
         <f>SUM(C8:C17)</f>
-        <v>44</v>
-      </c>
-      <c r="D18" s="23">
+        <v>41</v>
+      </c>
+      <c r="D18" s="41">
         <f>SUM(D8:D17)</f>
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="23">
+      <c r="G18" s="41">
         <f>SUM(G8:G17)</f>
         <v>45</v>
       </c>
@@ -1982,19 +1973,19 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="G19" s="42"/>
     </row>
     <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="10"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="38"/>
     </row>
     <row r="21" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32" t="s">
@@ -2006,10 +1997,10 @@
       <c r="C21" s="21">
         <v>5</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="21">
+      <c r="G21" s="39">
         <v>5</v>
       </c>
     </row>
@@ -2021,10 +2012,10 @@
       <c r="C22" s="21">
         <v>3</v>
       </c>
-      <c r="D22" s="21"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="21">
+      <c r="G22" s="39">
         <v>3</v>
       </c>
     </row>
@@ -2036,10 +2027,10 @@
       <c r="C23" s="21">
         <v>5</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="21">
+      <c r="G23" s="39">
         <v>5</v>
       </c>
     </row>
@@ -2051,10 +2042,10 @@
       <c r="C24" s="21">
         <v>5</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="21">
+      <c r="G24" s="39">
         <v>5</v>
       </c>
     </row>
@@ -2066,10 +2057,10 @@
       <c r="C25" s="21">
         <v>8</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="21">
+      <c r="G25" s="39">
         <v>8</v>
       </c>
     </row>
@@ -2081,50 +2072,50 @@
       <c r="C26" s="21">
         <v>8</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="21">
+      <c r="G26" s="39">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="31"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="23">
         <f>SUM(C21:C26)</f>
         <v>34</v>
       </c>
-      <c r="D27" s="23"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="23">
+      <c r="G27" s="41">
         <f>SUM(G21:G26)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="37"/>
+    </row>
+    <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G32" s="26"/>
+      <c r="G32" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Individual Estimate.xlsx
+++ b/Individual Estimate.xlsx
@@ -5,17 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cnpm-blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B080A4-ECE2-4D40-A7D1-CF92AEB08794}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BC503E-B864-4ED4-81A6-871B0C2385FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lê Chí Huy" sheetId="17" r:id="rId1"/>
-    <sheet name="Bùi Nhật Hào" sheetId="18" r:id="rId2"/>
-    <sheet name="Nguyễn Hoàng Tấn" sheetId="13" r:id="rId3"/>
+    <sheet name="Cover" sheetId="19" r:id="rId1"/>
+    <sheet name="Histories" sheetId="20" r:id="rId2"/>
+    <sheet name="References" sheetId="21" r:id="rId3"/>
+    <sheet name="Lê Chí Huy" sheetId="17" r:id="rId4"/>
+    <sheet name="Bùi Nhật Hào" sheetId="18" r:id="rId5"/>
+    <sheet name="Nguyễn Hoàng Tấn" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="54">
   <si>
     <t>Level 1</t>
   </si>
@@ -125,6 +128,89 @@
   </si>
   <si>
     <t>Sinh viên bookmark bài viết trên hệ thống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Name: </t>
+  </si>
+  <si>
+    <t>Ứng dụng blog trao đổi học tập của khoa CNTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Date: </t>
+  </si>
+  <si>
+    <t>15/01/2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Document History </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>– To maintain a list of changes being made</t>
+    </r>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Description of Changes</t>
+  </si>
+  <si>
+    <t>Bùi Nhật Hào</t>
+  </si>
+  <si>
+    <t>Tạo template file Gantt Chart</t>
+  </si>
+  <si>
+    <t>Lê Chí Huy</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Tấn</t>
+  </si>
+  <si>
+    <t>This document has been generated from template ST-FunctionalTestCase-Template, version 1.1</t>
+  </si>
+  <si>
+    <t>Individual Estimate</t>
+  </si>
+  <si>
+    <t>Tạo sheet Cover, Histories, và các sheets các nhân</t>
+  </si>
+  <si>
+    <t>Chấm điểm sheets của mình</t>
+  </si>
+  <si>
+    <t>Bùi Nhật Hào, Lê Chí Huy, Nguyễn Hoàng Tấn</t>
+  </si>
+  <si>
+    <t>Cùng nhau xem lại và cập nhật, chỉnh sửa sheets chấm điểm</t>
+  </si>
+  <si>
+    <t>Cập nhật lại histories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference Documents </t>
+  </si>
+  <si>
+    <t>Document Name</t>
+  </si>
+  <si>
+    <t>Team5_WBS.docx</t>
   </si>
 </sst>
 </file>
@@ -134,7 +220,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,8 +234,94 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF262626"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +346,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -323,11 +507,269 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -401,18 +843,51 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -422,41 +897,117 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,6 +1021,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1340783</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1120140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E60C23-A950-4BBD-B524-3FE946F3A779}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="91440"/>
+          <a:ext cx="3596303" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -734,10 +1351,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2875F2-7BE5-4D04-8E4B-61D70E1FF78A}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17.8984375" customWidth="1"/>
+    <col min="3" max="3" width="20.3984375" customWidth="1"/>
+    <col min="4" max="4" width="49.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="123.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="48"/>
+    </row>
+    <row r="2" spans="1:4" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+    </row>
+    <row r="3" spans="1:4" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="57">
+        <v>44753</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACBFC7B-3CF6-4027-A861-8848781B3771}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.59765625" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="58.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="65">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="66">
+        <v>44868</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="65">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="66">
+        <v>44870</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="65">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="66">
+        <v>44873</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="72">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="66">
+        <v>44874</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="66">
+        <v>44875</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="72">
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="66">
+        <v>44876</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="72">
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="66">
+        <v>44877</v>
+      </c>
+      <c r="C9" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98184A5E-AEA5-4529-8C57-271447F55515}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.296875" customWidth="1"/>
+    <col min="2" max="2" width="29.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="73"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="75"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="78"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="76"/>
+      <c r="B4" s="78"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="79"/>
+      <c r="B5" s="77"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="79"/>
+      <c r="B6" s="77"/>
+    </row>
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3:B3" r:id="rId1" display="Team5_WBS.docx" xr:uid="{CF8EE53B-CB90-4B61-B62C-1BE1C0EEADA9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0BB35C-04B0-4931-B76D-073670F34619}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
       <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
@@ -747,10 +1656,10 @@
   <cols>
     <col min="1" max="1" width="23" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.19921875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="43"/>
+    <col min="3" max="3" width="8.69921875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="36"/>
     <col min="5" max="6" width="11.19921875" style="25"/>
-    <col min="7" max="7" width="10.19921875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="36" customWidth="1"/>
     <col min="8" max="16384" width="11.19921875" style="6"/>
   </cols>
   <sheetData>
@@ -778,65 +1687,65 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="35">
-        <v>3</v>
-      </c>
-      <c r="D2" s="35"/>
+      <c r="C2" s="28">
+        <v>3</v>
+      </c>
+      <c r="D2" s="28"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="35">
+      <c r="G2" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35">
-        <v>5</v>
-      </c>
-      <c r="D3" s="35"/>
+      <c r="C3" s="28">
+        <v>5</v>
+      </c>
+      <c r="D3" s="28"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="35">
+      <c r="G3" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="35">
-        <v>3</v>
-      </c>
-      <c r="D4" s="35"/>
+      <c r="C4" s="28">
+        <v>3</v>
+      </c>
+      <c r="D4" s="28"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="35">
+      <c r="G4" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="36">
+      <c r="B5" s="39"/>
+      <c r="C5" s="29">
         <f>SUM(C2:C4)</f>
         <v>11</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="36">
+      <c r="G5" s="29">
         <f>SUM(G2:G4)</f>
         <v>11</v>
       </c>
@@ -844,195 +1753,195 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="39">
-        <v>5</v>
-      </c>
-      <c r="D8" s="39">
+      <c r="C8" s="32">
+        <v>5</v>
+      </c>
+      <c r="D8" s="32">
         <v>8</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="39">
+      <c r="G8" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="39">
-        <v>3</v>
-      </c>
-      <c r="D9" s="39"/>
+      <c r="C9" s="32">
+        <v>3</v>
+      </c>
+      <c r="D9" s="32"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="39">
+      <c r="G9" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="40">
-        <v>5</v>
-      </c>
-      <c r="D10" s="40"/>
+      <c r="C10" s="33">
+        <v>5</v>
+      </c>
+      <c r="D10" s="33"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="40">
+      <c r="G10" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="40">
-        <v>5</v>
-      </c>
-      <c r="D11" s="40">
+      <c r="C11" s="33">
+        <v>5</v>
+      </c>
+      <c r="D11" s="33">
         <v>3</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="40">
+      <c r="G11" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="40">
-        <v>5</v>
-      </c>
-      <c r="D12" s="40">
+      <c r="C12" s="33">
+        <v>5</v>
+      </c>
+      <c r="D12" s="33">
         <v>8</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="40">
+      <c r="G12" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="40">
-        <v>3</v>
-      </c>
-      <c r="D13" s="40"/>
+      <c r="C13" s="33">
+        <v>3</v>
+      </c>
+      <c r="D13" s="33"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="40">
+      <c r="G13" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="40">
-        <v>5</v>
-      </c>
-      <c r="D14" s="40"/>
+      <c r="C14" s="33">
+        <v>5</v>
+      </c>
+      <c r="D14" s="33"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="40">
+      <c r="G14" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="40">
-        <v>5</v>
-      </c>
-      <c r="D15" s="40"/>
+      <c r="C15" s="33">
+        <v>5</v>
+      </c>
+      <c r="D15" s="33"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="40">
+      <c r="G15" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="40">
-        <v>3</v>
-      </c>
-      <c r="D16" s="40"/>
+      <c r="C16" s="33">
+        <v>3</v>
+      </c>
+      <c r="D16" s="33"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="40">
+      <c r="G16" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="40">
-        <v>5</v>
-      </c>
-      <c r="D17" s="40"/>
+      <c r="C17" s="33">
+        <v>5</v>
+      </c>
+      <c r="D17" s="33"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="40">
+      <c r="G17" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="41">
+      <c r="B18" s="39"/>
+      <c r="C18" s="34">
         <f>SUM(C8:C17)</f>
         <v>44</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="34">
         <f>SUM(D8:D17)</f>
         <v>19</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="41">
+      <c r="G18" s="34">
         <f>SUM(G8:G17)</f>
         <v>45</v>
       </c>
@@ -1040,126 +1949,126 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="42"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="38"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="39">
-        <v>5</v>
-      </c>
-      <c r="D21" s="39"/>
+      <c r="C21" s="32">
+        <v>5</v>
+      </c>
+      <c r="D21" s="32"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="39">
+      <c r="G21" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="39">
-        <v>3</v>
-      </c>
-      <c r="D22" s="39"/>
+      <c r="C22" s="32">
+        <v>3</v>
+      </c>
+      <c r="D22" s="32"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="39">
+      <c r="G22" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="33"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="39">
-        <v>5</v>
-      </c>
-      <c r="D23" s="39"/>
+      <c r="C23" s="32">
+        <v>5</v>
+      </c>
+      <c r="D23" s="32"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="39">
+      <c r="G23" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="39">
-        <v>5</v>
-      </c>
-      <c r="D24" s="39"/>
+      <c r="C24" s="32">
+        <v>5</v>
+      </c>
+      <c r="D24" s="32"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="39">
+      <c r="G24" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="32">
         <v>8</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="39">
+      <c r="G25" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="32">
         <v>8</v>
       </c>
-      <c r="D26" s="39"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="39">
+      <c r="G26" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="41">
+      <c r="B27" s="39"/>
+      <c r="C27" s="34">
         <f>SUM(C21:C26)</f>
         <v>34</v>
       </c>
-      <c r="D27" s="41"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="41">
+      <c r="G27" s="34">
         <f>SUM(G21:G26)</f>
         <v>34</v>
       </c>
@@ -1167,23 +2076,23 @@
     <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="37"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="37"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G32" s="44"/>
+      <c r="G32" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1199,11 +2108,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1343561E-0D65-4460-B779-4E98A424EC5D}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
@@ -1213,10 +2122,10 @@
   <cols>
     <col min="1" max="1" width="23" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.19921875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="43"/>
+    <col min="3" max="3" width="8.69921875" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" style="36"/>
     <col min="5" max="6" width="11.19921875" style="25"/>
-    <col min="7" max="7" width="10.19921875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="36" customWidth="1"/>
     <col min="8" max="16384" width="11.19921875" style="6"/>
   </cols>
   <sheetData>
@@ -1244,65 +2153,65 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="35">
-        <v>3</v>
-      </c>
-      <c r="D2" s="35"/>
+      <c r="C2" s="28">
+        <v>3</v>
+      </c>
+      <c r="D2" s="28"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="35">
+      <c r="G2" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="35">
-        <v>5</v>
-      </c>
-      <c r="D3" s="35"/>
+      <c r="C3" s="28">
+        <v>5</v>
+      </c>
+      <c r="D3" s="28"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="35">
+      <c r="G3" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="35">
-        <v>3</v>
-      </c>
-      <c r="D4" s="35"/>
+      <c r="C4" s="28">
+        <v>3</v>
+      </c>
+      <c r="D4" s="28"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="35">
+      <c r="G4" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="36">
+      <c r="B5" s="39"/>
+      <c r="C5" s="29">
         <f>SUM(C2:C4)</f>
         <v>11</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="36">
+      <c r="G5" s="29">
         <f>SUM(G2:G4)</f>
         <v>11</v>
       </c>
@@ -1310,195 +2219,195 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="32">
         <v>8</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="32">
         <v>5</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="39">
+      <c r="G8" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="39">
-        <v>5</v>
-      </c>
-      <c r="D9" s="39"/>
+      <c r="C9" s="32">
+        <v>5</v>
+      </c>
+      <c r="D9" s="32"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="39">
+      <c r="G9" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="40">
-        <v>5</v>
-      </c>
-      <c r="D10" s="40"/>
+      <c r="C10" s="33">
+        <v>5</v>
+      </c>
+      <c r="D10" s="33"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="40">
+      <c r="G10" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="40">
-        <v>3</v>
-      </c>
-      <c r="D11" s="40">
+      <c r="C11" s="33">
+        <v>3</v>
+      </c>
+      <c r="D11" s="33">
         <v>3</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="40">
+      <c r="G11" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="33">
         <v>8</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="33">
         <v>5</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="40">
+      <c r="G12" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="40">
-        <v>3</v>
-      </c>
-      <c r="D13" s="40"/>
+      <c r="C13" s="33">
+        <v>3</v>
+      </c>
+      <c r="D13" s="33"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="40">
+      <c r="G13" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="40">
-        <v>3</v>
-      </c>
-      <c r="D14" s="40"/>
+      <c r="C14" s="33">
+        <v>3</v>
+      </c>
+      <c r="D14" s="33"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="40">
+      <c r="G14" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="40">
-        <v>3</v>
-      </c>
-      <c r="D15" s="40"/>
+      <c r="C15" s="33">
+        <v>3</v>
+      </c>
+      <c r="D15" s="33"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="40">
+      <c r="G15" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="40">
-        <v>3</v>
-      </c>
-      <c r="D16" s="40"/>
+      <c r="C16" s="33">
+        <v>3</v>
+      </c>
+      <c r="D16" s="33"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="40">
+      <c r="G16" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="40">
-        <v>3</v>
-      </c>
-      <c r="D17" s="40"/>
+      <c r="C17" s="33">
+        <v>3</v>
+      </c>
+      <c r="D17" s="33"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="40">
+      <c r="G17" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="41">
+      <c r="B18" s="39"/>
+      <c r="C18" s="34">
         <f>SUM(C8:C17)</f>
         <v>44</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="34">
         <f>SUM(D8:D17)</f>
         <v>13</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="41">
+      <c r="G18" s="34">
         <f>SUM(G8:G17)</f>
         <v>45</v>
       </c>
@@ -1506,126 +2415,126 @@
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="42"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="38"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="39">
-        <v>5</v>
-      </c>
-      <c r="D21" s="39"/>
+      <c r="C21" s="32">
+        <v>5</v>
+      </c>
+      <c r="D21" s="32"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="39">
+      <c r="G21" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="39">
-        <v>3</v>
-      </c>
-      <c r="D22" s="39"/>
+      <c r="C22" s="32">
+        <v>3</v>
+      </c>
+      <c r="D22" s="32"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="39">
+      <c r="G22" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="33"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="39">
-        <v>5</v>
-      </c>
-      <c r="D23" s="39"/>
+      <c r="C23" s="32">
+        <v>5</v>
+      </c>
+      <c r="D23" s="32"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="39">
+      <c r="G23" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="39">
-        <v>5</v>
-      </c>
-      <c r="D24" s="39"/>
+      <c r="C24" s="32">
+        <v>5</v>
+      </c>
+      <c r="D24" s="32"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="39">
+      <c r="G24" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="32">
         <v>8</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="39">
+      <c r="G25" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="32">
         <v>8</v>
       </c>
-      <c r="D26" s="39"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="39">
+      <c r="G26" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="41">
+      <c r="B27" s="39"/>
+      <c r="C27" s="34">
         <f>SUM(C21:C26)</f>
         <v>34</v>
       </c>
-      <c r="D27" s="41"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="41">
+      <c r="G27" s="34">
         <f>SUM(G21:G26)</f>
         <v>34</v>
       </c>
@@ -1633,23 +2542,23 @@
     <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="37"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="37"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G32" s="44"/>
+      <c r="G32" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1665,7 +2574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -1680,9 +2589,9 @@
     <col min="1" max="1" width="23" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="56.19921875" style="6" customWidth="1"/>
     <col min="3" max="3" width="8.69921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="43"/>
+    <col min="4" max="4" width="11.19921875" style="36"/>
     <col min="5" max="6" width="11.19921875" style="25"/>
-    <col min="7" max="7" width="10.19921875" style="43" customWidth="1"/>
+    <col min="7" max="7" width="10.19921875" style="36" customWidth="1"/>
     <col min="8" max="16384" width="11.19921875" style="6"/>
   </cols>
   <sheetData>
@@ -1693,7 +2602,7 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="16" t="s">
@@ -1710,7 +2619,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="40" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1719,56 +2628,56 @@
       <c r="C2" s="17">
         <v>3</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="G2" s="35">
+      <c r="G2" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="17">
         <v>5</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="35">
+      <c r="G3" s="28">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="17">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="35">
+      <c r="G4" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="18">
         <f>SUM(C2:C4)</f>
         <v>11</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="18"/>
       <c r="F5" s="18"/>
-      <c r="G5" s="36">
+      <c r="G5" s="29">
         <f>SUM(G2:G4)</f>
         <v>11</v>
       </c>
@@ -1777,22 +2686,22 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="19"/>
-      <c r="D6" s="37"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="10"/>
       <c r="C7" s="20"/>
-      <c r="D7" s="38"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="38"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1801,170 +2710,170 @@
       <c r="C8" s="21">
         <v>3</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="32">
         <v>8</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="39">
+      <c r="G8" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="21">
         <v>3</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="39">
+      <c r="G9" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="22">
         <v>5</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="40">
+      <c r="G10" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="22">
         <v>8</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="33">
         <v>5</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="40">
+      <c r="G11" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="22">
         <v>3</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="33">
         <v>5</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="40">
+      <c r="G12" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28"/>
+      <c r="A13" s="41"/>
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="22">
         <v>3</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="33"/>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="40">
+      <c r="G13" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="22">
         <v>5</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="40">
+      <c r="G14" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="22">
         <v>3</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="33"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="40">
+      <c r="G15" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28"/>
+      <c r="A16" s="41"/>
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="22">
         <v>3</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="33"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="40">
+      <c r="G16" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="31"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="22">
         <v>5</v>
       </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="40">
+      <c r="G17" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="23">
         <f>SUM(C8:C17)</f>
         <v>41</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="34">
         <f>SUM(D8:D17)</f>
         <v>18</v>
       </c>
       <c r="E18" s="23"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="41">
+      <c r="G18" s="34">
         <f>SUM(G8:G17)</f>
         <v>45</v>
       </c>
@@ -1973,22 +2882,22 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="24"/>
-      <c r="D19" s="42"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="42"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="10"/>
       <c r="C20" s="20"/>
-      <c r="D20" s="38"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="38"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -1997,101 +2906,101 @@
       <c r="C21" s="21">
         <v>5</v>
       </c>
-      <c r="D21" s="39"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="39">
+      <c r="G21" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C22" s="21">
         <v>3</v>
       </c>
-      <c r="D22" s="39"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="39">
+      <c r="G22" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="33"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="21">
         <v>5</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="39">
+      <c r="G23" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="33"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="21">
         <v>5</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="32"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="39">
+      <c r="G24" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="33"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="21">
         <v>8</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="39">
+      <c r="G25" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="21">
         <v>8</v>
       </c>
-      <c r="D26" s="39"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
-      <c r="G26" s="39">
+      <c r="G26" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="30"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="23">
         <f>SUM(C21:C26)</f>
         <v>34</v>
       </c>
-      <c r="D27" s="41"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="23"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="41">
+      <c r="G27" s="34">
         <f>SUM(G21:G26)</f>
         <v>34</v>
       </c>
@@ -2100,22 +3009,22 @@
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="19"/>
-      <c r="D28" s="37"/>
+      <c r="D28" s="30"/>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
-      <c r="G28" s="37"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="19"/>
-      <c r="D29" s="37"/>
+      <c r="D29" s="30"/>
       <c r="E29" s="19"/>
       <c r="F29" s="19"/>
-      <c r="G29" s="37"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G32" s="44"/>
+      <c r="G32" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Individual Estimate.xlsx
+++ b/Individual Estimate.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cnpm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lechihuy/Desktop/CNPM/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E26ECDE-7381-8A46-B78C-285CF84E1B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nguyễn Hoàng Tấn" sheetId="13" r:id="rId1"/>
+    <sheet name="Cover" sheetId="19" r:id="rId1"/>
+    <sheet name="Histories" sheetId="20" r:id="rId2"/>
+    <sheet name="References" sheetId="21" r:id="rId3"/>
+    <sheet name="Lê Chí Huy" sheetId="17" r:id="rId4"/>
+    <sheet name="Bùi Nhật Hào" sheetId="18" r:id="rId5"/>
+    <sheet name="Nguyễn Hoàng Tấn" sheetId="13" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -22,6 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -32,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
   <si>
     <t>Level 1</t>
   </si>
@@ -56,16 +68,162 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Chức năng xác thực tài khoản</t>
+  </si>
+  <si>
+    <t>Sinh viên và giảng viên đăng nhập thông qua tài khoản Outlook</t>
+  </si>
+  <si>
+    <t>Sinh viên và giảng viên đăng xuất tài khoản</t>
+  </si>
+  <si>
+    <t>Sinh viên và giảng viên xem hồ sơ cá nhân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng hỏi đáp </t>
+  </si>
+  <si>
+    <t>Sinh viên đặt câu hỏi</t>
+  </si>
+  <si>
+    <t>Sinh viên xem danh sách câu hỏi của mình</t>
+  </si>
+  <si>
+    <t>Sinh viên chỉnh sửa câu hỏi của mình</t>
+  </si>
+  <si>
+    <t>Sinh viên xóa câu hỏi của mình</t>
+  </si>
+  <si>
+    <t>Giảng viên trả lời câu hỏi trên hệ thống</t>
+  </si>
+  <si>
+    <t>Giảng viên xem danh sách câu trả lời của mình</t>
+  </si>
+  <si>
+    <t>Giảng viên chỉnh sửa câu trả lời của mình</t>
+  </si>
+  <si>
+    <t>Giảng viên xóa câu trả lời của mình</t>
+  </si>
+  <si>
+    <t>Sinh viên và giảng viên xem danh sách câu hỏi trên hệ thống</t>
+  </si>
+  <si>
+    <t>Giảng viên phê duyệt câu hỏi của sinh viên trên hệ thống</t>
+  </si>
+  <si>
+    <t>Chức năng bài viết</t>
+  </si>
+  <si>
+    <t>Giảng viên đăng bài viết</t>
+  </si>
+  <si>
+    <t>Giảng viên xem danh sách bài viết của mình</t>
+  </si>
+  <si>
+    <t>Giảng viên chỉnh sửa bài viết của mình</t>
+  </si>
+  <si>
+    <t>Giảng viên xóa bài viết của mình</t>
+  </si>
+  <si>
+    <t>Sinh viên xem danh sách bài viết trên hệ thống</t>
+  </si>
+  <si>
+    <t>Sinh viên bookmark bài viết trên hệ thống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Name: </t>
+  </si>
+  <si>
+    <t>Ứng dụng blog trao đổi học tập của khoa CNTT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start Date: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Date: </t>
+  </si>
+  <si>
+    <t>15/01/2023</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Document History </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>– To maintain a list of changes being made</t>
+    </r>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Description of Changes</t>
+  </si>
+  <si>
+    <t>Bùi Nhật Hào</t>
+  </si>
+  <si>
+    <t>Tạo template file Gantt Chart</t>
+  </si>
+  <si>
+    <t>Lê Chí Huy</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Tấn</t>
+  </si>
+  <si>
+    <t>Individual Estimate</t>
+  </si>
+  <si>
+    <t>Tạo sheet Cover, Histories, và các sheets các nhân</t>
+  </si>
+  <si>
+    <t>Chấm điểm sheets của mình</t>
+  </si>
+  <si>
+    <t>Bùi Nhật Hào, Lê Chí Huy, Nguyễn Hoàng Tấn</t>
+  </si>
+  <si>
+    <t>Cùng nhau xem lại và cập nhật, chỉnh sửa sheets chấm điểm</t>
+  </si>
+  <si>
+    <t>Cập nhật lại histories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference Documents </t>
+  </si>
+  <si>
+    <t>Document Name</t>
+  </si>
+  <si>
+    <t>Team5_WBS.docx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,16 +234,97 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF262626"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,8 +349,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -235,126 +486,506 @@
     </border>
     <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -362,29 +993,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -398,6 +1024,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1340783</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1120140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4E60C23-A950-4BBD-B524-3FE946F3A779}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="91440"/>
+          <a:ext cx="3596303" cy="822960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,378 +1354,1687 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2875F2-7BE5-4D04-8E4B-61D70E1FF78A}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="123.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+    </row>
+    <row r="2" spans="1:4" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+    </row>
+    <row r="3" spans="1:4" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="42">
+        <v>44753</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACBFC7B-3CF6-4027-A861-8848781B3771}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="58.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="48">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="49">
+        <v>44868</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="B4" s="49">
+        <v>44870</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="49">
+        <v>44873</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="49">
+        <v>44874</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="49">
+        <v>44875</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="53">
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="49">
+        <v>44876</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="49">
+        <v>44877</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A10:D10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98184A5E-AEA5-4529-8C57-271447F55515}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="67"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="69"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="71"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+    </row>
+    <row r="7" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3:B3" r:id="rId1" display="Team5_WBS.docx" xr:uid="{CF8EE53B-CB90-4B61-B62C-1BE1C0EEADA9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0BB35C-04B0-4931-B76D-073670F34619}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D79" sqref="D79"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="36"/>
+    <col min="5" max="6" width="11.1640625" style="25"/>
+    <col min="7" max="7" width="10.1640625" style="36" customWidth="1"/>
+    <col min="8" max="16384" width="11.1640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="28">
+        <v>3</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="28">
+        <v>5</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="28">
+        <v>3</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="75"/>
+      <c r="C5" s="29">
+        <f>SUM(C2:C4)</f>
+        <v>11</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="29">
+        <f>SUM(G2:G4)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="32">
+        <v>5</v>
+      </c>
+      <c r="D8" s="32">
+        <v>8</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
+      <c r="B9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="32">
+        <v>3</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="33">
+        <v>5</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="33">
+        <v>5</v>
+      </c>
+      <c r="D11" s="33">
+        <v>3</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="33">
+        <v>5</v>
+      </c>
+      <c r="D12" s="33">
+        <v>8</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="77"/>
+      <c r="B13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="33">
+        <v>3</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="77"/>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="33">
+        <v>5</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
+      <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="33">
+        <v>5</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
+      <c r="B16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="33">
+        <v>3</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="78"/>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="33">
+        <v>5</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="75"/>
+      <c r="C18" s="34">
+        <f>SUM(C8:C17)</f>
+        <v>44</v>
+      </c>
+      <c r="D18" s="34">
+        <f>SUM(D8:D17)</f>
+        <v>19</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="34">
+        <f>SUM(G8:G17)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" ht="31.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="32">
+        <v>5</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
+      <c r="B22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="32">
+        <v>3</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
+      <c r="B23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="32">
+        <v>5</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
+      <c r="B24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="32">
+        <v>5</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
+      <c r="B25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="32">
+        <v>8</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="80"/>
+      <c r="B26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="32">
+        <v>8</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="75"/>
+      <c r="C27" s="34">
+        <f>SUM(C21:C26)</f>
+        <v>34</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="34">
+        <f>SUM(G21:G26)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:A26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1343561E-0D65-4460-B779-4E98A424EC5D}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
-      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.875" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.25" style="13"/>
-    <col min="7" max="7" width="10.25" style="13" customWidth="1"/>
+    <col min="1" max="1" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="36"/>
+    <col min="5" max="6" width="11.1640625" style="25"/>
+    <col min="7" max="7" width="10.1640625" style="36" customWidth="1"/>
+    <col min="8" max="16384" width="11.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="26" t="s">
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="28">
+        <v>3</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="28">
+        <v>5</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="28">
+        <v>3</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:7" ht="15.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="32" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="29">
+        <f>SUM(C2:C4)</f>
+        <v>11</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="29">
+        <f>SUM(G2:G4)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="32">
+        <v>8</v>
+      </c>
+      <c r="D8" s="32">
+        <v>5</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
+      <c r="B9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="32">
+        <v>5</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="33">
+        <v>5</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="33">
+        <v>3</v>
+      </c>
+      <c r="D11" s="33">
+        <v>3</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="33">
+        <v>8</v>
+      </c>
+      <c r="D12" s="33">
+        <v>5</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="77"/>
+      <c r="B13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="33">
+        <v>3</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="77"/>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="33">
+        <v>3</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
+      <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="33">
+        <v>3</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
+      <c r="B16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="33">
+        <v>3</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="78"/>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="33">
+        <v>3</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+      <c r="B18" s="75"/>
+      <c r="C18" s="34">
+        <f>SUM(C8:C17)</f>
+        <v>44</v>
+      </c>
+      <c r="D18" s="34">
+        <f>SUM(D8:D17)</f>
+        <v>13</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="34">
+        <f>SUM(G8:G17)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" ht="31.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="32">
+        <v>5</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
+      <c r="B22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="32">
+        <v>3</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
+      <c r="B23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="32">
+        <v>5</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
+      <c r="B24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="32">
+        <v>5</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
+      <c r="B25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="32">
+        <v>8</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="80"/>
+      <c r="B26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="32">
+        <v>8</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" s="11" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="37"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" ht="30.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="B27" s="75"/>
+      <c r="C27" s="34">
+        <f>SUM(C21:C26)</f>
+        <v>34</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="34">
+        <f>SUM(G21:G26)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:A26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D79" sqref="D79"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="36"/>
+    <col min="5" max="6" width="11.1640625" style="25"/>
+    <col min="7" max="7" width="10.1640625" style="36" customWidth="1"/>
+    <col min="8" max="16384" width="11.1640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="17">
+        <v>3</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="17">
+        <v>5</v>
+      </c>
+      <c r="D3" s="28"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
+      <c r="B4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="17">
+        <v>3</v>
+      </c>
+      <c r="D4" s="28"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-    </row>
-    <row r="31" spans="1:7" s="11" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="37"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="18">
+        <f>SUM(C2:C4)</f>
+        <v>11</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="29">
+        <f>SUM(G2:G4)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="21">
+        <v>3</v>
+      </c>
+      <c r="D8" s="32">
+        <v>8</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
+      <c r="B9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="22">
+        <v>5</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
+      <c r="B11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="22">
+        <v>8</v>
+      </c>
+      <c r="D11" s="33">
+        <v>5</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
+      <c r="B12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="22">
+        <v>3</v>
+      </c>
+      <c r="D12" s="33">
+        <v>5</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="77"/>
+      <c r="B13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="22">
+        <v>3</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="77"/>
+      <c r="B14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="22">
+        <v>5</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
+      <c r="B15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="22">
+        <v>3</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
+      <c r="B16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="22">
+        <v>3</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="78"/>
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="22">
+        <v>5</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G38" s="14"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="23">
+        <f>SUM(C8:C17)</f>
+        <v>41</v>
+      </c>
+      <c r="D18" s="34">
+        <f>SUM(D8:D17)</f>
+        <v>18</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="34">
+        <f>SUM(G8:G17)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="1:7" ht="31.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="21">
+        <v>5</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
+      <c r="B22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="21">
+        <v>3</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
+      <c r="B23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="21">
+        <v>5</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
+      <c r="B24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="21">
+        <v>5</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
+      <c r="B25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="21">
+        <v>8</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="80"/>
+      <c r="B26" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="21">
+        <v>8</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="75"/>
+      <c r="C27" s="23">
+        <f>SUM(C21:C26)</f>
+        <v>34</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="34">
+        <f>SUM(G21:G26)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="30"/>
+    </row>
+    <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="30"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G32" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:B22"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A8:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Individual Estimate.xlsx
+++ b/Individual Estimate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cnpm-blog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lechihuy/Desktop/CNPM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BC503E-B864-4ED4-81A6-871B0C2385FB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E26ECDE-7381-8A46-B78C-285CF84E1B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12580" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="19" r:id="rId1"/>
@@ -28,6 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="53">
   <si>
     <t>Level 1</t>
   </si>
@@ -181,9 +187,6 @@
   </si>
   <si>
     <t>Nguyễn Hoàng Tấn</t>
-  </si>
-  <si>
-    <t>This document has been generated from template ST-FunctionalTestCase-Template, version 1.1</t>
   </si>
   <si>
     <t>Individual Estimate</t>
@@ -876,6 +879,114 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -896,114 +1007,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1355,58 +1358,58 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.59765625" customWidth="1"/>
-    <col min="2" max="2" width="17.8984375" customWidth="1"/>
-    <col min="3" max="3" width="20.3984375" customWidth="1"/>
-    <col min="4" max="4" width="49.09765625" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="49.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="123.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="45"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-    </row>
-    <row r="2" spans="1:4" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-    </row>
-    <row r="3" spans="1:4" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-    </row>
-    <row r="4" spans="1:4" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="52" t="s">
+    <row r="1" spans="1:4" ht="123.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="57"/>
+    </row>
+    <row r="2" spans="1:4" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+    </row>
+    <row r="3" spans="1:4" ht="39.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+    </row>
+    <row r="4" spans="1:4" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-    </row>
-    <row r="5" spans="1:4" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56" t="s">
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="42">
         <v>44753</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="44" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1427,145 +1430,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACBFC7B-3CF6-4027-A861-8848781B3771}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" customWidth="1"/>
-    <col min="2" max="2" width="19.19921875" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="58.19921875" customWidth="1"/>
+    <col min="4" max="4" width="58.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="65">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="48">
         <v>0.1</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="49">
         <v>44868</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="65">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="48">
         <v>0.2</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="49">
         <v>44870</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="B5" s="49">
+        <v>44873</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65">
-        <v>0.3</v>
-      </c>
-      <c r="B5" s="66">
-        <v>44873</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="68" t="s">
+    <row r="6" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="53">
+        <v>0.4</v>
+      </c>
+      <c r="B6" s="49">
+        <v>44874</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="49">
+        <v>44875</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="53">
+        <v>0.6</v>
+      </c>
+      <c r="B8" s="49">
+        <v>44876</v>
+      </c>
+      <c r="C8" s="52" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="72">
-        <v>0.4</v>
-      </c>
-      <c r="B6" s="66">
-        <v>44874</v>
-      </c>
-      <c r="C6" s="65" t="s">
+      <c r="D8" s="51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="53">
+        <v>0.7</v>
+      </c>
+      <c r="B9" s="49">
+        <v>44877</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="68" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="B7" s="66">
-        <v>44875</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="68" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="72">
-        <v>0.6</v>
-      </c>
-      <c r="B8" s="66">
-        <v>44876</v>
-      </c>
-      <c r="C8" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="68" t="s">
+      <c r="D9" s="51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="72">
-        <v>0.7</v>
-      </c>
-      <c r="B9" s="66">
-        <v>44877</v>
-      </c>
-      <c r="C9" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
+    <row r="10" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1585,45 +1586,45 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.296875" customWidth="1"/>
-    <col min="2" max="2" width="29.59765625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="67"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="73"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="74" t="s">
+      <c r="B2" s="69"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="75"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="78"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
-      <c r="B4" s="78"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="79"/>
-      <c r="B5" s="77"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="79"/>
-      <c r="B6" s="77"/>
-    </row>
-    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
+      <c r="B3" s="71"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+    </row>
+    <row r="7" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1647,23 +1648,23 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
       <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.19921875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="36"/>
-    <col min="5" max="6" width="11.19921875" style="25"/>
-    <col min="7" max="7" width="10.19921875" style="36" customWidth="1"/>
-    <col min="8" max="16384" width="11.19921875" style="6"/>
+    <col min="2" max="2" width="56.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="36"/>
+    <col min="5" max="6" width="11.1640625" style="25"/>
+    <col min="7" max="7" width="10.1640625" style="36" customWidth="1"/>
+    <col min="8" max="16384" width="11.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1686,8 +1687,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -1703,8 +1704,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41"/>
+    <row r="3" spans="1:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
@@ -1718,8 +1719,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="41"/>
+    <row r="4" spans="1:7" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1733,11 +1734,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="29">
         <f>SUM(C2:C4)</f>
         <v>11</v>
@@ -1750,7 +1751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="30"/>
@@ -1759,7 +1760,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="10"/>
       <c r="C7" s="31"/>
@@ -1768,8 +1769,8 @@
       <c r="F7" s="20"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1787,8 +1788,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="41"/>
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
@@ -1802,8 +1803,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
+    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
@@ -1817,8 +1818,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41"/>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
@@ -1834,8 +1835,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41"/>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
@@ -1851,8 +1852,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="77"/>
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
@@ -1866,8 +1867,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="77"/>
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
@@ -1881,8 +1882,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="41"/>
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
       <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
@@ -1896,8 +1897,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="41"/>
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
@@ -1911,8 +1912,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="42"/>
+    <row r="17" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="78"/>
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
@@ -1926,11 +1927,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="34">
         <f>SUM(C8:C17)</f>
         <v>44</v>
@@ -1946,7 +1947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="35"/>
@@ -1955,7 +1956,7 @@
       <c r="F19" s="24"/>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="10"/>
       <c r="C20" s="31"/>
@@ -1964,8 +1965,8 @@
       <c r="F20" s="20"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="43" t="s">
+    <row r="21" spans="1:7" ht="31.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="79" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -1981,8 +1982,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="44"/>
+    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
       <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +1997,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="44"/>
+    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
       <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
@@ -2011,8 +2012,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
+    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
       <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
@@ -2026,8 +2027,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
+    <row r="25" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
       <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
@@ -2041,8 +2042,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="44"/>
+    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="80"/>
       <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
@@ -2056,11 +2057,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="39"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="34">
         <f>SUM(C21:C26)</f>
         <v>34</v>
@@ -2073,7 +2074,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="30"/>
@@ -2082,7 +2083,7 @@
       <c r="F28" s="19"/>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="30"/>
@@ -2091,7 +2092,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="30"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G32" s="37"/>
     </row>
   </sheetData>
@@ -2112,24 +2113,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1343561E-0D65-4460-B779-4E98A424EC5D}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D79" sqref="D79"/>
       <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.19921875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="36"/>
-    <col min="5" max="6" width="11.19921875" style="25"/>
-    <col min="7" max="7" width="10.19921875" style="36" customWidth="1"/>
-    <col min="8" max="16384" width="11.19921875" style="6"/>
+    <col min="2" max="2" width="56.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="36"/>
+    <col min="5" max="6" width="11.1640625" style="25"/>
+    <col min="7" max="7" width="10.1640625" style="36" customWidth="1"/>
+    <col min="8" max="16384" width="11.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2152,8 +2153,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2169,8 +2170,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41"/>
+    <row r="3" spans="1:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
@@ -2184,8 +2185,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="41"/>
+    <row r="4" spans="1:7" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2199,11 +2200,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="29">
         <f>SUM(C2:C4)</f>
         <v>11</v>
@@ -2216,7 +2217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="30"/>
@@ -2225,7 +2226,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="10"/>
       <c r="C7" s="31"/>
@@ -2234,8 +2235,8 @@
       <c r="F7" s="20"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2253,8 +2254,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="41"/>
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
@@ -2268,8 +2269,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
+    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
@@ -2283,8 +2284,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41"/>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
@@ -2300,8 +2301,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41"/>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
@@ -2317,8 +2318,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="77"/>
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
@@ -2332,8 +2333,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="77"/>
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
@@ -2347,8 +2348,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="41"/>
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
       <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
@@ -2362,8 +2363,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="41"/>
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
@@ -2377,8 +2378,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="42"/>
+    <row r="17" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="78"/>
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
@@ -2392,11 +2393,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="34">
         <f>SUM(C8:C17)</f>
         <v>44</v>
@@ -2412,7 +2413,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="35"/>
@@ -2421,7 +2422,7 @@
       <c r="F19" s="24"/>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="10"/>
       <c r="C20" s="31"/>
@@ -2430,8 +2431,8 @@
       <c r="F20" s="20"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="43" t="s">
+    <row r="21" spans="1:7" ht="31.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="79" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2447,8 +2448,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="44"/>
+    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
       <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2463,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="44"/>
+    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
       <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
@@ -2477,8 +2478,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
+    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
       <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
@@ -2492,8 +2493,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
+    <row r="25" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
       <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
@@ -2507,8 +2508,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="44"/>
+    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="80"/>
       <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
@@ -2522,11 +2523,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="39"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="34">
         <f>SUM(C21:C26)</f>
         <v>34</v>
@@ -2539,7 +2540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="30"/>
@@ -2548,7 +2549,7 @@
       <c r="F28" s="19"/>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="30"/>
@@ -2557,7 +2558,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="30"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G32" s="37"/>
     </row>
   </sheetData>
@@ -2584,18 +2585,18 @@
       <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.19921875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.19921875" style="36"/>
-    <col min="5" max="6" width="11.19921875" style="25"/>
-    <col min="7" max="7" width="10.19921875" style="36" customWidth="1"/>
-    <col min="8" max="16384" width="11.19921875" style="6"/>
+    <col min="2" max="2" width="56.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="36"/>
+    <col min="5" max="6" width="11.1640625" style="25"/>
+    <col min="7" max="7" width="10.1640625" style="36" customWidth="1"/>
+    <col min="8" max="16384" width="11.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2618,8 +2619,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -2635,8 +2636,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="41"/>
+    <row r="3" spans="1:7" ht="21.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77"/>
       <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
@@ -2650,8 +2651,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="41"/>
+    <row r="4" spans="1:7" ht="25.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="77"/>
       <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
@@ -2665,11 +2666,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="75"/>
       <c r="C5" s="18">
         <f>SUM(C2:C4)</f>
         <v>11</v>
@@ -2682,7 +2683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="19"/>
@@ -2691,7 +2692,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="30"/>
     </row>
-    <row r="7" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="10"/>
       <c r="C7" s="20"/>
@@ -2700,8 +2701,8 @@
       <c r="F7" s="20"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7" ht="15.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2719,8 +2720,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="41"/>
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
       <c r="B9" s="12" t="s">
         <v>14</v>
       </c>
@@ -2734,8 +2735,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="41"/>
+    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
       <c r="B10" s="13" t="s">
         <v>15</v>
       </c>
@@ -2749,8 +2750,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41"/>
+    <row r="11" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
       <c r="B11" s="14" t="s">
         <v>16</v>
       </c>
@@ -2766,8 +2767,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41"/>
+    <row r="12" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
@@ -2783,8 +2784,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="41"/>
+    <row r="13" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="77"/>
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
@@ -2798,8 +2799,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="41"/>
+    <row r="14" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="77"/>
       <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
@@ -2813,8 +2814,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="41"/>
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="77"/>
       <c r="B15" s="14" t="s">
         <v>20</v>
       </c>
@@ -2828,8 +2829,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="41"/>
+    <row r="16" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="77"/>
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
@@ -2843,8 +2844,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="42"/>
+    <row r="17" spans="1:7" ht="15.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="78"/>
       <c r="B17" s="14" t="s">
         <v>22</v>
       </c>
@@ -2858,11 +2859,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="75"/>
       <c r="C18" s="23">
         <f>SUM(C8:C17)</f>
         <v>41</v>
@@ -2878,7 +2879,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="24"/>
@@ -2887,7 +2888,7 @@
       <c r="F19" s="24"/>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="10"/>
       <c r="C20" s="20"/>
@@ -2896,8 +2897,8 @@
       <c r="F20" s="20"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="43" t="s">
+    <row r="21" spans="1:7" ht="31.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="79" t="s">
         <v>23</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -2913,8 +2914,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="44"/>
+    <row r="22" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
       <c r="B22" s="11" t="s">
         <v>25</v>
       </c>
@@ -2928,8 +2929,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="44"/>
+    <row r="23" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
       <c r="B23" s="11" t="s">
         <v>26</v>
       </c>
@@ -2943,8 +2944,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="44"/>
+    <row r="24" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
       <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
@@ -2958,8 +2959,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="44"/>
+    <row r="25" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
       <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
@@ -2973,8 +2974,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="44"/>
+    <row r="26" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="80"/>
       <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
@@ -2988,11 +2989,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="38" t="s">
+    <row r="27" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="39"/>
+      <c r="B27" s="75"/>
       <c r="C27" s="23">
         <f>SUM(C21:C26)</f>
         <v>34</v>
@@ -3005,7 +3006,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="19"/>
@@ -3014,7 +3015,7 @@
       <c r="F28" s="19"/>
       <c r="G28" s="30"/>
     </row>
-    <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="15"/>
       <c r="C29" s="19"/>
@@ -3023,7 +3024,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="30"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G32" s="37"/>
     </row>
   </sheetData>
